--- a/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="-15" windowWidth="11685" windowHeight="12120"/>
+    <workbookView xWindow="13455" yWindow="-15" windowWidth="11685" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="upper" sheetId="4" r:id="rId4"/>
     <sheet name="final ini" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>triangle</t>
   </si>
   <si>
     <t>prese da Matlab (centri dei triangoli)</t>
@@ -103,15 +100,18 @@
   <si>
     <t>Triangle number Offset</t>
   </si>
+  <si>
+    <t>triangle_10pad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,7 +660,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,7 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,11 +806,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Cella da controllare" xfId="4" builtinId="23"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
-    <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -11837,7 +11836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11911,6 +11910,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11945,6 +11945,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12120,14 +12121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -12150,68 +12151,68 @@
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="L2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -12220,40 +12221,40 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="56">
+      <c r="Q3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="55">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -12266,33 +12267,33 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="46">
+        <v>25</v>
+      </c>
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="58">
+      <c r="Q4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -12307,30 +12308,30 @@
       <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="T5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -12342,31 +12343,31 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="46">
+      <c r="N6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="T6" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -12381,27 +12382,27 @@
       <c r="N7" s="3">
         <v>-10</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="T7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -12413,29 +12414,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="46">
+      <c r="N8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="T8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -12450,24 +12451,24 @@
       <c r="N9" s="3">
         <v>-100</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -12480,25 +12481,25 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="46">
+        <v>26</v>
+      </c>
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="25"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -12510,26 +12511,26 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <v>0</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="25"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="25"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -12542,23 +12543,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="25"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="25"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -12571,42 +12572,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="36">
-        <f t="shared" ref="B4:B25" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*15)+N$11</f>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="35">
+        <f t="shared" ref="B14:B23" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*15)+N$11</f>
         <v>9</v>
       </c>
-      <c r="C14" s="24">
-        <f t="shared" ref="C4:C25" si="1">((+O14*COS($N$3)-P14*SIN($N$3))*$R$3)+$N$7</f>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:C23" si="1">((+O14*COS($N$3)-P14*SIN($N$3))*$R$3)+$N$7</f>
         <v>-28.12733176437591</v>
       </c>
-      <c r="D14" s="24">
-        <f t="shared" ref="D4:D25" si="2">((O14*SIN($N$3)+P14*COS($N$3))*$R$4)+$N$9</f>
+      <c r="D14" s="23">
+        <f t="shared" ref="D14:D23" si="2">((O14*SIN($N$3)+P14*COS($N$3))*$R$4)+$N$9</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f>R$3*(($M14/3.1416*180)+$N$5)</f>
         <v>-89.999859694228434</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
-      <c r="G14" s="26">
-        <f t="shared" ref="G4:G25" si="3">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G14" s="25">
+        <f t="shared" ref="G14:G23" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -12619,42 +12620,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="36">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <f t="shared" si="1"/>
         <v>-18.889727457341905</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <f t="shared" si="2"/>
         <v>116.60254037844379</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f t="shared" ref="E15:E23" si="4">R$3*(($M15/3.1416*180)+$N$5)</f>
         <v>-30</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -12667,42 +12668,42 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="36">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <f t="shared" si="1"/>
         <v>-28.127331764375924</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <f t="shared" si="2"/>
         <v>132.60254037844373</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <f t="shared" si="4"/>
         <v>29.999859694228427</v>
       </c>
       <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -12715,42 +12716,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="36">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f t="shared" si="1"/>
         <v>-0.41451884327389621</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <f t="shared" si="2"/>
         <v>116.60254037844376</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <f t="shared" si="4"/>
         <v>-89.999859694228434</v>
       </c>
       <c r="F17" s="11">
         <v>4</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -12763,42 +12764,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="36">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <f t="shared" si="1"/>
         <v>8.8230854637601368</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f t="shared" si="2"/>
         <v>100.60254037844379</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f t="shared" si="4"/>
-        <v>-30</v>
+        <v>-149.99971938845687</v>
       </c>
       <c r="F18" s="11">
         <v>4</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -12808,45 +12809,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f t="shared" si="1"/>
         <v>-18.889727457341891</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f t="shared" si="2"/>
         <v>84.60254037844382</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f t="shared" si="4"/>
         <v>-149.99971938845687</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -12859,42 +12860,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="36">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <f t="shared" si="1"/>
         <v>-0.41451884327386779</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <f t="shared" si="2"/>
         <v>84.602540378443791</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f t="shared" si="4"/>
         <v>-89.999859694228434</v>
       </c>
       <c r="F20" s="11">
         <v>4</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -12907,23 +12908,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -12936,23 +12937,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -12965,42 +12966,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="36">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-28.127331764375896</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <f t="shared" si="2"/>
         <v>68.60254037844382</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <f t="shared" si="4"/>
         <v>-209.99957908268468</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -13013,23 +13014,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -13042,48 +13043,48 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1">
+    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -13091,7 +13092,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -13100,7 +13101,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="7:14">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -13110,7 +13111,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="7:14">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -13120,7 +13121,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="7:14">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -13130,7 +13131,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="7:14">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -13140,7 +13141,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="7:14">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -13150,7 +13151,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="7:14">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -13160,7 +13161,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="7:14">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -13170,7 +13171,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -13180,7 +13181,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -13190,7 +13191,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -13200,7 +13201,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -13210,7 +13211,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -13220,7 +13221,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -13230,7 +13231,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="7:14">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -13240,7 +13241,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="7:14">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -13250,7 +13251,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="7:14">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -13260,7 +13261,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="7:14">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -13270,7 +13271,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="7:14">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -13280,7 +13281,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="7:14">
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -13290,7 +13291,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="7:14">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -13300,7 +13301,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="7:14">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -13310,7 +13311,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="7:14">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -13320,7 +13321,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="7:14">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -13338,14 +13339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -13364,87 +13365,87 @@
     <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="L2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="36">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="35">
         <f>((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*15)+N$11</f>
         <v>16</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
         <v>-113.39745962155612</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
         <v>106.60254037844388</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f>($M3/3.1416*180)+$N$5</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="37">
+        <v>-89.999719388456853</v>
+      </c>
+      <c r="F3" s="36">
         <v>4</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f>IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -13453,59 +13454,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="55">
+        <v>1</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="35">
+        <f t="shared" ref="B4:B13" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+N$11</f>
         <v>17</v>
       </c>
-      <c r="R3" s="56">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="36">
-        <f t="shared" ref="B4:B25" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+N$11</f>
-        <v>17</v>
-      </c>
-      <c r="C4" s="24">
-        <f t="shared" ref="C4:C25" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
+      <c r="C4" s="23">
+        <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
         <v>-104.1598553145221</v>
       </c>
-      <c r="D4" s="24">
-        <f t="shared" ref="D4:D25" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
+      <c r="D4" s="23">
+        <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
         <v>122.60254037844385</v>
       </c>
-      <c r="E4" s="24">
-        <f t="shared" ref="E4:E25" si="3">($M4/3.1416*180)+$N$5</f>
+      <c r="E4" s="23">
+        <f t="shared" ref="E4:E13" si="3">($M4/3.1416*180)+$N$5</f>
         <v>-29.999859694228427</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="26">
-        <f t="shared" ref="G4:G25" si="4">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -13518,52 +13519,52 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="46">
+        <v>25</v>
+      </c>
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="58">
+      <c r="Q4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="36">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f t="shared" si="1"/>
         <v>-85.684646700454095</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <f t="shared" si="2"/>
         <v>122.60254037844385</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f t="shared" si="3"/>
         <v>-89.999719388456853</v>
       </c>
       <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -13578,49 +13579,49 @@
       <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="25" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="36">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f t="shared" si="1"/>
         <v>-76.447042393420062</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <f t="shared" si="2"/>
         <v>138.60254037844385</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -13632,50 +13633,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="46">
+      <c r="N6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="36">
+      <c r="T6" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f t="shared" si="1"/>
         <v>-85.684646700454067</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <f t="shared" si="2"/>
         <v>154.60254037844382</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F7" s="11">
         <v>4</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -13690,46 +13691,46 @@
       <c r="N7" s="3">
         <v>-150</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="36">
+      <c r="T7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f t="shared" si="1"/>
         <v>-76.44704239342002</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <f t="shared" si="2"/>
         <v>170.60254037844379</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -13741,48 +13742,48 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="46">
+      <c r="N8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="T8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f t="shared" si="1"/>
         <v>-85.684646700454024</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f t="shared" si="2"/>
         <v>186.60254037844379</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F9" s="11">
         <v>4</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -13797,43 +13798,43 @@
       <c r="N9" s="3">
         <v>-30</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="36">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f t="shared" si="1"/>
         <v>-104.15985531452205</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <f t="shared" si="2"/>
         <v>186.60254037844379</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f t="shared" si="3"/>
         <v>89.999859694228434</v>
       </c>
       <c r="F10" s="11">
         <v>4</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -13846,44 +13847,44 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="45">
+        <v>148</v>
+      </c>
+      <c r="P10" s="46">
+        <v>164.66323014923799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
-        <v>148</v>
-      </c>
-      <c r="P10" s="47">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f t="shared" si="1"/>
         <v>-113.3974596215561</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <f t="shared" si="2"/>
         <v>138.60254037844382</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -13895,45 +13896,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <v>16</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>-104.15985531452208</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <f t="shared" si="2"/>
         <v>154.60254037844379</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -13946,42 +13947,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>-113.39745962155608</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <f t="shared" si="2"/>
         <v>170.60254037844379</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -13994,23 +13995,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="25"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="25"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -14023,23 +14024,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -14052,23 +14053,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -14081,23 +14082,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -14110,23 +14111,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -14136,26 +14137,26 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -14168,23 +14169,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -14197,23 +14198,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -14226,23 +14227,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -14255,23 +14256,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="25"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -14284,23 +14285,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -14313,45 +14314,45 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -14362,14 +14363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -14389,87 +14390,87 @@
     <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="L2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="36">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="35">
         <f>((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*15)+N$11</f>
         <v>32</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
         <v>63.397459621556152</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
         <v>183.39745962155612</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f>($M3/3.1416*180)+$N$5</f>
-        <v>210</v>
-      </c>
-      <c r="F3" s="37">
+        <v>90.000280611543147</v>
+      </c>
+      <c r="F3" s="36">
         <v>4</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f>IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -14478,59 +14479,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>3.6651914291880923</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="56">
+      <c r="Q3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="55">
         <v>1</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="36">
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="35">
         <f t="shared" ref="B4:B25" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+N$11</f>
         <v>33</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f t="shared" ref="C4:C25" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
         <v>54.15985531452214</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <f t="shared" ref="D4:D25" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
         <v>167.39745962155615</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E25" si="3">($M4/3.1416*180)+$N$5</f>
         <v>150.00014030577157</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <f t="shared" ref="G4:G25" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -14543,33 +14544,33 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="46">
+        <v>25</v>
+      </c>
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="58">
+      <c r="Q4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -14584,30 +14585,30 @@
       <c r="N5" s="3">
         <v>210</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="T5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -14619,31 +14620,31 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="46">
+      <c r="N6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="T6" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -14658,27 +14659,27 @@
       <c r="N7" s="3">
         <v>100</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="T7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -14690,29 +14691,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="46">
+      <c r="N8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="T8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -14727,24 +14728,24 @@
       <c r="N9" s="3">
         <v>320</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -14756,45 +14757,45 @@
       <c r="M10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="73" t="s">
+      <c r="N10" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="45">
+        <v>148</v>
+      </c>
+      <c r="P10" s="46">
+        <v>164.66323014923799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
-        <v>148</v>
-      </c>
-      <c r="P10" s="47">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f t="shared" si="1"/>
         <v>63.397459621556138</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <f t="shared" si="2"/>
         <v>151.39745962155615</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -14806,45 +14807,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="71">
         <v>32</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>54.159855314522119</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <f t="shared" si="2"/>
         <v>135.39745962155618</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f t="shared" si="3"/>
         <v>150.00014030577157</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -14857,42 +14858,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>63.397459621556123</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <f t="shared" si="2"/>
         <v>119.39745962155621</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -14905,42 +14906,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="36">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
         <v>81.872668235624133</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <f t="shared" si="2"/>
         <v>119.39745962155621</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f t="shared" si="3"/>
         <v>269.99985969422841</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -14953,42 +14954,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="36">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <f t="shared" si="1"/>
         <v>91.110272542658137</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <f t="shared" si="2"/>
         <v>103.39745962155621</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -15001,23 +15002,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -15030,23 +15031,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -15059,23 +15060,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -15085,45 +15086,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f t="shared" si="1"/>
         <v>91.110272542658151</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f t="shared" si="2"/>
         <v>135.39745962155621</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f t="shared" si="3"/>
         <v>329.99971938845687</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -15136,23 +15137,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -15165,23 +15166,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -15194,23 +15195,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -15223,42 +15224,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="36">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="35">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>81.872668235624147</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <f t="shared" si="2"/>
         <v>151.39745962155618</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <f t="shared" si="3"/>
         <v>389.9995790826847</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -15271,42 +15272,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="36">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="35">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <f t="shared" si="1"/>
         <v>91.110272542658166</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <f t="shared" si="2"/>
         <v>167.39745962155618</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <f t="shared" si="3"/>
         <v>329.99971938845687</v>
       </c>
       <c r="F24" s="11">
         <v>4</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -15319,68 +15320,68 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="36">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="35">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <f t="shared" si="1"/>
         <v>81.872668235624161</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <f t="shared" si="2"/>
         <v>183.39745962155615</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <f t="shared" si="3"/>
         <v>389.9995790826847</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>4</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="N30" s="61"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15390,14 +15391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -15413,68 +15414,68 @@
     <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="L2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -15483,40 +15484,40 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="56">
+      <c r="Q3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="55">
         <v>1</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -15529,33 +15530,33 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="46">
+        <v>25</v>
+      </c>
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="58">
+      <c r="Q4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -15570,30 +15571,30 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="T5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -15605,31 +15606,31 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="46">
+      <c r="N6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="T6" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -15644,27 +15645,27 @@
       <c r="N7" s="3">
         <v>-110</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="T7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -15676,29 +15677,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="46">
+      <c r="N8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="T8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -15713,24 +15714,24 @@
       <c r="N9" s="3">
         <v>50</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -15743,25 +15744,25 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="46">
+        <v>26</v>
+      </c>
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="25"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -15773,46 +15774,46 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <f>16*3</f>
         <v>48</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36">
-        <f t="shared" ref="B4:B25" si="0">((ROUND($L12/10,0))-1)*4+MOD($L12,10)+((J12-1)*15)+N$11</f>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="35">
+        <f t="shared" ref="B12:B23" si="0">((ROUND($L12/10,0))-1)*4+MOD($L12,10)+((J12-1)*15)+N$11</f>
         <v>61</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" ref="C4:C25" si="1">((+O12*COS($N$3)-P12*SIN($N$3))*$R$3)+$N$7</f>
+      <c r="C12" s="23">
+        <f t="shared" ref="C12:C23" si="1">((+O12*COS($N$3)-P12*SIN($N$3))*$R$3)+$N$7</f>
         <v>22</v>
       </c>
-      <c r="D12" s="24">
-        <f t="shared" ref="D4:D25" si="2">((O12*SIN($N$3)+P12*COS($N$3))*$R$4)+$N$9</f>
+      <c r="D12" s="23">
+        <f t="shared" ref="D12:D23" si="2">((O12*SIN($N$3)+P12*COS($N$3))*$R$4)+$N$9</f>
         <v>186.95041722813599</v>
       </c>
-      <c r="E12" s="24">
-        <f t="shared" ref="E4:E25" si="3">($M12/3.1416*180)+$N$5</f>
+      <c r="E12" s="23">
+        <f t="shared" ref="E12:E23" si="3">($M12/3.1416*180)+$N$5</f>
         <v>-59.999859694228427</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" ref="G4:G25" si="4">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G12" s="25">
+        <f t="shared" ref="G12:G23" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -15825,42 +15826,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <f t="shared" si="2"/>
         <v>205.425625842204</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -15873,42 +15874,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="36">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <f t="shared" si="2"/>
         <v>214.66323014923799</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f t="shared" si="3"/>
         <v>59.999859694228427</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -15921,23 +15922,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -15950,23 +15951,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -15979,23 +15980,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -16008,23 +16009,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -16034,45 +16035,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f t="shared" si="2"/>
         <v>205.425625842204</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f t="shared" si="3"/>
         <v>119.99971938845685</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -16085,42 +16086,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="36">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <f t="shared" si="1"/>
         <v>-26</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <f t="shared" si="2"/>
         <v>214.66323014923799</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f t="shared" si="3"/>
         <v>59.999859694228427</v>
       </c>
       <c r="F20" s="11">
         <v>4</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -16133,42 +16134,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="36">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="35">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <f t="shared" si="1"/>
         <v>-42</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <f t="shared" si="2"/>
         <v>205.425625842204</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f t="shared" si="3"/>
         <v>119.99971938845685</v>
       </c>
       <c r="F21" s="11">
         <v>4</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -16181,42 +16182,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="35">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <f t="shared" si="1"/>
         <v>-42</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <f t="shared" si="2"/>
         <v>186.95041722813599</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <f t="shared" si="3"/>
         <v>179.99957908268468</v>
       </c>
       <c r="F22" s="11">
         <v>4</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -16229,42 +16230,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="36">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="35">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <f t="shared" si="2"/>
         <v>186.95041722813599</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <f t="shared" si="3"/>
         <v>179.99957908268468</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -16277,23 +16278,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -16306,45 +16307,45 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -16354,2813 +16355,2814 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="64" t="str">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="str">
         <f>IF(lower!A3=0, "", lower!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="66" t="str">
         <f>IF(lower!B3=0, "", lower!B3)</f>
         <v/>
       </c>
-      <c r="C3" s="67" t="str">
+      <c r="C3" s="66" t="str">
         <f>IF(lower!C3=0, "", lower!C3)</f>
         <v/>
       </c>
-      <c r="D3" s="67" t="str">
+      <c r="D3" s="66" t="str">
         <f>IF(lower!D3=0, "", lower!D3)</f>
         <v/>
       </c>
-      <c r="E3" s="67" t="str">
+      <c r="E3" s="66" t="str">
         <f>IF(lower!E3=0, "", lower!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="64" t="str">
+      <c r="F3" s="63" t="str">
         <f>IF(lower!F3=0, "", lower!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="64" t="str">
+      <c r="G3" s="63" t="str">
         <f>IF(lower!$A3=0, "", lower!G3)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="64" t="str">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="str">
         <f>IF(lower!A4=0, "", lower!A4)</f>
         <v/>
       </c>
-      <c r="B4" s="67" t="str">
+      <c r="B4" s="66" t="str">
         <f>IF(lower!B4=0, "", lower!B4)</f>
         <v/>
       </c>
-      <c r="C4" s="67" t="str">
+      <c r="C4" s="66" t="str">
         <f>IF(lower!C4=0, "", lower!C4)</f>
         <v/>
       </c>
-      <c r="D4" s="67" t="str">
+      <c r="D4" s="66" t="str">
         <f>IF(lower!D4=0, "", lower!D4)</f>
         <v/>
       </c>
-      <c r="E4" s="67" t="str">
+      <c r="E4" s="66" t="str">
         <f>IF(lower!E4=0, "", lower!E4)</f>
         <v/>
       </c>
-      <c r="F4" s="64" t="str">
+      <c r="F4" s="63" t="str">
         <f>IF(lower!F4=0, "", lower!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="64" t="str">
+      <c r="G4" s="63" t="str">
         <f>IF(lower!$A4=0, "", lower!G4)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="64" t="str">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="str">
         <f>IF(lower!A5=0, "", lower!A5)</f>
         <v/>
       </c>
-      <c r="B5" s="67" t="str">
+      <c r="B5" s="66" t="str">
         <f>IF(lower!B5=0, "", lower!B5)</f>
         <v/>
       </c>
-      <c r="C5" s="67" t="str">
+      <c r="C5" s="66" t="str">
         <f>IF(lower!C5=0, "", lower!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="67" t="str">
+      <c r="D5" s="66" t="str">
         <f>IF(lower!D5=0, "", lower!D5)</f>
         <v/>
       </c>
-      <c r="E5" s="67" t="str">
+      <c r="E5" s="66" t="str">
         <f>IF(lower!E5=0, "", lower!E5)</f>
         <v/>
       </c>
-      <c r="F5" s="64" t="str">
+      <c r="F5" s="63" t="str">
         <f>IF(lower!F5=0, "", lower!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="64" t="str">
+      <c r="G5" s="63" t="str">
         <f>IF(lower!$A5=0, "", lower!G5)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="64" t="str">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="str">
         <f>IF(lower!A6=0, "", lower!A6)</f>
         <v/>
       </c>
-      <c r="B6" s="67" t="str">
+      <c r="B6" s="66" t="str">
         <f>IF(lower!B6=0, "", lower!B6)</f>
         <v/>
       </c>
-      <c r="C6" s="67" t="str">
+      <c r="C6" s="66" t="str">
         <f>IF(lower!C6=0, "", lower!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="67" t="str">
+      <c r="D6" s="66" t="str">
         <f>IF(lower!D6=0, "", lower!D6)</f>
         <v/>
       </c>
-      <c r="E6" s="67" t="str">
+      <c r="E6" s="66" t="str">
         <f>IF(lower!E6=0, "", lower!E6)</f>
         <v/>
       </c>
-      <c r="F6" s="64" t="str">
+      <c r="F6" s="63" t="str">
         <f>IF(lower!F6=0, "", lower!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="64" t="str">
+      <c r="G6" s="63" t="str">
         <f>IF(lower!$A6=0, "", lower!G6)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="64" t="str">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="str">
         <f>IF(lower!A7=0, "", lower!A7)</f>
         <v/>
       </c>
-      <c r="B7" s="67" t="str">
+      <c r="B7" s="66" t="str">
         <f>IF(lower!B7=0, "", lower!B7)</f>
         <v/>
       </c>
-      <c r="C7" s="67" t="str">
+      <c r="C7" s="66" t="str">
         <f>IF(lower!C7=0, "", lower!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="67" t="str">
+      <c r="D7" s="66" t="str">
         <f>IF(lower!D7=0, "", lower!D7)</f>
         <v/>
       </c>
-      <c r="E7" s="67" t="str">
+      <c r="E7" s="66" t="str">
         <f>IF(lower!E7=0, "", lower!E7)</f>
         <v/>
       </c>
-      <c r="F7" s="64" t="str">
+      <c r="F7" s="63" t="str">
         <f>IF(lower!F7=0, "", lower!F7)</f>
         <v/>
       </c>
-      <c r="G7" s="64" t="str">
+      <c r="G7" s="63" t="str">
         <f>IF(lower!$A7=0, "", lower!G7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="64" t="str">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="str">
         <f>IF(lower!A8=0, "", lower!A8)</f>
         <v/>
       </c>
-      <c r="B8" s="67" t="str">
+      <c r="B8" s="66" t="str">
         <f>IF(lower!B8=0, "", lower!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="67" t="str">
+      <c r="C8" s="66" t="str">
         <f>IF(lower!C8=0, "", lower!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="67" t="str">
+      <c r="D8" s="66" t="str">
         <f>IF(lower!D8=0, "", lower!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="67" t="str">
+      <c r="E8" s="66" t="str">
         <f>IF(lower!E8=0, "", lower!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="64" t="str">
+      <c r="F8" s="63" t="str">
         <f>IF(lower!F8=0, "", lower!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="64" t="str">
+      <c r="G8" s="63" t="str">
         <f>IF(lower!$A8=0, "", lower!G8)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="64" t="str">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="str">
         <f>IF(lower!A9=0, "", lower!A9)</f>
         <v/>
       </c>
-      <c r="B9" s="67" t="str">
+      <c r="B9" s="66" t="str">
         <f>IF(lower!B9=0, "", lower!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="67" t="str">
+      <c r="C9" s="66" t="str">
         <f>IF(lower!C9=0, "", lower!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="67" t="str">
+      <c r="D9" s="66" t="str">
         <f>IF(lower!D9=0, "", lower!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="67" t="str">
+      <c r="E9" s="66" t="str">
         <f>IF(lower!E9=0, "", lower!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="64" t="str">
+      <c r="F9" s="63" t="str">
         <f>IF(lower!F9=0, "", lower!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="64" t="str">
+      <c r="G9" s="63" t="str">
         <f>IF(lower!$A9=0, "", lower!G9)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="64" t="str">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="str">
         <f>IF(lower!A10=0, "", lower!A10)</f>
         <v/>
       </c>
-      <c r="B10" s="67" t="str">
+      <c r="B10" s="66" t="str">
         <f>IF(lower!B10=0, "", lower!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="67" t="str">
+      <c r="C10" s="66" t="str">
         <f>IF(lower!C10=0, "", lower!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="67" t="str">
+      <c r="D10" s="66" t="str">
         <f>IF(lower!D10=0, "", lower!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="67" t="str">
+      <c r="E10" s="66" t="str">
         <f>IF(lower!E10=0, "", lower!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="64" t="str">
+      <c r="F10" s="63" t="str">
         <f>IF(lower!F10=0, "", lower!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="64" t="str">
+      <c r="G10" s="63" t="str">
         <f>IF(lower!$A10=0, "", lower!G10)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="64" t="str">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="str">
         <f>IF(lower!A11=0, "", lower!A11)</f>
         <v/>
       </c>
-      <c r="B11" s="67" t="str">
+      <c r="B11" s="66" t="str">
         <f>IF(lower!B11=0, "", lower!B11)</f>
         <v/>
       </c>
-      <c r="C11" s="67" t="str">
+      <c r="C11" s="66" t="str">
         <f>IF(lower!C11=0, "", lower!C11)</f>
         <v/>
       </c>
-      <c r="D11" s="67" t="str">
+      <c r="D11" s="66" t="str">
         <f>IF(lower!D11=0, "", lower!D11)</f>
         <v/>
       </c>
-      <c r="E11" s="67" t="str">
+      <c r="E11" s="66" t="str">
         <f>IF(lower!E11=0, "", lower!E11)</f>
         <v/>
       </c>
-      <c r="F11" s="64" t="str">
+      <c r="F11" s="63" t="str">
         <f>IF(lower!F11=0, "", lower!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="64" t="str">
+      <c r="G11" s="63" t="str">
         <f>IF(lower!$A11=0, "", lower!G11)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="64" t="str">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="str">
         <f>IF(lower!A12=0, "", lower!A12)</f>
         <v/>
       </c>
-      <c r="B12" s="67" t="str">
+      <c r="B12" s="66" t="str">
         <f>IF(lower!B12=0, "", lower!B12)</f>
         <v/>
       </c>
-      <c r="C12" s="67" t="str">
+      <c r="C12" s="66" t="str">
         <f>IF(lower!C12=0, "", lower!C12)</f>
         <v/>
       </c>
-      <c r="D12" s="67" t="str">
+      <c r="D12" s="66" t="str">
         <f>IF(lower!D12=0, "", lower!D12)</f>
         <v/>
       </c>
-      <c r="E12" s="67" t="str">
+      <c r="E12" s="66" t="str">
         <f>IF(lower!E12=0, "", lower!E12)</f>
         <v/>
       </c>
-      <c r="F12" s="64" t="str">
+      <c r="F12" s="63" t="str">
         <f>IF(lower!F12=0, "", lower!F12)</f>
         <v/>
       </c>
-      <c r="G12" s="64" t="str">
+      <c r="G12" s="63" t="str">
         <f>IF(lower!$A12=0, "", lower!G12)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="64" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="str">
         <f>IF(lower!A13=0, "", lower!A13)</f>
         <v/>
       </c>
-      <c r="B13" s="67" t="str">
+      <c r="B13" s="66" t="str">
         <f>IF(lower!B13=0, "", lower!B13)</f>
         <v/>
       </c>
-      <c r="C13" s="67" t="str">
+      <c r="C13" s="66" t="str">
         <f>IF(lower!C13=0, "", lower!C13)</f>
         <v/>
       </c>
-      <c r="D13" s="67" t="str">
+      <c r="D13" s="66" t="str">
         <f>IF(lower!D13=0, "", lower!D13)</f>
         <v/>
       </c>
-      <c r="E13" s="67" t="str">
+      <c r="E13" s="66" t="str">
         <f>IF(lower!E13=0, "", lower!E13)</f>
         <v/>
       </c>
-      <c r="F13" s="64" t="str">
+      <c r="F13" s="63" t="str">
         <f>IF(lower!F13=0, "", lower!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="64" t="str">
+      <c r="G13" s="63" t="str">
         <f>IF(lower!$A13=0, "", lower!G13)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="64" t="str">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="str">
         <f>IF(lower!A14=0, "", lower!A14)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B14" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B14" s="66">
         <f>IF(lower!B14=0, "", lower!B14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="66">
         <f>IF(lower!C14=0, "", lower!C14)</f>
         <v>-28.12733176437591</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="66">
         <f>IF(lower!D14=0, "", lower!D14)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="66">
         <f>IF(lower!E14=0, "", lower!E14)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <f>IF(lower!F14=0, "", lower!F14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <f>IF(lower!$A14=0, "", lower!G14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="64" t="str">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="str">
         <f>IF(lower!A15=0, "", lower!A15)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B15" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B15" s="66">
         <f>IF(lower!B15=0, "", lower!B15)</f>
         <v>6</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <f>IF(lower!C15=0, "", lower!C15)</f>
         <v>-18.889727457341905</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="66">
         <f>IF(lower!D15=0, "", lower!D15)</f>
         <v>116.60254037844379</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="66">
         <f>IF(lower!E15=0, "", lower!E15)</f>
         <v>-30</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <f>IF(lower!F15=0, "", lower!F15)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="63">
         <f>IF(lower!$A15=0, "", lower!G15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="64" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="str">
         <f>IF(lower!A16=0, "", lower!A16)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B16" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B16" s="66">
         <f>IF(lower!B16=0, "", lower!B16)</f>
         <v>7</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <f>IF(lower!C16=0, "", lower!C16)</f>
         <v>-28.127331764375924</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <f>IF(lower!D16=0, "", lower!D16)</f>
         <v>132.60254037844373</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="66">
         <f>IF(lower!E16=0, "", lower!E16)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <f>IF(lower!F16=0, "", lower!F16)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="63">
         <f>IF(lower!$A16=0, "", lower!G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="64" t="str">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="str">
         <f>IF(lower!A17=0, "", lower!A17)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B17" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B17" s="66">
         <f>IF(lower!B17=0, "", lower!B17)</f>
         <v>3</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <f>IF(lower!C17=0, "", lower!C17)</f>
         <v>-0.41451884327389621</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <f>IF(lower!D17=0, "", lower!D17)</f>
         <v>116.60254037844376</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <f>IF(lower!E17=0, "", lower!E17)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <f>IF(lower!F17=0, "", lower!F17)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="63">
         <f>IF(lower!$A17=0, "", lower!G17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="64" t="str">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="str">
         <f>IF(lower!A18=0, "", lower!A18)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B18" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B18" s="66">
         <f>IF(lower!B18=0, "", lower!B18)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <f>IF(lower!C18=0, "", lower!C18)</f>
         <v>8.8230854637601368</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <f>IF(lower!D18=0, "", lower!D18)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <f>IF(lower!E18=0, "", lower!E18)</f>
-        <v>-30</v>
-      </c>
-      <c r="F18" s="64">
+        <v>-149.99971938845687</v>
+      </c>
+      <c r="F18" s="63">
         <f>IF(lower!F18=0, "", lower!F18)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="63">
         <f>IF(lower!$A18=0, "", lower!G18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="64" t="str">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="str">
         <f>IF(lower!A19=0, "", lower!A19)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B19" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B19" s="66">
         <f>IF(lower!B19=0, "", lower!B19)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <f>IF(lower!C19=0, "", lower!C19)</f>
         <v>-18.889727457341891</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <f>IF(lower!D19=0, "", lower!D19)</f>
         <v>84.60254037844382</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <f>IF(lower!E19=0, "", lower!E19)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <f>IF(lower!F19=0, "", lower!F19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="63">
         <f>IF(lower!$A19=0, "", lower!G19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="64" t="str">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="str">
         <f>IF(lower!A20=0, "", lower!A20)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B20" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B20" s="66">
         <f>IF(lower!B20=0, "", lower!B20)</f>
         <v>5</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <f>IF(lower!C20=0, "", lower!C20)</f>
         <v>-0.41451884327386779</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <f>IF(lower!D20=0, "", lower!D20)</f>
         <v>84.602540378443791</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <f>IF(lower!E20=0, "", lower!E20)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <f>IF(lower!F20=0, "", lower!F20)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="63">
         <f>IF(lower!$A20=0, "", lower!G20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="64" t="str">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="str">
         <f>IF(lower!A21=0, "", lower!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="67" t="str">
+      <c r="B21" s="66" t="str">
         <f>IF(lower!B21=0, "", lower!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="67" t="str">
+      <c r="C21" s="66" t="str">
         <f>IF(lower!C21=0, "", lower!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="67" t="str">
+      <c r="D21" s="66" t="str">
         <f>IF(lower!D21=0, "", lower!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="67" t="str">
+      <c r="E21" s="66" t="str">
         <f>IF(lower!E21=0, "", lower!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="64" t="str">
+      <c r="F21" s="63" t="str">
         <f>IF(lower!F21=0, "", lower!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="64" t="str">
+      <c r="G21" s="63" t="str">
         <f>IF(lower!$A21=0, "", lower!G21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="64" t="str">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="str">
         <f>IF(lower!A22=0, "", lower!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="67" t="str">
+      <c r="B22" s="66" t="str">
         <f>IF(lower!B22=0, "", lower!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="67" t="str">
+      <c r="C22" s="66" t="str">
         <f>IF(lower!C22=0, "", lower!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="67" t="str">
+      <c r="D22" s="66" t="str">
         <f>IF(lower!D22=0, "", lower!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="67" t="str">
+      <c r="E22" s="66" t="str">
         <f>IF(lower!E22=0, "", lower!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="64" t="str">
+      <c r="F22" s="63" t="str">
         <f>IF(lower!F22=0, "", lower!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="64" t="str">
+      <c r="G22" s="63" t="str">
         <f>IF(lower!$A22=0, "", lower!G22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="64" t="str">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="str">
         <f>IF(lower!A23=0, "", lower!A23)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B23" s="67">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B23" s="66">
         <f>IF(lower!B23=0, "", lower!B23)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <f>IF(lower!C23=0, "", lower!C23)</f>
         <v>-28.127331764375896</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <f>IF(lower!D23=0, "", lower!D23)</f>
         <v>68.60254037844382</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="66">
         <f>IF(lower!E23=0, "", lower!E23)</f>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="63">
         <f>IF(lower!F23=0, "", lower!F23)</f>
         <v>4</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="63">
         <f>IF(lower!$A23=0, "", lower!G23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="64" t="str">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="str">
         <f>IF(lower!A24=0, "", lower!A24)</f>
         <v/>
       </c>
-      <c r="B24" s="67" t="str">
+      <c r="B24" s="66" t="str">
         <f>IF(lower!B24=0, "", lower!B24)</f>
         <v/>
       </c>
-      <c r="C24" s="67" t="str">
+      <c r="C24" s="66" t="str">
         <f>IF(lower!C24=0, "", lower!C24)</f>
         <v/>
       </c>
-      <c r="D24" s="67" t="str">
+      <c r="D24" s="66" t="str">
         <f>IF(lower!D24=0, "", lower!D24)</f>
         <v/>
       </c>
-      <c r="E24" s="67" t="str">
+      <c r="E24" s="66" t="str">
         <f>IF(lower!E24=0, "", lower!E24)</f>
         <v/>
       </c>
-      <c r="F24" s="64" t="str">
+      <c r="F24" s="63" t="str">
         <f>IF(lower!F24=0, "", lower!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="64" t="str">
+      <c r="G24" s="63" t="str">
         <f>IF(lower!$A24=0, "", lower!G24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="64" t="str">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="str">
         <f>IF(lower!A25=0, "", lower!A25)</f>
         <v/>
       </c>
-      <c r="B25" s="67" t="str">
+      <c r="B25" s="66" t="str">
         <f>IF(lower!B25=0, "", lower!B25)</f>
         <v/>
       </c>
-      <c r="C25" s="67" t="str">
+      <c r="C25" s="66" t="str">
         <f>IF(lower!C25=0, "", lower!C25)</f>
         <v/>
       </c>
-      <c r="D25" s="67" t="str">
+      <c r="D25" s="66" t="str">
         <f>IF(lower!D25=0, "", lower!D25)</f>
         <v/>
       </c>
-      <c r="E25" s="67" t="str">
+      <c r="E25" s="66" t="str">
         <f>IF(lower!E25=0, "", lower!E25)</f>
         <v/>
       </c>
-      <c r="F25" s="64" t="str">
+      <c r="F25" s="63" t="str">
         <f>IF(lower!F25=0, "", lower!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="64" t="str">
+      <c r="G25" s="63" t="str">
         <f>IF(lower!$A25=0, "", lower!G25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="63" t="str">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="str">
         <f>IF(internal!A3=0, "", internal!A3)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B26" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B26" s="67">
         <f>IF(internal!B3=0, "", internal!B3)</f>
         <v>32</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="67">
         <f>IF(internal!C3=0, "", internal!C3)</f>
         <v>63.397459621556152</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <f>IF(internal!D3=0, "", internal!D3)</f>
         <v>183.39745962155612</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <f>IF(internal!E3=0, "", internal!E3)</f>
-        <v>210</v>
-      </c>
-      <c r="F26" s="63">
+        <v>90.000280611543147</v>
+      </c>
+      <c r="F26" s="62">
         <f>IF(internal!F3=0, "", internal!F3)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="62">
         <f>IF(internal!A3=0, "", internal!G3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="63" t="str">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="str">
         <f>IF(internal!A4=0, "", internal!A4)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B27" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B27" s="67">
         <f>IF(internal!B4=0, "", internal!B4)</f>
         <v>33</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="67">
         <f>IF(internal!C4=0, "", internal!C4)</f>
         <v>54.15985531452214</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <f>IF(internal!D4=0, "", internal!D4)</f>
         <v>167.39745962155615</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <f>IF(internal!E4=0, "", internal!E4)</f>
         <v>150.00014030577157</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="62">
         <f>IF(internal!F4=0, "", internal!F4)</f>
         <v>4</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="62">
         <f>IF(internal!A4=0, "", internal!G4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="63" t="str">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="str">
         <f>IF(internal!A5=0, "", internal!A5)</f>
         <v/>
       </c>
-      <c r="B28" s="68" t="str">
+      <c r="B28" s="67" t="str">
         <f>IF(internal!B5=0, "", internal!B5)</f>
         <v/>
       </c>
-      <c r="C28" s="68" t="str">
+      <c r="C28" s="67" t="str">
         <f>IF(internal!C5=0, "", internal!C5)</f>
         <v/>
       </c>
-      <c r="D28" s="68" t="str">
+      <c r="D28" s="67" t="str">
         <f>IF(internal!D5=0, "", internal!D5)</f>
         <v/>
       </c>
-      <c r="E28" s="68" t="str">
+      <c r="E28" s="67" t="str">
         <f>IF(internal!E5=0, "", internal!E5)</f>
         <v/>
       </c>
-      <c r="F28" s="63" t="str">
+      <c r="F28" s="62" t="str">
         <f>IF(internal!F5=0, "", internal!F5)</f>
         <v/>
       </c>
-      <c r="G28" s="63" t="str">
+      <c r="G28" s="62" t="str">
         <f>IF(internal!A5=0, "", internal!G5)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="63" t="str">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="str">
         <f>IF(internal!A6=0, "", internal!A6)</f>
         <v/>
       </c>
-      <c r="B29" s="68" t="str">
+      <c r="B29" s="67" t="str">
         <f>IF(internal!B6=0, "", internal!B6)</f>
         <v/>
       </c>
-      <c r="C29" s="68" t="str">
+      <c r="C29" s="67" t="str">
         <f>IF(internal!C6=0, "", internal!C6)</f>
         <v/>
       </c>
-      <c r="D29" s="68" t="str">
+      <c r="D29" s="67" t="str">
         <f>IF(internal!D6=0, "", internal!D6)</f>
         <v/>
       </c>
-      <c r="E29" s="68" t="str">
+      <c r="E29" s="67" t="str">
         <f>IF(internal!E6=0, "", internal!E6)</f>
         <v/>
       </c>
-      <c r="F29" s="63" t="str">
+      <c r="F29" s="62" t="str">
         <f>IF(internal!F6=0, "", internal!F6)</f>
         <v/>
       </c>
-      <c r="G29" s="63" t="str">
+      <c r="G29" s="62" t="str">
         <f>IF(internal!A6=0, "", internal!G6)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="63" t="str">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="str">
         <f>IF(internal!A7=0, "", internal!A7)</f>
         <v/>
       </c>
-      <c r="B30" s="68" t="str">
+      <c r="B30" s="67" t="str">
         <f>IF(internal!B7=0, "", internal!B7)</f>
         <v/>
       </c>
-      <c r="C30" s="68" t="str">
+      <c r="C30" s="67" t="str">
         <f>IF(internal!C7=0, "", internal!C7)</f>
         <v/>
       </c>
-      <c r="D30" s="68" t="str">
+      <c r="D30" s="67" t="str">
         <f>IF(internal!D7=0, "", internal!D7)</f>
         <v/>
       </c>
-      <c r="E30" s="68" t="str">
+      <c r="E30" s="67" t="str">
         <f>IF(internal!E7=0, "", internal!E7)</f>
         <v/>
       </c>
-      <c r="F30" s="63" t="str">
+      <c r="F30" s="62" t="str">
         <f>IF(internal!F7=0, "", internal!F7)</f>
         <v/>
       </c>
-      <c r="G30" s="63" t="str">
+      <c r="G30" s="62" t="str">
         <f>IF(internal!A7=0, "", internal!G7)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="63" t="str">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="str">
         <f>IF(internal!A8=0, "", internal!A8)</f>
         <v/>
       </c>
-      <c r="B31" s="68" t="str">
+      <c r="B31" s="67" t="str">
         <f>IF(internal!B8=0, "", internal!B8)</f>
         <v/>
       </c>
-      <c r="C31" s="68" t="str">
+      <c r="C31" s="67" t="str">
         <f>IF(internal!C8=0, "", internal!C8)</f>
         <v/>
       </c>
-      <c r="D31" s="68" t="str">
+      <c r="D31" s="67" t="str">
         <f>IF(internal!D8=0, "", internal!D8)</f>
         <v/>
       </c>
-      <c r="E31" s="68" t="str">
+      <c r="E31" s="67" t="str">
         <f>IF(internal!E8=0, "", internal!E8)</f>
         <v/>
       </c>
-      <c r="F31" s="63" t="str">
+      <c r="F31" s="62" t="str">
         <f>IF(internal!F8=0, "", internal!F8)</f>
         <v/>
       </c>
-      <c r="G31" s="63" t="str">
+      <c r="G31" s="62" t="str">
         <f>IF(internal!A8=0, "", internal!G8)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="63" t="str">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="str">
         <f>IF(internal!A9=0, "", internal!A9)</f>
         <v/>
       </c>
-      <c r="B32" s="68" t="str">
+      <c r="B32" s="67" t="str">
         <f>IF(internal!B9=0, "", internal!B9)</f>
         <v/>
       </c>
-      <c r="C32" s="68" t="str">
+      <c r="C32" s="67" t="str">
         <f>IF(internal!C9=0, "", internal!C9)</f>
         <v/>
       </c>
-      <c r="D32" s="68" t="str">
+      <c r="D32" s="67" t="str">
         <f>IF(internal!D9=0, "", internal!D9)</f>
         <v/>
       </c>
-      <c r="E32" s="68" t="str">
+      <c r="E32" s="67" t="str">
         <f>IF(internal!E9=0, "", internal!E9)</f>
         <v/>
       </c>
-      <c r="F32" s="63" t="str">
+      <c r="F32" s="62" t="str">
         <f>IF(internal!F9=0, "", internal!F9)</f>
         <v/>
       </c>
-      <c r="G32" s="63" t="str">
+      <c r="G32" s="62" t="str">
         <f>IF(internal!A9=0, "", internal!G9)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="63" t="str">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="str">
         <f>IF(internal!A10=0, "", internal!A10)</f>
         <v/>
       </c>
-      <c r="B33" s="68" t="str">
+      <c r="B33" s="67" t="str">
         <f>IF(internal!B10=0, "", internal!B10)</f>
         <v/>
       </c>
-      <c r="C33" s="68" t="str">
+      <c r="C33" s="67" t="str">
         <f>IF(internal!C10=0, "", internal!C10)</f>
         <v/>
       </c>
-      <c r="D33" s="68" t="str">
+      <c r="D33" s="67" t="str">
         <f>IF(internal!D10=0, "", internal!D10)</f>
         <v/>
       </c>
-      <c r="E33" s="68" t="str">
+      <c r="E33" s="67" t="str">
         <f>IF(internal!E10=0, "", internal!E10)</f>
         <v/>
       </c>
-      <c r="F33" s="63" t="str">
+      <c r="F33" s="62" t="str">
         <f>IF(internal!F10=0, "", internal!F10)</f>
         <v/>
       </c>
-      <c r="G33" s="63" t="str">
+      <c r="G33" s="62" t="str">
         <f>IF(internal!A10=0, "", internal!G10)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="63" t="str">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="str">
         <f>IF(internal!A11=0, "", internal!A11)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B34" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B34" s="67">
         <f>IF(internal!B11=0, "", internal!B11)</f>
         <v>44</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="67">
         <f>IF(internal!C11=0, "", internal!C11)</f>
         <v>63.397459621556138</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="67">
         <f>IF(internal!D11=0, "", internal!D11)</f>
         <v>151.39745962155615</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="67">
         <f>IF(internal!E11=0, "", internal!E11)</f>
         <v>210</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="62">
         <f>IF(internal!F11=0, "", internal!F11)</f>
         <v>4</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="62">
         <f>IF(internal!A11=0, "", internal!G11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="63" t="str">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="str">
         <f>IF(internal!A12=0, "", internal!A12)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B35" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B35" s="67">
         <f>IF(internal!B12=0, "", internal!B12)</f>
         <v>45</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="67">
         <f>IF(internal!C12=0, "", internal!C12)</f>
         <v>54.159855314522119</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="67">
         <f>IF(internal!D12=0, "", internal!D12)</f>
         <v>135.39745962155618</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="67">
         <f>IF(internal!E12=0, "", internal!E12)</f>
         <v>150.00014030577157</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="62">
         <f>IF(internal!F12=0, "", internal!F12)</f>
         <v>4</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="62">
         <f>IF(internal!A12=0, "", internal!G12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="63" t="str">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="str">
         <f>IF(internal!A13=0, "", internal!A13)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B36" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B36" s="67">
         <f>IF(internal!B13=0, "", internal!B13)</f>
         <v>40</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="67">
         <f>IF(internal!C13=0, "", internal!C13)</f>
         <v>63.397459621556123</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="67">
         <f>IF(internal!D13=0, "", internal!D13)</f>
         <v>119.39745962155621</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="67">
         <f>IF(internal!E13=0, "", internal!E13)</f>
         <v>210</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="62">
         <f>IF(internal!F13=0, "", internal!F13)</f>
         <v>4</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="62">
         <f>IF(internal!A13=0, "", internal!G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="63" t="str">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="str">
         <f>IF(internal!A14=0, "", internal!A14)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B37" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B37" s="67">
         <f>IF(internal!B14=0, "", internal!B14)</f>
         <v>41</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="67">
         <f>IF(internal!C14=0, "", internal!C14)</f>
         <v>81.872668235624133</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="67">
         <f>IF(internal!D14=0, "", internal!D14)</f>
         <v>119.39745962155621</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="67">
         <f>IF(internal!E14=0, "", internal!E14)</f>
         <v>269.99985969422841</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="62">
         <f>IF(internal!F14=0, "", internal!F14)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="62">
         <f>IF(internal!A14=0, "", internal!G14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="63" t="str">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="str">
         <f>IF(internal!A15=0, "", internal!A15)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B38" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B38" s="67">
         <f>IF(internal!B15=0, "", internal!B15)</f>
         <v>38</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="67">
         <f>IF(internal!C15=0, "", internal!C15)</f>
         <v>91.110272542658137</v>
       </c>
-      <c r="D38" s="68">
+      <c r="D38" s="67">
         <f>IF(internal!D15=0, "", internal!D15)</f>
         <v>103.39745962155621</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="67">
         <f>IF(internal!E15=0, "", internal!E15)</f>
         <v>210</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="62">
         <f>IF(internal!F15=0, "", internal!F15)</f>
         <v>4</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="62">
         <f>IF(internal!A15=0, "", internal!G15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="63" t="str">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="str">
         <f>IF(internal!A16=0, "", internal!A16)</f>
         <v/>
       </c>
-      <c r="B39" s="68" t="str">
+      <c r="B39" s="67" t="str">
         <f>IF(internal!B16=0, "", internal!B16)</f>
         <v/>
       </c>
-      <c r="C39" s="68" t="str">
+      <c r="C39" s="67" t="str">
         <f>IF(internal!C16=0, "", internal!C16)</f>
         <v/>
       </c>
-      <c r="D39" s="68" t="str">
+      <c r="D39" s="67" t="str">
         <f>IF(internal!D16=0, "", internal!D16)</f>
         <v/>
       </c>
-      <c r="E39" s="68" t="str">
+      <c r="E39" s="67" t="str">
         <f>IF(internal!E16=0, "", internal!E16)</f>
         <v/>
       </c>
-      <c r="F39" s="63" t="str">
+      <c r="F39" s="62" t="str">
         <f>IF(internal!F16=0, "", internal!F16)</f>
         <v/>
       </c>
-      <c r="G39" s="63" t="str">
+      <c r="G39" s="62" t="str">
         <f>IF(internal!A16=0, "", internal!G16)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="63" t="str">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="str">
         <f>IF(internal!A17=0, "", internal!A17)</f>
         <v/>
       </c>
-      <c r="B40" s="68" t="str">
+      <c r="B40" s="67" t="str">
         <f>IF(internal!B17=0, "", internal!B17)</f>
         <v/>
       </c>
-      <c r="C40" s="68" t="str">
+      <c r="C40" s="67" t="str">
         <f>IF(internal!C17=0, "", internal!C17)</f>
         <v/>
       </c>
-      <c r="D40" s="68" t="str">
+      <c r="D40" s="67" t="str">
         <f>IF(internal!D17=0, "", internal!D17)</f>
         <v/>
       </c>
-      <c r="E40" s="68" t="str">
+      <c r="E40" s="67" t="str">
         <f>IF(internal!E17=0, "", internal!E17)</f>
         <v/>
       </c>
-      <c r="F40" s="63" t="str">
+      <c r="F40" s="62" t="str">
         <f>IF(internal!F17=0, "", internal!F17)</f>
         <v/>
       </c>
-      <c r="G40" s="63" t="str">
+      <c r="G40" s="62" t="str">
         <f>IF(internal!A17=0, "", internal!G17)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="63" t="str">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="str">
         <f>IF(internal!A18=0, "", internal!A18)</f>
         <v/>
       </c>
-      <c r="B41" s="68" t="str">
+      <c r="B41" s="67" t="str">
         <f>IF(internal!B18=0, "", internal!B18)</f>
         <v/>
       </c>
-      <c r="C41" s="68" t="str">
+      <c r="C41" s="67" t="str">
         <f>IF(internal!C18=0, "", internal!C18)</f>
         <v/>
       </c>
-      <c r="D41" s="68" t="str">
+      <c r="D41" s="67" t="str">
         <f>IF(internal!D18=0, "", internal!D18)</f>
         <v/>
       </c>
-      <c r="E41" s="68" t="str">
+      <c r="E41" s="67" t="str">
         <f>IF(internal!E18=0, "", internal!E18)</f>
         <v/>
       </c>
-      <c r="F41" s="63" t="str">
+      <c r="F41" s="62" t="str">
         <f>IF(internal!F18=0, "", internal!F18)</f>
         <v/>
       </c>
-      <c r="G41" s="63" t="str">
+      <c r="G41" s="62" t="str">
         <f>IF(internal!A18=0, "", internal!G18)</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="63" t="str">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="str">
         <f>IF(internal!A19=0, "", internal!A19)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B42" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B42" s="67">
         <f>IF(internal!B19=0, "", internal!B19)</f>
         <v>42</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="67">
         <f>IF(internal!C19=0, "", internal!C19)</f>
         <v>91.110272542658151</v>
       </c>
-      <c r="D42" s="68">
+      <c r="D42" s="67">
         <f>IF(internal!D19=0, "", internal!D19)</f>
         <v>135.39745962155621</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="67">
         <f>IF(internal!E19=0, "", internal!E19)</f>
         <v>329.99971938845687</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="62">
         <f>IF(internal!F19=0, "", internal!F19)</f>
         <v>4</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="62">
         <f>IF(internal!A19=0, "", internal!G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="63" t="str">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="str">
         <f>IF(internal!A20=0, "", internal!A20)</f>
         <v/>
       </c>
-      <c r="B43" s="68" t="str">
+      <c r="B43" s="67" t="str">
         <f>IF(internal!B20=0, "", internal!B20)</f>
         <v/>
       </c>
-      <c r="C43" s="68" t="str">
+      <c r="C43" s="67" t="str">
         <f>IF(internal!C20=0, "", internal!C20)</f>
         <v/>
       </c>
-      <c r="D43" s="68" t="str">
+      <c r="D43" s="67" t="str">
         <f>IF(internal!D20=0, "", internal!D20)</f>
         <v/>
       </c>
-      <c r="E43" s="68" t="str">
+      <c r="E43" s="67" t="str">
         <f>IF(internal!E20=0, "", internal!E20)</f>
         <v/>
       </c>
-      <c r="F43" s="63" t="str">
+      <c r="F43" s="62" t="str">
         <f>IF(internal!F20=0, "", internal!F20)</f>
         <v/>
       </c>
-      <c r="G43" s="63" t="str">
+      <c r="G43" s="62" t="str">
         <f>IF(internal!A20=0, "", internal!G20)</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="63" t="str">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="str">
         <f>IF(internal!A21=0, "", internal!A21)</f>
         <v/>
       </c>
-      <c r="B44" s="68" t="str">
+      <c r="B44" s="67" t="str">
         <f>IF(internal!B21=0, "", internal!B21)</f>
         <v/>
       </c>
-      <c r="C44" s="68" t="str">
+      <c r="C44" s="67" t="str">
         <f>IF(internal!C21=0, "", internal!C21)</f>
         <v/>
       </c>
-      <c r="D44" s="68" t="str">
+      <c r="D44" s="67" t="str">
         <f>IF(internal!D21=0, "", internal!D21)</f>
         <v/>
       </c>
-      <c r="E44" s="68" t="str">
+      <c r="E44" s="67" t="str">
         <f>IF(internal!E21=0, "", internal!E21)</f>
         <v/>
       </c>
-      <c r="F44" s="63" t="str">
+      <c r="F44" s="62" t="str">
         <f>IF(internal!F21=0, "", internal!F21)</f>
         <v/>
       </c>
-      <c r="G44" s="63" t="str">
+      <c r="G44" s="62" t="str">
         <f>IF(internal!A21=0, "", internal!G21)</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="63" t="str">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="str">
         <f>IF(internal!A22=0, "", internal!A22)</f>
         <v/>
       </c>
-      <c r="B45" s="68" t="str">
+      <c r="B45" s="67" t="str">
         <f>IF(internal!B22=0, "", internal!B22)</f>
         <v/>
       </c>
-      <c r="C45" s="68" t="str">
+      <c r="C45" s="67" t="str">
         <f>IF(internal!C22=0, "", internal!C22)</f>
         <v/>
       </c>
-      <c r="D45" s="68" t="str">
+      <c r="D45" s="67" t="str">
         <f>IF(internal!D22=0, "", internal!D22)</f>
         <v/>
       </c>
-      <c r="E45" s="68" t="str">
+      <c r="E45" s="67" t="str">
         <f>IF(internal!E22=0, "", internal!E22)</f>
         <v/>
       </c>
-      <c r="F45" s="63" t="str">
+      <c r="F45" s="62" t="str">
         <f>IF(internal!F22=0, "", internal!F22)</f>
         <v/>
       </c>
-      <c r="G45" s="63" t="str">
+      <c r="G45" s="62" t="str">
         <f>IF(internal!A22=0, "", internal!G22)</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="63" t="str">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="str">
         <f>IF(internal!A23=0, "", internal!A23)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B46" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B46" s="67">
         <f>IF(internal!B23=0, "", internal!B23)</f>
         <v>43</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="67">
         <f>IF(internal!C23=0, "", internal!C23)</f>
         <v>81.872668235624147</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="67">
         <f>IF(internal!D23=0, "", internal!D23)</f>
         <v>151.39745962155618</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="67">
         <f>IF(internal!E23=0, "", internal!E23)</f>
         <v>389.9995790826847</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="62">
         <f>IF(internal!F23=0, "", internal!F23)</f>
         <v>4</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="62">
         <f>IF(internal!A23=0, "", internal!G23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="63" t="str">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="str">
         <f>IF(internal!A24=0, "", internal!A24)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B47" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B47" s="67">
         <f>IF(internal!B24=0, "", internal!B24)</f>
         <v>46</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="67">
         <f>IF(internal!C24=0, "", internal!C24)</f>
         <v>91.110272542658166</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="67">
         <f>IF(internal!D24=0, "", internal!D24)</f>
         <v>167.39745962155618</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="67">
         <f>IF(internal!E24=0, "", internal!E24)</f>
         <v>329.99971938845687</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="62">
         <f>IF(internal!F24=0, "", internal!F24)</f>
         <v>4</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="62">
         <f>IF(internal!A24=0, "", internal!G24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="63" t="str">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="str">
         <f>IF(internal!A25=0, "", internal!A25)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B48" s="68">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B48" s="67">
         <f>IF(internal!B25=0, "", internal!B25)</f>
         <v>47</v>
       </c>
-      <c r="C48" s="68">
+      <c r="C48" s="67">
         <f>IF(internal!C25=0, "", internal!C25)</f>
         <v>81.872668235624161</v>
       </c>
-      <c r="D48" s="68">
+      <c r="D48" s="67">
         <f>IF(internal!D25=0, "", internal!D25)</f>
         <v>183.39745962155615</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="67">
         <f>IF(internal!E25=0, "", internal!E25)</f>
         <v>389.9995790826847</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="62">
         <f>IF(internal!F25=0, "", internal!F25)</f>
         <v>4</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="62">
         <f>IF(internal!A25=0, "", internal!G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="62" t="str">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="str">
         <f>IF(external!A3=0, "", external!A3)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B49" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B49" s="68">
         <f>IF(external!B3=0, "", external!B3)</f>
         <v>16</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="68">
         <f>IF(external!C3=0, "", external!C3)</f>
         <v>-113.39745962155612</v>
       </c>
-      <c r="D49" s="69">
+      <c r="D49" s="68">
         <f>IF(external!D3=0, "", external!D3)</f>
         <v>106.60254037844388</v>
       </c>
-      <c r="E49" s="69">
+      <c r="E49" s="68">
         <f>IF(external!E3=0, "", external!E3)</f>
-        <v>30</v>
-      </c>
-      <c r="F49" s="62">
+        <v>-89.999719388456853</v>
+      </c>
+      <c r="F49" s="61">
         <f>IF(external!F3=0, "", external!F3)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="61">
         <f>IF(external!A3=0, "", external!G3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="62" t="str">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="str">
         <f>IF(external!A4=0, "", external!A4)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B50" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B50" s="68">
         <f>IF(external!B4=0, "", external!B4)</f>
         <v>17</v>
       </c>
-      <c r="C50" s="69">
+      <c r="C50" s="68">
         <f>IF(external!C4=0, "", external!C4)</f>
         <v>-104.1598553145221</v>
       </c>
-      <c r="D50" s="69">
+      <c r="D50" s="68">
         <f>IF(external!D4=0, "", external!D4)</f>
         <v>122.60254037844385</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="68">
         <f>IF(external!E4=0, "", external!E4)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="61">
         <f>IF(external!F4=0, "", external!F4)</f>
         <v>4</v>
       </c>
-      <c r="G50" s="62">
+      <c r="G50" s="61">
         <f>IF(external!A4=0, "", external!G4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="62" t="str">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="61" t="str">
         <f>IF(external!A5=0, "", external!A5)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B51" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B51" s="68">
         <f>IF(external!B5=0, "", external!B5)</f>
         <v>18</v>
       </c>
-      <c r="C51" s="69">
+      <c r="C51" s="68">
         <f>IF(external!C5=0, "", external!C5)</f>
         <v>-85.684646700454095</v>
       </c>
-      <c r="D51" s="69">
+      <c r="D51" s="68">
         <f>IF(external!D5=0, "", external!D5)</f>
         <v>122.60254037844385</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="68">
         <f>IF(external!E5=0, "", external!E5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="61">
         <f>IF(external!F5=0, "", external!F5)</f>
         <v>4</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="61">
         <f>IF(external!A5=0, "", external!G5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="62" t="str">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="str">
         <f>IF(external!A6=0, "", external!A6)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B52" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B52" s="68">
         <f>IF(external!B6=0, "", external!B6)</f>
         <v>19</v>
       </c>
-      <c r="C52" s="69">
+      <c r="C52" s="68">
         <f>IF(external!C6=0, "", external!C6)</f>
         <v>-76.447042393420062</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="68">
         <f>IF(external!D6=0, "", external!D6)</f>
         <v>138.60254037844385</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="68">
         <f>IF(external!E6=0, "", external!E6)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="61">
         <f>IF(external!F6=0, "", external!F6)</f>
         <v>4</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="61">
         <f>IF(external!A6=0, "", external!G6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="62" t="str">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="61" t="str">
         <f>IF(external!A7=0, "", external!A7)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B53" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B53" s="68">
         <f>IF(external!B7=0, "", external!B7)</f>
         <v>20</v>
       </c>
-      <c r="C53" s="69">
+      <c r="C53" s="68">
         <f>IF(external!C7=0, "", external!C7)</f>
         <v>-85.684646700454067</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="68">
         <f>IF(external!D7=0, "", external!D7)</f>
         <v>154.60254037844382</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="68">
         <f>IF(external!E7=0, "", external!E7)</f>
         <v>30</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="61">
         <f>IF(external!F7=0, "", external!F7)</f>
         <v>4</v>
       </c>
-      <c r="G53" s="62">
+      <c r="G53" s="61">
         <f>IF(external!A7=0, "", external!G7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="62" t="str">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="61" t="str">
         <f>IF(external!A8=0, "", external!A8)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B54" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B54" s="68">
         <f>IF(external!B8=0, "", external!B8)</f>
         <v>21</v>
       </c>
-      <c r="C54" s="69">
+      <c r="C54" s="68">
         <f>IF(external!C8=0, "", external!C8)</f>
         <v>-76.44704239342002</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D54" s="68">
         <f>IF(external!D8=0, "", external!D8)</f>
         <v>170.60254037844379</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E54" s="68">
         <f>IF(external!E8=0, "", external!E8)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="61">
         <f>IF(external!F8=0, "", external!F8)</f>
         <v>4</v>
       </c>
-      <c r="G54" s="62">
+      <c r="G54" s="61">
         <f>IF(external!A8=0, "", external!G8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="62" t="str">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="str">
         <f>IF(external!A9=0, "", external!A9)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B55" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B55" s="68">
         <f>IF(external!B9=0, "", external!B9)</f>
         <v>22</v>
       </c>
-      <c r="C55" s="69">
+      <c r="C55" s="68">
         <f>IF(external!C9=0, "", external!C9)</f>
         <v>-85.684646700454024</v>
       </c>
-      <c r="D55" s="69">
+      <c r="D55" s="68">
         <f>IF(external!D9=0, "", external!D9)</f>
         <v>186.60254037844379</v>
       </c>
-      <c r="E55" s="69">
+      <c r="E55" s="68">
         <f>IF(external!E9=0, "", external!E9)</f>
         <v>30</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="61">
         <f>IF(external!F9=0, "", external!F9)</f>
         <v>4</v>
       </c>
-      <c r="G55" s="62">
+      <c r="G55" s="61">
         <f>IF(external!A9=0, "", external!G9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="62" t="str">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="61" t="str">
         <f>IF(external!A10=0, "", external!A10)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B56" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B56" s="68">
         <f>IF(external!B10=0, "", external!B10)</f>
         <v>23</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="68">
         <f>IF(external!C10=0, "", external!C10)</f>
         <v>-104.15985531452205</v>
       </c>
-      <c r="D56" s="69">
+      <c r="D56" s="68">
         <f>IF(external!D10=0, "", external!D10)</f>
         <v>186.60254037844379</v>
       </c>
-      <c r="E56" s="69">
+      <c r="E56" s="68">
         <f>IF(external!E10=0, "", external!E10)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="61">
         <f>IF(external!F10=0, "", external!F10)</f>
         <v>4</v>
       </c>
-      <c r="G56" s="62">
+      <c r="G56" s="61">
         <f>IF(external!A10=0, "", external!G10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="62" t="str">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="61" t="str">
         <f>IF(external!A11=0, "", external!A11)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B57" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B57" s="68">
         <f>IF(external!B11=0, "", external!B11)</f>
         <v>28</v>
       </c>
-      <c r="C57" s="69">
+      <c r="C57" s="68">
         <f>IF(external!C11=0, "", external!C11)</f>
         <v>-113.3974596215561</v>
       </c>
-      <c r="D57" s="69">
+      <c r="D57" s="68">
         <f>IF(external!D11=0, "", external!D11)</f>
         <v>138.60254037844382</v>
       </c>
-      <c r="E57" s="69">
+      <c r="E57" s="68">
         <f>IF(external!E11=0, "", external!E11)</f>
         <v>30</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="61">
         <f>IF(external!F11=0, "", external!F11)</f>
         <v>4</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="61">
         <f>IF(external!A11=0, "", external!G11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="62" t="str">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="61" t="str">
         <f>IF(external!A12=0, "", external!A12)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B58" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B58" s="68">
         <f>IF(external!B12=0, "", external!B12)</f>
         <v>29</v>
       </c>
-      <c r="C58" s="69">
+      <c r="C58" s="68">
         <f>IF(external!C12=0, "", external!C12)</f>
         <v>-104.15985531452208</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D58" s="68">
         <f>IF(external!D12=0, "", external!D12)</f>
         <v>154.60254037844379</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="68">
         <f>IF(external!E12=0, "", external!E12)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="61">
         <f>IF(external!F12=0, "", external!F12)</f>
         <v>4</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="61">
         <f>IF(external!A12=0, "", external!G12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="62" t="str">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="61" t="str">
         <f>IF(external!A13=0, "", external!A13)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B59" s="69">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B59" s="68">
         <f>IF(external!B13=0, "", external!B13)</f>
         <v>24</v>
       </c>
-      <c r="C59" s="69">
+      <c r="C59" s="68">
         <f>IF(external!C13=0, "", external!C13)</f>
         <v>-113.39745962155608</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D59" s="68">
         <f>IF(external!D13=0, "", external!D13)</f>
         <v>170.60254037844379</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="68">
         <f>IF(external!E13=0, "", external!E13)</f>
         <v>30</v>
       </c>
-      <c r="F59" s="62">
+      <c r="F59" s="61">
         <f>IF(external!F13=0, "", external!F13)</f>
         <v>4</v>
       </c>
-      <c r="G59" s="62">
+      <c r="G59" s="61">
         <f>IF(external!A13=0, "", external!G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="62" t="str">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="61" t="str">
         <f>IF(external!A14=0, "", external!A14)</f>
         <v/>
       </c>
-      <c r="B60" s="69" t="str">
+      <c r="B60" s="68" t="str">
         <f>IF(external!B14=0, "", external!B14)</f>
         <v/>
       </c>
-      <c r="C60" s="69" t="str">
+      <c r="C60" s="68" t="str">
         <f>IF(external!C14=0, "", external!C14)</f>
         <v/>
       </c>
-      <c r="D60" s="69" t="str">
+      <c r="D60" s="68" t="str">
         <f>IF(external!D14=0, "", external!D14)</f>
         <v/>
       </c>
-      <c r="E60" s="69" t="str">
+      <c r="E60" s="68" t="str">
         <f>IF(external!E14=0, "", external!E14)</f>
         <v/>
       </c>
-      <c r="F60" s="62" t="str">
+      <c r="F60" s="61" t="str">
         <f>IF(external!F14=0, "", external!F14)</f>
         <v/>
       </c>
-      <c r="G60" s="62" t="str">
+      <c r="G60" s="61" t="str">
         <f>IF(external!A14=0, "", external!G14)</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="62" t="str">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="61" t="str">
         <f>IF(external!A15=0, "", external!A15)</f>
         <v/>
       </c>
-      <c r="B61" s="69" t="str">
+      <c r="B61" s="68" t="str">
         <f>IF(external!B15=0, "", external!B15)</f>
         <v/>
       </c>
-      <c r="C61" s="69" t="str">
+      <c r="C61" s="68" t="str">
         <f>IF(external!C15=0, "", external!C15)</f>
         <v/>
       </c>
-      <c r="D61" s="69" t="str">
+      <c r="D61" s="68" t="str">
         <f>IF(external!D15=0, "", external!D15)</f>
         <v/>
       </c>
-      <c r="E61" s="69" t="str">
+      <c r="E61" s="68" t="str">
         <f>IF(external!E15=0, "", external!E15)</f>
         <v/>
       </c>
-      <c r="F61" s="62" t="str">
+      <c r="F61" s="61" t="str">
         <f>IF(external!F15=0, "", external!F15)</f>
         <v/>
       </c>
-      <c r="G61" s="62" t="str">
+      <c r="G61" s="61" t="str">
         <f>IF(external!A15=0, "", external!G15)</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="62" t="str">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="str">
         <f>IF(external!A16=0, "", external!A16)</f>
         <v/>
       </c>
-      <c r="B62" s="69" t="str">
+      <c r="B62" s="68" t="str">
         <f>IF(external!B16=0, "", external!B16)</f>
         <v/>
       </c>
-      <c r="C62" s="69" t="str">
+      <c r="C62" s="68" t="str">
         <f>IF(external!C16=0, "", external!C16)</f>
         <v/>
       </c>
-      <c r="D62" s="69" t="str">
+      <c r="D62" s="68" t="str">
         <f>IF(external!D16=0, "", external!D16)</f>
         <v/>
       </c>
-      <c r="E62" s="69" t="str">
+      <c r="E62" s="68" t="str">
         <f>IF(external!E16=0, "", external!E16)</f>
         <v/>
       </c>
-      <c r="F62" s="62" t="str">
+      <c r="F62" s="61" t="str">
         <f>IF(external!F16=0, "", external!F16)</f>
         <v/>
       </c>
-      <c r="G62" s="62" t="str">
+      <c r="G62" s="61" t="str">
         <f>IF(external!A16=0, "", external!G16)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="62" t="str">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="61" t="str">
         <f>IF(external!A17=0, "", external!A17)</f>
         <v/>
       </c>
-      <c r="B63" s="69" t="str">
+      <c r="B63" s="68" t="str">
         <f>IF(external!B17=0, "", external!B17)</f>
         <v/>
       </c>
-      <c r="C63" s="69" t="str">
+      <c r="C63" s="68" t="str">
         <f>IF(external!C17=0, "", external!C17)</f>
         <v/>
       </c>
-      <c r="D63" s="69" t="str">
+      <c r="D63" s="68" t="str">
         <f>IF(external!D17=0, "", external!D17)</f>
         <v/>
       </c>
-      <c r="E63" s="69" t="str">
+      <c r="E63" s="68" t="str">
         <f>IF(external!E17=0, "", external!E17)</f>
         <v/>
       </c>
-      <c r="F63" s="62" t="str">
+      <c r="F63" s="61" t="str">
         <f>IF(external!F17=0, "", external!F17)</f>
         <v/>
       </c>
-      <c r="G63" s="62" t="str">
+      <c r="G63" s="61" t="str">
         <f>IF(external!A17=0, "", external!G17)</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="62" t="str">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="61" t="str">
         <f>IF(external!A18=0, "", external!A18)</f>
         <v/>
       </c>
-      <c r="B64" s="69" t="str">
+      <c r="B64" s="68" t="str">
         <f>IF(external!B18=0, "", external!B18)</f>
         <v/>
       </c>
-      <c r="C64" s="69" t="str">
+      <c r="C64" s="68" t="str">
         <f>IF(external!C18=0, "", external!C18)</f>
         <v/>
       </c>
-      <c r="D64" s="69" t="str">
+      <c r="D64" s="68" t="str">
         <f>IF(external!D18=0, "", external!D18)</f>
         <v/>
       </c>
-      <c r="E64" s="69" t="str">
+      <c r="E64" s="68" t="str">
         <f>IF(external!E18=0, "", external!E18)</f>
         <v/>
       </c>
-      <c r="F64" s="62" t="str">
+      <c r="F64" s="61" t="str">
         <f>IF(external!F18=0, "", external!F18)</f>
         <v/>
       </c>
-      <c r="G64" s="62" t="str">
+      <c r="G64" s="61" t="str">
         <f>IF(external!A18=0, "", external!G18)</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="62" t="str">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="61" t="str">
         <f>IF(external!A19=0, "", external!A19)</f>
         <v/>
       </c>
-      <c r="B65" s="69" t="str">
+      <c r="B65" s="68" t="str">
         <f>IF(external!B19=0, "", external!B19)</f>
         <v/>
       </c>
-      <c r="C65" s="69" t="str">
+      <c r="C65" s="68" t="str">
         <f>IF(external!C19=0, "", external!C19)</f>
         <v/>
       </c>
-      <c r="D65" s="69" t="str">
+      <c r="D65" s="68" t="str">
         <f>IF(external!D19=0, "", external!D19)</f>
         <v/>
       </c>
-      <c r="E65" s="69" t="str">
+      <c r="E65" s="68" t="str">
         <f>IF(external!E19=0, "", external!E19)</f>
         <v/>
       </c>
-      <c r="F65" s="62" t="str">
+      <c r="F65" s="61" t="str">
         <f>IF(external!F19=0, "", external!F19)</f>
         <v/>
       </c>
-      <c r="G65" s="62" t="str">
+      <c r="G65" s="61" t="str">
         <f>IF(external!A19=0, "", external!G19)</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="62" t="str">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="str">
         <f>IF(external!A20=0, "", external!A20)</f>
         <v/>
       </c>
-      <c r="B66" s="69" t="str">
+      <c r="B66" s="68" t="str">
         <f>IF(external!B20=0, "", external!B20)</f>
         <v/>
       </c>
-      <c r="C66" s="69" t="str">
+      <c r="C66" s="68" t="str">
         <f>IF(external!C20=0, "", external!C20)</f>
         <v/>
       </c>
-      <c r="D66" s="69" t="str">
+      <c r="D66" s="68" t="str">
         <f>IF(external!D20=0, "", external!D20)</f>
         <v/>
       </c>
-      <c r="E66" s="69" t="str">
+      <c r="E66" s="68" t="str">
         <f>IF(external!E20=0, "", external!E20)</f>
         <v/>
       </c>
-      <c r="F66" s="62" t="str">
+      <c r="F66" s="61" t="str">
         <f>IF(external!F20=0, "", external!F20)</f>
         <v/>
       </c>
-      <c r="G66" s="62" t="str">
+      <c r="G66" s="61" t="str">
         <f>IF(external!A20=0, "", external!G20)</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="62" t="str">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="61" t="str">
         <f>IF(external!A21=0, "", external!A21)</f>
         <v/>
       </c>
-      <c r="B67" s="69" t="str">
+      <c r="B67" s="68" t="str">
         <f>IF(external!B21=0, "", external!B21)</f>
         <v/>
       </c>
-      <c r="C67" s="69" t="str">
+      <c r="C67" s="68" t="str">
         <f>IF(external!C21=0, "", external!C21)</f>
         <v/>
       </c>
-      <c r="D67" s="69" t="str">
+      <c r="D67" s="68" t="str">
         <f>IF(external!D21=0, "", external!D21)</f>
         <v/>
       </c>
-      <c r="E67" s="69" t="str">
+      <c r="E67" s="68" t="str">
         <f>IF(external!E21=0, "", external!E21)</f>
         <v/>
       </c>
-      <c r="F67" s="62" t="str">
+      <c r="F67" s="61" t="str">
         <f>IF(external!F21=0, "", external!F21)</f>
         <v/>
       </c>
-      <c r="G67" s="62" t="str">
+      <c r="G67" s="61" t="str">
         <f>IF(external!A21=0, "", external!G21)</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="62" t="str">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="str">
         <f>IF(external!A22=0, "", external!A22)</f>
         <v/>
       </c>
-      <c r="B68" s="69" t="str">
+      <c r="B68" s="68" t="str">
         <f>IF(external!B22=0, "", external!B22)</f>
         <v/>
       </c>
-      <c r="C68" s="69" t="str">
+      <c r="C68" s="68" t="str">
         <f>IF(external!C22=0, "", external!C22)</f>
         <v/>
       </c>
-      <c r="D68" s="69" t="str">
+      <c r="D68" s="68" t="str">
         <f>IF(external!D22=0, "", external!D22)</f>
         <v/>
       </c>
-      <c r="E68" s="69" t="str">
+      <c r="E68" s="68" t="str">
         <f>IF(external!E22=0, "", external!E22)</f>
         <v/>
       </c>
-      <c r="F68" s="62" t="str">
+      <c r="F68" s="61" t="str">
         <f>IF(external!F22=0, "", external!F22)</f>
         <v/>
       </c>
-      <c r="G68" s="62" t="str">
+      <c r="G68" s="61" t="str">
         <f>IF(external!A22=0, "", external!G22)</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="62" t="str">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="61" t="str">
         <f>IF(external!A23=0, "", external!A23)</f>
         <v/>
       </c>
-      <c r="B69" s="69" t="str">
+      <c r="B69" s="68" t="str">
         <f>IF(external!B23=0, "", external!B23)</f>
         <v/>
       </c>
-      <c r="C69" s="69" t="str">
+      <c r="C69" s="68" t="str">
         <f>IF(external!C23=0, "", external!C23)</f>
         <v/>
       </c>
-      <c r="D69" s="69" t="str">
+      <c r="D69" s="68" t="str">
         <f>IF(external!D23=0, "", external!D23)</f>
         <v/>
       </c>
-      <c r="E69" s="69" t="str">
+      <c r="E69" s="68" t="str">
         <f>IF(external!E23=0, "", external!E23)</f>
         <v/>
       </c>
-      <c r="F69" s="62" t="str">
+      <c r="F69" s="61" t="str">
         <f>IF(external!F23=0, "", external!F23)</f>
         <v/>
       </c>
-      <c r="G69" s="62" t="str">
+      <c r="G69" s="61" t="str">
         <f>IF(external!A23=0, "", external!G23)</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="62" t="str">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="61" t="str">
         <f>IF(external!A24=0, "", external!A24)</f>
         <v/>
       </c>
-      <c r="B70" s="69" t="str">
+      <c r="B70" s="68" t="str">
         <f>IF(external!B24=0, "", external!B24)</f>
         <v/>
       </c>
-      <c r="C70" s="69" t="str">
+      <c r="C70" s="68" t="str">
         <f>IF(external!C24=0, "", external!C24)</f>
         <v/>
       </c>
-      <c r="D70" s="69" t="str">
+      <c r="D70" s="68" t="str">
         <f>IF(external!D24=0, "", external!D24)</f>
         <v/>
       </c>
-      <c r="E70" s="69" t="str">
+      <c r="E70" s="68" t="str">
         <f>IF(external!E24=0, "", external!E24)</f>
         <v/>
       </c>
-      <c r="F70" s="62" t="str">
+      <c r="F70" s="61" t="str">
         <f>IF(external!F24=0, "", external!F24)</f>
         <v/>
       </c>
-      <c r="G70" s="62" t="str">
+      <c r="G70" s="61" t="str">
         <f>IF(external!A24=0, "", external!G24)</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="62" t="str">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="61" t="str">
         <f>IF(external!A25=0, "", external!A25)</f>
         <v/>
       </c>
-      <c r="B71" s="69" t="str">
+      <c r="B71" s="68" t="str">
         <f>IF(external!B25=0, "", external!B25)</f>
         <v/>
       </c>
-      <c r="C71" s="69" t="str">
+      <c r="C71" s="68" t="str">
         <f>IF(external!C25=0, "", external!C25)</f>
         <v/>
       </c>
-      <c r="D71" s="69" t="str">
+      <c r="D71" s="68" t="str">
         <f>IF(external!D25=0, "", external!D25)</f>
         <v/>
       </c>
-      <c r="E71" s="69" t="str">
+      <c r="E71" s="68" t="str">
         <f>IF(external!E25=0, "", external!E25)</f>
         <v/>
       </c>
-      <c r="F71" s="62" t="str">
+      <c r="F71" s="61" t="str">
         <f>IF(external!F25=0, "", external!F25)</f>
         <v/>
       </c>
-      <c r="G71" s="62" t="str">
+      <c r="G71" s="61" t="str">
         <f>IF(external!A25=0, "", external!G25)</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="65" t="str">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="str">
         <f>IF(upper!A3=0, "", upper!A3)</f>
         <v/>
       </c>
-      <c r="B72" s="70" t="str">
+      <c r="B72" s="69" t="str">
         <f>IF(upper!B3=0, "", upper!B3)</f>
         <v/>
       </c>
-      <c r="C72" s="70" t="str">
+      <c r="C72" s="69" t="str">
         <f>IF(upper!C3=0, "", upper!C3)</f>
         <v/>
       </c>
-      <c r="D72" s="70" t="str">
+      <c r="D72" s="69" t="str">
         <f>IF(upper!D3=0, "", upper!D3)</f>
         <v/>
       </c>
-      <c r="E72" s="70" t="str">
+      <c r="E72" s="69" t="str">
         <f>IF(upper!E3=0, "", upper!E3)</f>
         <v/>
       </c>
-      <c r="F72" s="65" t="str">
+      <c r="F72" s="64" t="str">
         <f>IF(upper!F3=0, "", upper!F3)</f>
         <v/>
       </c>
-      <c r="G72" s="65" t="str">
+      <c r="G72" s="64" t="str">
         <f>IF(upper!A3=0, "", upper!G3)</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="65" t="str">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="str">
         <f>IF(upper!A4=0, "", upper!A4)</f>
         <v/>
       </c>
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="69" t="str">
         <f>IF(upper!B4=0, "", upper!B4)</f>
         <v/>
       </c>
-      <c r="C73" s="70" t="str">
+      <c r="C73" s="69" t="str">
         <f>IF(upper!C4=0, "", upper!C4)</f>
         <v/>
       </c>
-      <c r="D73" s="70" t="str">
+      <c r="D73" s="69" t="str">
         <f>IF(upper!D4=0, "", upper!D4)</f>
         <v/>
       </c>
-      <c r="E73" s="70" t="str">
+      <c r="E73" s="69" t="str">
         <f>IF(upper!E4=0, "", upper!E4)</f>
         <v/>
       </c>
-      <c r="F73" s="65" t="str">
+      <c r="F73" s="64" t="str">
         <f>IF(upper!F4=0, "", upper!F4)</f>
         <v/>
       </c>
-      <c r="G73" s="65" t="str">
+      <c r="G73" s="64" t="str">
         <f>IF(upper!A4=0, "", upper!G4)</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="65" t="str">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="str">
         <f>IF(upper!A5=0, "", upper!A5)</f>
         <v/>
       </c>
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="69" t="str">
         <f>IF(upper!B5=0, "", upper!B5)</f>
         <v/>
       </c>
-      <c r="C74" s="70" t="str">
+      <c r="C74" s="69" t="str">
         <f>IF(upper!C5=0, "", upper!C5)</f>
         <v/>
       </c>
-      <c r="D74" s="70" t="str">
+      <c r="D74" s="69" t="str">
         <f>IF(upper!D5=0, "", upper!D5)</f>
         <v/>
       </c>
-      <c r="E74" s="70" t="str">
+      <c r="E74" s="69" t="str">
         <f>IF(upper!E5=0, "", upper!E5)</f>
         <v/>
       </c>
-      <c r="F74" s="65" t="str">
+      <c r="F74" s="64" t="str">
         <f>IF(upper!F5=0, "", upper!F5)</f>
         <v/>
       </c>
-      <c r="G74" s="65" t="str">
+      <c r="G74" s="64" t="str">
         <f>IF(upper!A5=0, "", upper!G5)</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="65" t="str">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="str">
         <f>IF(upper!A6=0, "", upper!A6)</f>
         <v/>
       </c>
-      <c r="B75" s="70" t="str">
+      <c r="B75" s="69" t="str">
         <f>IF(upper!B6=0, "", upper!B6)</f>
         <v/>
       </c>
-      <c r="C75" s="70" t="str">
+      <c r="C75" s="69" t="str">
         <f>IF(upper!C6=0, "", upper!C6)</f>
         <v/>
       </c>
-      <c r="D75" s="70" t="str">
+      <c r="D75" s="69" t="str">
         <f>IF(upper!D6=0, "", upper!D6)</f>
         <v/>
       </c>
-      <c r="E75" s="70" t="str">
+      <c r="E75" s="69" t="str">
         <f>IF(upper!E6=0, "", upper!E6)</f>
         <v/>
       </c>
-      <c r="F75" s="65" t="str">
+      <c r="F75" s="64" t="str">
         <f>IF(upper!F6=0, "", upper!F6)</f>
         <v/>
       </c>
-      <c r="G75" s="65" t="str">
+      <c r="G75" s="64" t="str">
         <f>IF(upper!A6=0, "", upper!G6)</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="65" t="str">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="str">
         <f>IF(upper!A7=0, "", upper!A7)</f>
         <v/>
       </c>
-      <c r="B76" s="70" t="str">
+      <c r="B76" s="69" t="str">
         <f>IF(upper!B7=0, "", upper!B7)</f>
         <v/>
       </c>
-      <c r="C76" s="70" t="str">
+      <c r="C76" s="69" t="str">
         <f>IF(upper!C7=0, "", upper!C7)</f>
         <v/>
       </c>
-      <c r="D76" s="70" t="str">
+      <c r="D76" s="69" t="str">
         <f>IF(upper!D7=0, "", upper!D7)</f>
         <v/>
       </c>
-      <c r="E76" s="70" t="str">
+      <c r="E76" s="69" t="str">
         <f>IF(upper!E7=0, "", upper!E7)</f>
         <v/>
       </c>
-      <c r="F76" s="65" t="str">
+      <c r="F76" s="64" t="str">
         <f>IF(upper!F7=0, "", upper!F7)</f>
         <v/>
       </c>
-      <c r="G76" s="65" t="str">
+      <c r="G76" s="64" t="str">
         <f>IF(upper!A7=0, "", upper!G7)</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="65" t="str">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="str">
         <f>IF(upper!A8=0, "", upper!A8)</f>
         <v/>
       </c>
-      <c r="B77" s="70" t="str">
+      <c r="B77" s="69" t="str">
         <f>IF(upper!B8=0, "", upper!B8)</f>
         <v/>
       </c>
-      <c r="C77" s="70" t="str">
+      <c r="C77" s="69" t="str">
         <f>IF(upper!C8=0, "", upper!C8)</f>
         <v/>
       </c>
-      <c r="D77" s="70" t="str">
+      <c r="D77" s="69" t="str">
         <f>IF(upper!D8=0, "", upper!D8)</f>
         <v/>
       </c>
-      <c r="E77" s="70" t="str">
+      <c r="E77" s="69" t="str">
         <f>IF(upper!E8=0, "", upper!E8)</f>
         <v/>
       </c>
-      <c r="F77" s="65" t="str">
+      <c r="F77" s="64" t="str">
         <f>IF(upper!F8=0, "", upper!F8)</f>
         <v/>
       </c>
-      <c r="G77" s="65" t="str">
+      <c r="G77" s="64" t="str">
         <f>IF(upper!A8=0, "", upper!G8)</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="65" t="str">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="str">
         <f>IF(upper!A9=0, "", upper!A9)</f>
         <v/>
       </c>
-      <c r="B78" s="70" t="str">
+      <c r="B78" s="69" t="str">
         <f>IF(upper!B9=0, "", upper!B9)</f>
         <v/>
       </c>
-      <c r="C78" s="70" t="str">
+      <c r="C78" s="69" t="str">
         <f>IF(upper!C9=0, "", upper!C9)</f>
         <v/>
       </c>
-      <c r="D78" s="70" t="str">
+      <c r="D78" s="69" t="str">
         <f>IF(upper!D9=0, "", upper!D9)</f>
         <v/>
       </c>
-      <c r="E78" s="70" t="str">
+      <c r="E78" s="69" t="str">
         <f>IF(upper!E9=0, "", upper!E9)</f>
         <v/>
       </c>
-      <c r="F78" s="65" t="str">
+      <c r="F78" s="64" t="str">
         <f>IF(upper!F9=0, "", upper!F9)</f>
         <v/>
       </c>
-      <c r="G78" s="65" t="str">
+      <c r="G78" s="64" t="str">
         <f>IF(upper!A9=0, "", upper!G9)</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="65" t="str">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="str">
         <f>IF(upper!A10=0, "", upper!A10)</f>
         <v/>
       </c>
-      <c r="B79" s="70" t="str">
+      <c r="B79" s="69" t="str">
         <f>IF(upper!B10=0, "", upper!B10)</f>
         <v/>
       </c>
-      <c r="C79" s="70" t="str">
+      <c r="C79" s="69" t="str">
         <f>IF(upper!C10=0, "", upper!C10)</f>
         <v/>
       </c>
-      <c r="D79" s="70" t="str">
+      <c r="D79" s="69" t="str">
         <f>IF(upper!D10=0, "", upper!D10)</f>
         <v/>
       </c>
-      <c r="E79" s="70" t="str">
+      <c r="E79" s="69" t="str">
         <f>IF(upper!E10=0, "", upper!E10)</f>
         <v/>
       </c>
-      <c r="F79" s="65" t="str">
+      <c r="F79" s="64" t="str">
         <f>IF(upper!F10=0, "", upper!F10)</f>
         <v/>
       </c>
-      <c r="G79" s="65" t="str">
+      <c r="G79" s="64" t="str">
         <f>IF(upper!A10=0, "", upper!G10)</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="65" t="str">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="str">
         <f>IF(upper!A11=0, "", upper!A11)</f>
         <v/>
       </c>
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="69" t="str">
         <f>IF(upper!B11=0, "", upper!B11)</f>
         <v/>
       </c>
-      <c r="C80" s="70" t="str">
+      <c r="C80" s="69" t="str">
         <f>IF(upper!C11=0, "", upper!C11)</f>
         <v/>
       </c>
-      <c r="D80" s="70" t="str">
+      <c r="D80" s="69" t="str">
         <f>IF(upper!D11=0, "", upper!D11)</f>
         <v/>
       </c>
-      <c r="E80" s="70" t="str">
+      <c r="E80" s="69" t="str">
         <f>IF(upper!E11=0, "", upper!E11)</f>
         <v/>
       </c>
-      <c r="F80" s="65" t="str">
+      <c r="F80" s="64" t="str">
         <f>IF(upper!F11=0, "", upper!F11)</f>
         <v/>
       </c>
-      <c r="G80" s="65" t="str">
+      <c r="G80" s="64" t="str">
         <f>IF(upper!A11=0, "", upper!G11)</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="65" t="str">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="str">
         <f>IF(upper!A12=0, "", upper!A12)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B81" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B81" s="69">
         <f>IF(upper!B12=0, "", upper!B12)</f>
         <v>61</v>
       </c>
-      <c r="C81" s="70">
+      <c r="C81" s="69">
         <f>IF(upper!C12=0, "", upper!C12)</f>
         <v>22</v>
       </c>
-      <c r="D81" s="70">
+      <c r="D81" s="69">
         <f>IF(upper!D12=0, "", upper!D12)</f>
         <v>186.95041722813599</v>
       </c>
-      <c r="E81" s="70">
+      <c r="E81" s="69">
         <f>IF(upper!E12=0, "", upper!E12)</f>
         <v>-59.999859694228427</v>
       </c>
-      <c r="F81" s="65">
+      <c r="F81" s="64">
         <f>IF(upper!F12=0, "", upper!F12)</f>
         <v>4</v>
       </c>
-      <c r="G81" s="65">
+      <c r="G81" s="64">
         <f>IF(upper!A12=0, "", upper!G12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="65" t="str">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="str">
         <f>IF(upper!A13=0, "", upper!A13)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B82" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B82" s="69">
         <f>IF(upper!B13=0, "", upper!B13)</f>
         <v>56</v>
       </c>
-      <c r="C82" s="70">
+      <c r="C82" s="69">
         <f>IF(upper!C13=0, "", upper!C13)</f>
         <v>22</v>
       </c>
-      <c r="D82" s="70">
+      <c r="D82" s="69">
         <f>IF(upper!D13=0, "", upper!D13)</f>
         <v>205.425625842204</v>
       </c>
-      <c r="E82" s="70" t="str">
+      <c r="E82" s="69" t="str">
         <f>IF(upper!E13=0, "", upper!E13)</f>
         <v/>
       </c>
-      <c r="F82" s="65">
+      <c r="F82" s="64">
         <f>IF(upper!F13=0, "", upper!F13)</f>
         <v>4</v>
       </c>
-      <c r="G82" s="65">
+      <c r="G82" s="64">
         <f>IF(upper!A13=0, "", upper!G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="65" t="str">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="str">
         <f>IF(upper!A14=0, "", upper!A14)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B83" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B83" s="69">
         <f>IF(upper!B14=0, "", upper!B14)</f>
         <v>57</v>
       </c>
-      <c r="C83" s="70">
+      <c r="C83" s="69">
         <f>IF(upper!C14=0, "", upper!C14)</f>
         <v>6</v>
       </c>
-      <c r="D83" s="70">
+      <c r="D83" s="69">
         <f>IF(upper!D14=0, "", upper!D14)</f>
         <v>214.66323014923799</v>
       </c>
-      <c r="E83" s="70">
+      <c r="E83" s="69">
         <f>IF(upper!E14=0, "", upper!E14)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F83" s="65">
+      <c r="F83" s="64">
         <f>IF(upper!F14=0, "", upper!F14)</f>
         <v>4</v>
       </c>
-      <c r="G83" s="65">
+      <c r="G83" s="64">
         <f>IF(upper!A14=0, "", upper!G14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="65" t="str">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="str">
         <f>IF(upper!A15=0, "", upper!A15)</f>
         <v/>
       </c>
-      <c r="B84" s="70" t="str">
+      <c r="B84" s="69" t="str">
         <f>IF(upper!B15=0, "", upper!B15)</f>
         <v/>
       </c>
-      <c r="C84" s="70" t="str">
+      <c r="C84" s="69" t="str">
         <f>IF(upper!C15=0, "", upper!C15)</f>
         <v/>
       </c>
-      <c r="D84" s="70" t="str">
+      <c r="D84" s="69" t="str">
         <f>IF(upper!D15=0, "", upper!D15)</f>
         <v/>
       </c>
-      <c r="E84" s="70" t="str">
+      <c r="E84" s="69" t="str">
         <f>IF(upper!E15=0, "", upper!E15)</f>
         <v/>
       </c>
-      <c r="F84" s="65" t="str">
+      <c r="F84" s="64" t="str">
         <f>IF(upper!F15=0, "", upper!F15)</f>
         <v/>
       </c>
-      <c r="G84" s="65" t="str">
+      <c r="G84" s="64" t="str">
         <f>IF(upper!A15=0, "", upper!G15)</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="65" t="str">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="str">
         <f>IF(upper!A16=0, "", upper!A16)</f>
         <v/>
       </c>
-      <c r="B85" s="70" t="str">
+      <c r="B85" s="69" t="str">
         <f>IF(upper!B16=0, "", upper!B16)</f>
         <v/>
       </c>
-      <c r="C85" s="70" t="str">
+      <c r="C85" s="69" t="str">
         <f>IF(upper!C16=0, "", upper!C16)</f>
         <v/>
       </c>
-      <c r="D85" s="70" t="str">
+      <c r="D85" s="69" t="str">
         <f>IF(upper!D16=0, "", upper!D16)</f>
         <v/>
       </c>
-      <c r="E85" s="70" t="str">
+      <c r="E85" s="69" t="str">
         <f>IF(upper!E16=0, "", upper!E16)</f>
         <v/>
       </c>
-      <c r="F85" s="65" t="str">
+      <c r="F85" s="64" t="str">
         <f>IF(upper!F16=0, "", upper!F16)</f>
         <v/>
       </c>
-      <c r="G85" s="65" t="str">
+      <c r="G85" s="64" t="str">
         <f>IF(upper!A16=0, "", upper!G16)</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="65" t="str">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="str">
         <f>IF(upper!A17=0, "", upper!A17)</f>
         <v/>
       </c>
-      <c r="B86" s="70" t="str">
+      <c r="B86" s="69" t="str">
         <f>IF(upper!B17=0, "", upper!B17)</f>
         <v/>
       </c>
-      <c r="C86" s="70" t="str">
+      <c r="C86" s="69" t="str">
         <f>IF(upper!C17=0, "", upper!C17)</f>
         <v/>
       </c>
-      <c r="D86" s="70" t="str">
+      <c r="D86" s="69" t="str">
         <f>IF(upper!D17=0, "", upper!D17)</f>
         <v/>
       </c>
-      <c r="E86" s="70" t="str">
+      <c r="E86" s="69" t="str">
         <f>IF(upper!E17=0, "", upper!E17)</f>
         <v/>
       </c>
-      <c r="F86" s="65" t="str">
+      <c r="F86" s="64" t="str">
         <f>IF(upper!F17=0, "", upper!F17)</f>
         <v/>
       </c>
-      <c r="G86" s="65" t="str">
+      <c r="G86" s="64" t="str">
         <f>IF(upper!A17=0, "", upper!G17)</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="65" t="str">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="str">
         <f>IF(upper!A18=0, "", upper!A18)</f>
         <v/>
       </c>
-      <c r="B87" s="70" t="str">
+      <c r="B87" s="69" t="str">
         <f>IF(upper!B18=0, "", upper!B18)</f>
         <v/>
       </c>
-      <c r="C87" s="70" t="str">
+      <c r="C87" s="69" t="str">
         <f>IF(upper!C18=0, "", upper!C18)</f>
         <v/>
       </c>
-      <c r="D87" s="70" t="str">
+      <c r="D87" s="69" t="str">
         <f>IF(upper!D18=0, "", upper!D18)</f>
         <v/>
       </c>
-      <c r="E87" s="70" t="str">
+      <c r="E87" s="69" t="str">
         <f>IF(upper!E18=0, "", upper!E18)</f>
         <v/>
       </c>
-      <c r="F87" s="65" t="str">
+      <c r="F87" s="64" t="str">
         <f>IF(upper!F18=0, "", upper!F18)</f>
         <v/>
       </c>
-      <c r="G87" s="65" t="str">
+      <c r="G87" s="64" t="str">
         <f>IF(upper!A18=0, "", upper!G18)</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="65" t="str">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="str">
         <f>IF(upper!A19=0, "", upper!A19)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B88" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B88" s="69">
         <f>IF(upper!B19=0, "", upper!B19)</f>
         <v>58</v>
       </c>
-      <c r="C88" s="70">
+      <c r="C88" s="69">
         <f>IF(upper!C19=0, "", upper!C19)</f>
         <v>-10</v>
       </c>
-      <c r="D88" s="70">
+      <c r="D88" s="69">
         <f>IF(upper!D19=0, "", upper!D19)</f>
         <v>205.425625842204</v>
       </c>
-      <c r="E88" s="70">
+      <c r="E88" s="69">
         <f>IF(upper!E19=0, "", upper!E19)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F88" s="65">
+      <c r="F88" s="64">
         <f>IF(upper!F19=0, "", upper!F19)</f>
         <v>4</v>
       </c>
-      <c r="G88" s="65">
+      <c r="G88" s="64">
         <f>IF(upper!A19=0, "", upper!G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="65" t="str">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="str">
         <f>IF(upper!A20=0, "", upper!A20)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B89" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B89" s="69">
         <f>IF(upper!B20=0, "", upper!B20)</f>
         <v>53</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C89" s="69">
         <f>IF(upper!C20=0, "", upper!C20)</f>
         <v>-26</v>
       </c>
-      <c r="D89" s="70">
+      <c r="D89" s="69">
         <f>IF(upper!D20=0, "", upper!D20)</f>
         <v>214.66323014923799</v>
       </c>
-      <c r="E89" s="70">
+      <c r="E89" s="69">
         <f>IF(upper!E20=0, "", upper!E20)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F89" s="65">
+      <c r="F89" s="64">
         <f>IF(upper!F20=0, "", upper!F20)</f>
         <v>4</v>
       </c>
-      <c r="G89" s="65">
+      <c r="G89" s="64">
         <f>IF(upper!A20=0, "", upper!G20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="65" t="str">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="str">
         <f>IF(upper!A21=0, "", upper!A21)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B90" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B90" s="69">
         <f>IF(upper!B21=0, "", upper!B21)</f>
         <v>63</v>
       </c>
-      <c r="C90" s="70">
+      <c r="C90" s="69">
         <f>IF(upper!C21=0, "", upper!C21)</f>
         <v>-42</v>
       </c>
-      <c r="D90" s="70">
+      <c r="D90" s="69">
         <f>IF(upper!D21=0, "", upper!D21)</f>
         <v>205.425625842204</v>
       </c>
-      <c r="E90" s="70">
+      <c r="E90" s="69">
         <f>IF(upper!E21=0, "", upper!E21)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F90" s="65">
+      <c r="F90" s="64">
         <f>IF(upper!F21=0, "", upper!F21)</f>
         <v>4</v>
       </c>
-      <c r="G90" s="65">
+      <c r="G90" s="64">
         <f>IF(upper!A21=0, "", upper!G21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="65" t="str">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="str">
         <f>IF(upper!A22=0, "", upper!A22)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B91" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B91" s="69">
         <f>IF(upper!B22=0, "", upper!B22)</f>
         <v>48</v>
       </c>
-      <c r="C91" s="70">
+      <c r="C91" s="69">
         <f>IF(upper!C22=0, "", upper!C22)</f>
         <v>-42</v>
       </c>
-      <c r="D91" s="70">
+      <c r="D91" s="69">
         <f>IF(upper!D22=0, "", upper!D22)</f>
         <v>186.95041722813599</v>
       </c>
-      <c r="E91" s="70">
+      <c r="E91" s="69">
         <f>IF(upper!E22=0, "", upper!E22)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F91" s="65">
+      <c r="F91" s="64">
         <f>IF(upper!F22=0, "", upper!F22)</f>
         <v>4</v>
       </c>
-      <c r="G91" s="65">
+      <c r="G91" s="64">
         <f>IF(upper!A22=0, "", upper!G22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="65" t="str">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="str">
         <f>IF(upper!A23=0, "", upper!A23)</f>
-        <v>triangle</v>
-      </c>
-      <c r="B92" s="70">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B92" s="69">
         <f>IF(upper!B23=0, "", upper!B23)</f>
         <v>59</v>
       </c>
-      <c r="C92" s="70">
+      <c r="C92" s="69">
         <f>IF(upper!C23=0, "", upper!C23)</f>
         <v>-10</v>
       </c>
-      <c r="D92" s="70">
+      <c r="D92" s="69">
         <f>IF(upper!D23=0, "", upper!D23)</f>
         <v>186.95041722813599</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="69">
         <f>IF(upper!E23=0, "", upper!E23)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F92" s="65">
+      <c r="F92" s="64">
         <f>IF(upper!F23=0, "", upper!F23)</f>
         <v>4</v>
       </c>
-      <c r="G92" s="65">
+      <c r="G92" s="64">
         <f>IF(upper!A23=0, "", upper!G23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="65" t="str">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="str">
         <f>IF(upper!A24=0, "", upper!A24)</f>
         <v/>
       </c>
-      <c r="B93" s="70" t="str">
+      <c r="B93" s="69" t="str">
         <f>IF(upper!B24=0, "", upper!B24)</f>
         <v/>
       </c>
-      <c r="C93" s="70" t="str">
+      <c r="C93" s="69" t="str">
         <f>IF(upper!C24=0, "", upper!C24)</f>
         <v/>
       </c>
-      <c r="D93" s="70" t="str">
+      <c r="D93" s="69" t="str">
         <f>IF(upper!D24=0, "", upper!D24)</f>
         <v/>
       </c>
-      <c r="E93" s="70" t="str">
+      <c r="E93" s="69" t="str">
         <f>IF(upper!E24=0, "", upper!E24)</f>
         <v/>
       </c>
-      <c r="F93" s="65" t="str">
+      <c r="F93" s="64" t="str">
         <f>IF(upper!F24=0, "", upper!F24)</f>
         <v/>
       </c>
-      <c r="G93" s="65" t="str">
+      <c r="G93" s="64" t="str">
         <f>IF(upper!A24=0, "", upper!G24)</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="65" t="str">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="str">
         <f>IF(upper!A25=0, "", upper!A25)</f>
         <v/>
       </c>
-      <c r="B94" s="70" t="str">
+      <c r="B94" s="69" t="str">
         <f>IF(upper!B25=0, "", upper!B25)</f>
         <v/>
       </c>
-      <c r="C94" s="70" t="str">
+      <c r="C94" s="69" t="str">
         <f>IF(upper!C25=0, "", upper!C25)</f>
         <v/>
       </c>
-      <c r="D94" s="70" t="str">
+      <c r="D94" s="69" t="str">
         <f>IF(upper!D25=0, "", upper!D25)</f>
         <v/>
       </c>
-      <c r="E94" s="70" t="str">
+      <c r="E94" s="69" t="str">
         <f>IF(upper!E25=0, "", upper!E25)</f>
         <v/>
       </c>
-      <c r="F94" s="65" t="str">
+      <c r="F94" s="64" t="str">
         <f>IF(upper!F25=0, "", upper!F25)</f>
         <v/>
       </c>
-      <c r="G94" s="65" t="str">
+      <c r="G94" s="64" t="str">
         <f>IF(upper!A25=0, "", upper!G25)</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="65"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
@@ -12125,7 +12125,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13343,7 +13343,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13426,22 +13426,22 @@
       </c>
       <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-113.39745962155612</v>
+        <v>-106.60254037844388</v>
       </c>
       <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
-        <v>106.60254037844388</v>
+        <v>103.60254037844388</v>
       </c>
       <c r="E3" s="35">
-        <f>($M3/3.1416*180)+$N$5</f>
-        <v>-89.999719388456853</v>
+        <f>($M3/3.1416*180)-$N$5</f>
+        <v>-149.99971938845687</v>
       </c>
       <c r="F3" s="36">
         <v>4</v>
       </c>
       <c r="G3" s="37">
         <f>IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -13471,7 +13471,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="20" t="s">
         <v>18</v>
@@ -13487,22 +13487,22 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-104.1598553145221</v>
+        <v>-115.8401446854779</v>
       </c>
       <c r="D4" s="23">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
-        <v>122.60254037844385</v>
-      </c>
-      <c r="E4" s="23">
-        <f t="shared" ref="E4:E13" si="3">($M4/3.1416*180)+$N$5</f>
-        <v>-29.999859694228427</v>
+        <v>119.60254037844385</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" ref="E4:E13" si="3">($M4/3.1416*180)-$N$5</f>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
       <c r="G4" s="25">
         <f t="shared" ref="G4:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" si="1"/>
-        <v>-85.684646700454095</v>
+        <v>-134.3153532995459</v>
       </c>
       <c r="D5" s="23">
         <f t="shared" si="2"/>
-        <v>122.60254037844385</v>
-      </c>
-      <c r="E5" s="23">
+        <v>119.60254037844385</v>
+      </c>
+      <c r="E5" s="35">
         <f t="shared" si="3"/>
-        <v>-89.999719388456853</v>
+        <v>-149.99971938845687</v>
       </c>
       <c r="F5" s="11">
         <v>4</v>
       </c>
       <c r="G5" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -13602,22 +13602,22 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" si="1"/>
-        <v>-76.447042393420062</v>
+        <v>-143.55295760657992</v>
       </c>
       <c r="D6" s="23">
         <f t="shared" si="2"/>
-        <v>138.60254037844385</v>
-      </c>
-      <c r="E6" s="23">
+        <v>135.60254037844385</v>
+      </c>
+      <c r="E6" s="35">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F6" s="11">
         <v>4</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -13657,22 +13657,22 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" si="1"/>
-        <v>-85.684646700454067</v>
+        <v>-134.31535329954593</v>
       </c>
       <c r="D7" s="23">
         <f t="shared" si="2"/>
-        <v>154.60254037844382</v>
-      </c>
-      <c r="E7" s="23">
+        <v>151.60254037844382</v>
+      </c>
+      <c r="E7" s="35">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F7" s="11">
         <v>4</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-150</v>
+        <v>-70</v>
       </c>
       <c r="O7" s="45">
         <v>148</v>
@@ -13711,22 +13711,22 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" si="1"/>
-        <v>-76.44704239342002</v>
+        <v>-143.55295760657998</v>
       </c>
       <c r="D8" s="23">
         <f t="shared" si="2"/>
-        <v>170.60254037844379</v>
-      </c>
-      <c r="E8" s="23">
+        <v>167.60254037844379</v>
+      </c>
+      <c r="E8" s="35">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -13765,22 +13765,22 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="1"/>
-        <v>-85.684646700454024</v>
+        <v>-134.31535329954596</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" si="2"/>
-        <v>186.60254037844379</v>
-      </c>
-      <c r="E9" s="23">
+        <v>183.60254037844379</v>
+      </c>
+      <c r="E9" s="35">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F9" s="11">
         <v>4</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="44">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="O9" s="45">
         <v>164</v>
@@ -13816,22 +13816,22 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" si="1"/>
-        <v>-104.15985531452205</v>
+        <v>-115.84014468547795</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="2"/>
-        <v>186.60254037844379</v>
-      </c>
-      <c r="E10" s="23">
+        <v>183.60254037844379</v>
+      </c>
+      <c r="E10" s="35">
         <f t="shared" si="3"/>
-        <v>89.999859694228434</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F10" s="11">
         <v>4</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="44">
@@ -13866,22 +13866,22 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="1"/>
-        <v>-113.3974596215561</v>
+        <v>-106.6025403784439</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="2"/>
-        <v>138.60254037844382</v>
-      </c>
-      <c r="E11" s="23">
+        <v>135.60254037844382</v>
+      </c>
+      <c r="E11" s="35">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F11" s="11">
         <v>4</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="44">
@@ -13916,22 +13916,22 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="1"/>
-        <v>-104.15985531452208</v>
+        <v>-115.84014468547792</v>
       </c>
       <c r="D12" s="23">
         <f t="shared" si="2"/>
-        <v>154.60254037844379</v>
-      </c>
-      <c r="E12" s="23">
+        <v>151.60254037844379</v>
+      </c>
+      <c r="E12" s="35">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="44">
@@ -13964,22 +13964,22 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="1"/>
-        <v>-113.39745962155608</v>
+        <v>-106.60254037844392</v>
       </c>
       <c r="D13" s="23">
         <f t="shared" si="2"/>
-        <v>170.60254037844379</v>
-      </c>
-      <c r="E13" s="23">
+        <v>167.60254037844379</v>
+      </c>
+      <c r="E13" s="35">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="44">
@@ -14367,7 +14367,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14451,22 +14451,22 @@
       </c>
       <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>63.397459621556152</v>
+        <v>106.60254037844385</v>
       </c>
       <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
         <v>183.39745962155612</v>
       </c>
       <c r="E3" s="35">
-        <f>($M3/3.1416*180)+$N$5</f>
-        <v>90.000280611543147</v>
+        <f>($M3/3.1416*180)-$N$5</f>
+        <v>-329.99971938845687</v>
       </c>
       <c r="F3" s="36">
         <v>4</v>
       </c>
       <c r="G3" s="37">
         <f>IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -14496,7 +14496,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="20" t="s">
         <v>18</v>
@@ -14512,22 +14512,22 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C25" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>54.15985531452214</v>
+        <v>115.84014468547787</v>
       </c>
       <c r="D4" s="23">
         <f t="shared" ref="D4:D25" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
         <v>167.39745962155615</v>
       </c>
-      <c r="E4" s="23">
-        <f t="shared" ref="E4:E25" si="3">($M4/3.1416*180)+$N$5</f>
-        <v>150.00014030577157</v>
+      <c r="E4" s="35">
+        <f t="shared" ref="E4:E25" si="3">($M4/3.1416*180)-$N$5</f>
+        <v>-269.99985969422841</v>
       </c>
       <c r="F4" s="11">
         <v>4</v>
       </c>
       <c r="G4" s="25">
         <f t="shared" ref="G4:G25" si="4">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -14565,7 +14565,10 @@
       <c r="B5" s="35"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="35">
+        <f t="shared" si="3"/>
+        <v>-329.99971938845687</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="25"/>
       <c r="H5" s="1"/>
@@ -14603,7 +14606,10 @@
       <c r="B6" s="35"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="35">
+        <f t="shared" si="3"/>
+        <v>-269.99985969422841</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="25"/>
       <c r="H6" s="1"/>
@@ -14639,7 +14645,10 @@
       <c r="B7" s="35"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="35">
+        <f t="shared" si="3"/>
+        <v>-210</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="25"/>
       <c r="H7" s="1"/>
@@ -14657,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O7" s="45">
         <v>148</v>
@@ -14674,7 +14683,10 @@
       <c r="B8" s="35"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="35">
+        <f t="shared" si="3"/>
+        <v>-269.99985969422841</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="25"/>
       <c r="H8" s="1"/>
@@ -14709,7 +14721,10 @@
       <c r="B9" s="35"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="35">
+        <f t="shared" si="3"/>
+        <v>-210</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="25"/>
       <c r="I9" s="1"/>
@@ -14741,7 +14756,10 @@
       <c r="B10" s="35"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="35">
+        <f t="shared" si="3"/>
+        <v>-150.00014030577157</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="25"/>
       <c r="I10" s="1"/>
@@ -14777,22 +14795,22 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="1"/>
-        <v>63.397459621556138</v>
+        <v>106.60254037844386</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="2"/>
         <v>151.39745962155615</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="35">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F11" s="11">
         <v>4</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="44">
@@ -14827,22 +14845,22 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="1"/>
-        <v>54.159855314522119</v>
+        <v>115.84014468547788</v>
       </c>
       <c r="D12" s="23">
         <f t="shared" si="2"/>
         <v>135.39745962155618</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="35">
         <f t="shared" si="3"/>
-        <v>150.00014030577157</v>
+        <v>-269.99985969422841</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="44">
@@ -14875,22 +14893,22 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="1"/>
-        <v>63.397459621556123</v>
+        <v>106.60254037844388</v>
       </c>
       <c r="D13" s="23">
         <f t="shared" si="2"/>
         <v>119.39745962155621</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="35">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="44">
@@ -14923,22 +14941,22 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" si="1"/>
-        <v>81.872668235624133</v>
+        <v>88.127331764375867</v>
       </c>
       <c r="D14" s="23">
         <f t="shared" si="2"/>
         <v>119.39745962155621</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="35">
         <f t="shared" si="3"/>
-        <v>269.99985969422841</v>
+        <v>-150.00014030577157</v>
       </c>
       <c r="F14" s="11">
         <v>4</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="44">
@@ -14971,22 +14989,22 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" si="1"/>
-        <v>91.110272542658137</v>
+        <v>78.889727457341863</v>
       </c>
       <c r="D15" s="23">
         <f t="shared" si="2"/>
         <v>103.39745962155621</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="35">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="44">
@@ -15014,7 +15032,10 @@
       <c r="B16" s="35"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="35">
+        <f t="shared" si="3"/>
+        <v>-269.99985969422841</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="25"/>
       <c r="I16" s="1"/>
@@ -15043,7 +15064,10 @@
       <c r="B17" s="35"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="35">
+        <f t="shared" si="3"/>
+        <v>-150.00014030577157</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="25"/>
       <c r="I17" s="1"/>
@@ -15072,7 +15096,10 @@
       <c r="B18" s="35"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="35">
+        <f t="shared" si="3"/>
+        <v>-90.000280611543147</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="25"/>
       <c r="I18" s="1"/>
@@ -15106,22 +15133,22 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" si="1"/>
-        <v>91.110272542658151</v>
+        <v>78.889727457341849</v>
       </c>
       <c r="D19" s="23">
         <f t="shared" si="2"/>
         <v>135.39745962155621</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="35">
         <f t="shared" si="3"/>
-        <v>329.99971938845687</v>
+        <v>-90.000280611543147</v>
       </c>
       <c r="F19" s="11">
         <v>4</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="44">
@@ -15149,7 +15176,10 @@
       <c r="B20" s="35"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="35">
+        <f t="shared" si="3"/>
+        <v>-150.00014030577157</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="25"/>
       <c r="I20" s="2"/>
@@ -15178,7 +15208,10 @@
       <c r="B21" s="35"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="35">
+        <f t="shared" si="3"/>
+        <v>-90.000280611543147</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="25"/>
       <c r="I21" s="2"/>
@@ -15207,7 +15240,10 @@
       <c r="B22" s="35"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="35">
+        <f t="shared" si="3"/>
+        <v>-30.000420917315324</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="25"/>
       <c r="I22" s="2"/>
@@ -15241,22 +15277,22 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
-        <v>81.872668235624147</v>
+        <v>88.127331764375853</v>
       </c>
       <c r="D23" s="23">
         <f t="shared" si="2"/>
         <v>151.39745962155618</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="35">
         <f t="shared" si="3"/>
-        <v>389.9995790826847</v>
+        <v>-30.000420917315324</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="44">
@@ -15289,22 +15325,22 @@
       </c>
       <c r="C24" s="23">
         <f t="shared" si="1"/>
-        <v>91.110272542658166</v>
+        <v>78.889727457341834</v>
       </c>
       <c r="D24" s="23">
         <f t="shared" si="2"/>
         <v>167.39745962155618</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="35">
         <f t="shared" si="3"/>
-        <v>329.99971938845687</v>
+        <v>-90.000280611543147</v>
       </c>
       <c r="F24" s="11">
         <v>4</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="44">
@@ -15337,22 +15373,22 @@
       </c>
       <c r="C25" s="27">
         <f t="shared" si="1"/>
-        <v>81.872668235624161</v>
+        <v>88.127331764375839</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="2"/>
         <v>183.39745962155615</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="35">
         <f t="shared" si="3"/>
-        <v>389.9995790826847</v>
+        <v>-30.000420917315324</v>
       </c>
       <c r="F25" s="28">
         <v>4</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="44">
@@ -16358,8 +16394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G92"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16394,2761 +16430,2761 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="str">
-        <f>IF(lower!A3=0, "", lower!A3)</f>
+        <f>IF(lower!A3="", "", lower!A3)</f>
         <v/>
       </c>
       <c r="B3" s="66" t="str">
-        <f>IF(lower!B3=0, "", lower!B3)</f>
+        <f>IF(lower!B3="", "", lower!B3)</f>
         <v/>
       </c>
       <c r="C3" s="66" t="str">
-        <f>IF(lower!C3=0, "", lower!C3)</f>
+        <f>IF(lower!C3="", "", lower!C3)</f>
         <v/>
       </c>
       <c r="D3" s="66" t="str">
-        <f>IF(lower!D3=0, "", lower!D3)</f>
+        <f>IF(lower!D3="", "", lower!D3)</f>
         <v/>
       </c>
       <c r="E3" s="66" t="str">
-        <f>IF(lower!E3=0, "", lower!E3)</f>
-        <v/>
-      </c>
-      <c r="F3" s="63" t="str">
-        <f>IF(lower!F3=0, "", lower!F3)</f>
-        <v/>
-      </c>
-      <c r="G3" s="63" t="str">
-        <f>IF(lower!$A3=0, "", lower!G3)</f>
+        <f>IF(lower!E3="", "", lower!E3)</f>
+        <v/>
+      </c>
+      <c r="F3" s="66" t="str">
+        <f>IF(lower!F3="", "", lower!F3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="66" t="str">
+        <f>IF(lower!G3="", "", lower!G3)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="str">
-        <f>IF(lower!A4=0, "", lower!A4)</f>
+        <f>IF(lower!A4="", "", lower!A4)</f>
         <v/>
       </c>
       <c r="B4" s="66" t="str">
-        <f>IF(lower!B4=0, "", lower!B4)</f>
+        <f>IF(lower!B4="", "", lower!B4)</f>
         <v/>
       </c>
       <c r="C4" s="66" t="str">
-        <f>IF(lower!C4=0, "", lower!C4)</f>
+        <f>IF(lower!C4="", "", lower!C4)</f>
         <v/>
       </c>
       <c r="D4" s="66" t="str">
-        <f>IF(lower!D4=0, "", lower!D4)</f>
+        <f>IF(lower!D4="", "", lower!D4)</f>
         <v/>
       </c>
       <c r="E4" s="66" t="str">
-        <f>IF(lower!E4=0, "", lower!E4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="63" t="str">
-        <f>IF(lower!F4=0, "", lower!F4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="63" t="str">
-        <f>IF(lower!$A4=0, "", lower!G4)</f>
+        <f>IF(lower!E4="", "", lower!E4)</f>
+        <v/>
+      </c>
+      <c r="F4" s="66" t="str">
+        <f>IF(lower!F4="", "", lower!F4)</f>
+        <v/>
+      </c>
+      <c r="G4" s="66" t="str">
+        <f>IF(lower!G4="", "", lower!G4)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="str">
-        <f>IF(lower!A5=0, "", lower!A5)</f>
+        <f>IF(lower!A5="", "", lower!A5)</f>
         <v/>
       </c>
       <c r="B5" s="66" t="str">
-        <f>IF(lower!B5=0, "", lower!B5)</f>
+        <f>IF(lower!B5="", "", lower!B5)</f>
         <v/>
       </c>
       <c r="C5" s="66" t="str">
-        <f>IF(lower!C5=0, "", lower!C5)</f>
+        <f>IF(lower!C5="", "", lower!C5)</f>
         <v/>
       </c>
       <c r="D5" s="66" t="str">
-        <f>IF(lower!D5=0, "", lower!D5)</f>
+        <f>IF(lower!D5="", "", lower!D5)</f>
         <v/>
       </c>
       <c r="E5" s="66" t="str">
-        <f>IF(lower!E5=0, "", lower!E5)</f>
-        <v/>
-      </c>
-      <c r="F5" s="63" t="str">
-        <f>IF(lower!F5=0, "", lower!F5)</f>
-        <v/>
-      </c>
-      <c r="G5" s="63" t="str">
-        <f>IF(lower!$A5=0, "", lower!G5)</f>
+        <f>IF(lower!E5="", "", lower!E5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="66" t="str">
+        <f>IF(lower!F5="", "", lower!F5)</f>
+        <v/>
+      </c>
+      <c r="G5" s="66" t="str">
+        <f>IF(lower!G5="", "", lower!G5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="str">
-        <f>IF(lower!A6=0, "", lower!A6)</f>
+        <f>IF(lower!A6="", "", lower!A6)</f>
         <v/>
       </c>
       <c r="B6" s="66" t="str">
-        <f>IF(lower!B6=0, "", lower!B6)</f>
+        <f>IF(lower!B6="", "", lower!B6)</f>
         <v/>
       </c>
       <c r="C6" s="66" t="str">
-        <f>IF(lower!C6=0, "", lower!C6)</f>
+        <f>IF(lower!C6="", "", lower!C6)</f>
         <v/>
       </c>
       <c r="D6" s="66" t="str">
-        <f>IF(lower!D6=0, "", lower!D6)</f>
+        <f>IF(lower!D6="", "", lower!D6)</f>
         <v/>
       </c>
       <c r="E6" s="66" t="str">
-        <f>IF(lower!E6=0, "", lower!E6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="63" t="str">
-        <f>IF(lower!F6=0, "", lower!F6)</f>
-        <v/>
-      </c>
-      <c r="G6" s="63" t="str">
-        <f>IF(lower!$A6=0, "", lower!G6)</f>
+        <f>IF(lower!E6="", "", lower!E6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="66" t="str">
+        <f>IF(lower!F6="", "", lower!F6)</f>
+        <v/>
+      </c>
+      <c r="G6" s="66" t="str">
+        <f>IF(lower!G6="", "", lower!G6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="str">
-        <f>IF(lower!A7=0, "", lower!A7)</f>
+        <f>IF(lower!A7="", "", lower!A7)</f>
         <v/>
       </c>
       <c r="B7" s="66" t="str">
-        <f>IF(lower!B7=0, "", lower!B7)</f>
+        <f>IF(lower!B7="", "", lower!B7)</f>
         <v/>
       </c>
       <c r="C7" s="66" t="str">
-        <f>IF(lower!C7=0, "", lower!C7)</f>
+        <f>IF(lower!C7="", "", lower!C7)</f>
         <v/>
       </c>
       <c r="D7" s="66" t="str">
-        <f>IF(lower!D7=0, "", lower!D7)</f>
+        <f>IF(lower!D7="", "", lower!D7)</f>
         <v/>
       </c>
       <c r="E7" s="66" t="str">
-        <f>IF(lower!E7=0, "", lower!E7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="63" t="str">
-        <f>IF(lower!F7=0, "", lower!F7)</f>
-        <v/>
-      </c>
-      <c r="G7" s="63" t="str">
-        <f>IF(lower!$A7=0, "", lower!G7)</f>
+        <f>IF(lower!E7="", "", lower!E7)</f>
+        <v/>
+      </c>
+      <c r="F7" s="66" t="str">
+        <f>IF(lower!F7="", "", lower!F7)</f>
+        <v/>
+      </c>
+      <c r="G7" s="66" t="str">
+        <f>IF(lower!G7="", "", lower!G7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="str">
-        <f>IF(lower!A8=0, "", lower!A8)</f>
+        <f>IF(lower!A8="", "", lower!A8)</f>
         <v/>
       </c>
       <c r="B8" s="66" t="str">
-        <f>IF(lower!B8=0, "", lower!B8)</f>
+        <f>IF(lower!B8="", "", lower!B8)</f>
         <v/>
       </c>
       <c r="C8" s="66" t="str">
-        <f>IF(lower!C8=0, "", lower!C8)</f>
+        <f>IF(lower!C8="", "", lower!C8)</f>
         <v/>
       </c>
       <c r="D8" s="66" t="str">
-        <f>IF(lower!D8=0, "", lower!D8)</f>
+        <f>IF(lower!D8="", "", lower!D8)</f>
         <v/>
       </c>
       <c r="E8" s="66" t="str">
-        <f>IF(lower!E8=0, "", lower!E8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="63" t="str">
-        <f>IF(lower!F8=0, "", lower!F8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="63" t="str">
-        <f>IF(lower!$A8=0, "", lower!G8)</f>
+        <f>IF(lower!E8="", "", lower!E8)</f>
+        <v/>
+      </c>
+      <c r="F8" s="66" t="str">
+        <f>IF(lower!F8="", "", lower!F8)</f>
+        <v/>
+      </c>
+      <c r="G8" s="66" t="str">
+        <f>IF(lower!G8="", "", lower!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="str">
-        <f>IF(lower!A9=0, "", lower!A9)</f>
+        <f>IF(lower!A9="", "", lower!A9)</f>
         <v/>
       </c>
       <c r="B9" s="66" t="str">
-        <f>IF(lower!B9=0, "", lower!B9)</f>
+        <f>IF(lower!B9="", "", lower!B9)</f>
         <v/>
       </c>
       <c r="C9" s="66" t="str">
-        <f>IF(lower!C9=0, "", lower!C9)</f>
+        <f>IF(lower!C9="", "", lower!C9)</f>
         <v/>
       </c>
       <c r="D9" s="66" t="str">
-        <f>IF(lower!D9=0, "", lower!D9)</f>
+        <f>IF(lower!D9="", "", lower!D9)</f>
         <v/>
       </c>
       <c r="E9" s="66" t="str">
-        <f>IF(lower!E9=0, "", lower!E9)</f>
-        <v/>
-      </c>
-      <c r="F9" s="63" t="str">
-        <f>IF(lower!F9=0, "", lower!F9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="63" t="str">
-        <f>IF(lower!$A9=0, "", lower!G9)</f>
+        <f>IF(lower!E9="", "", lower!E9)</f>
+        <v/>
+      </c>
+      <c r="F9" s="66" t="str">
+        <f>IF(lower!F9="", "", lower!F9)</f>
+        <v/>
+      </c>
+      <c r="G9" s="66" t="str">
+        <f>IF(lower!G9="", "", lower!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="str">
-        <f>IF(lower!A10=0, "", lower!A10)</f>
+        <f>IF(lower!A10="", "", lower!A10)</f>
         <v/>
       </c>
       <c r="B10" s="66" t="str">
-        <f>IF(lower!B10=0, "", lower!B10)</f>
+        <f>IF(lower!B10="", "", lower!B10)</f>
         <v/>
       </c>
       <c r="C10" s="66" t="str">
-        <f>IF(lower!C10=0, "", lower!C10)</f>
+        <f>IF(lower!C10="", "", lower!C10)</f>
         <v/>
       </c>
       <c r="D10" s="66" t="str">
-        <f>IF(lower!D10=0, "", lower!D10)</f>
+        <f>IF(lower!D10="", "", lower!D10)</f>
         <v/>
       </c>
       <c r="E10" s="66" t="str">
-        <f>IF(lower!E10=0, "", lower!E10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="63" t="str">
-        <f>IF(lower!F10=0, "", lower!F10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="63" t="str">
-        <f>IF(lower!$A10=0, "", lower!G10)</f>
+        <f>IF(lower!E10="", "", lower!E10)</f>
+        <v/>
+      </c>
+      <c r="F10" s="66" t="str">
+        <f>IF(lower!F10="", "", lower!F10)</f>
+        <v/>
+      </c>
+      <c r="G10" s="66" t="str">
+        <f>IF(lower!G10="", "", lower!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="str">
-        <f>IF(lower!A11=0, "", lower!A11)</f>
+        <f>IF(lower!A11="", "", lower!A11)</f>
         <v/>
       </c>
       <c r="B11" s="66" t="str">
-        <f>IF(lower!B11=0, "", lower!B11)</f>
+        <f>IF(lower!B11="", "", lower!B11)</f>
         <v/>
       </c>
       <c r="C11" s="66" t="str">
-        <f>IF(lower!C11=0, "", lower!C11)</f>
+        <f>IF(lower!C11="", "", lower!C11)</f>
         <v/>
       </c>
       <c r="D11" s="66" t="str">
-        <f>IF(lower!D11=0, "", lower!D11)</f>
+        <f>IF(lower!D11="", "", lower!D11)</f>
         <v/>
       </c>
       <c r="E11" s="66" t="str">
-        <f>IF(lower!E11=0, "", lower!E11)</f>
-        <v/>
-      </c>
-      <c r="F11" s="63" t="str">
-        <f>IF(lower!F11=0, "", lower!F11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="63" t="str">
-        <f>IF(lower!$A11=0, "", lower!G11)</f>
+        <f>IF(lower!E11="", "", lower!E11)</f>
+        <v/>
+      </c>
+      <c r="F11" s="66" t="str">
+        <f>IF(lower!F11="", "", lower!F11)</f>
+        <v/>
+      </c>
+      <c r="G11" s="66" t="str">
+        <f>IF(lower!G11="", "", lower!G11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="str">
-        <f>IF(lower!A12=0, "", lower!A12)</f>
+        <f>IF(lower!A12="", "", lower!A12)</f>
         <v/>
       </c>
       <c r="B12" s="66" t="str">
-        <f>IF(lower!B12=0, "", lower!B12)</f>
+        <f>IF(lower!B12="", "", lower!B12)</f>
         <v/>
       </c>
       <c r="C12" s="66" t="str">
-        <f>IF(lower!C12=0, "", lower!C12)</f>
+        <f>IF(lower!C12="", "", lower!C12)</f>
         <v/>
       </c>
       <c r="D12" s="66" t="str">
-        <f>IF(lower!D12=0, "", lower!D12)</f>
+        <f>IF(lower!D12="", "", lower!D12)</f>
         <v/>
       </c>
       <c r="E12" s="66" t="str">
-        <f>IF(lower!E12=0, "", lower!E12)</f>
-        <v/>
-      </c>
-      <c r="F12" s="63" t="str">
-        <f>IF(lower!F12=0, "", lower!F12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="63" t="str">
-        <f>IF(lower!$A12=0, "", lower!G12)</f>
+        <f>IF(lower!E12="", "", lower!E12)</f>
+        <v/>
+      </c>
+      <c r="F12" s="66" t="str">
+        <f>IF(lower!F12="", "", lower!F12)</f>
+        <v/>
+      </c>
+      <c r="G12" s="66" t="str">
+        <f>IF(lower!G12="", "", lower!G12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="str">
-        <f>IF(lower!A13=0, "", lower!A13)</f>
+        <f>IF(lower!A13="", "", lower!A13)</f>
         <v/>
       </c>
       <c r="B13" s="66" t="str">
-        <f>IF(lower!B13=0, "", lower!B13)</f>
+        <f>IF(lower!B13="", "", lower!B13)</f>
         <v/>
       </c>
       <c r="C13" s="66" t="str">
-        <f>IF(lower!C13=0, "", lower!C13)</f>
+        <f>IF(lower!C13="", "", lower!C13)</f>
         <v/>
       </c>
       <c r="D13" s="66" t="str">
-        <f>IF(lower!D13=0, "", lower!D13)</f>
+        <f>IF(lower!D13="", "", lower!D13)</f>
         <v/>
       </c>
       <c r="E13" s="66" t="str">
-        <f>IF(lower!E13=0, "", lower!E13)</f>
-        <v/>
-      </c>
-      <c r="F13" s="63" t="str">
-        <f>IF(lower!F13=0, "", lower!F13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="63" t="str">
-        <f>IF(lower!$A13=0, "", lower!G13)</f>
+        <f>IF(lower!E13="", "", lower!E13)</f>
+        <v/>
+      </c>
+      <c r="F13" s="66" t="str">
+        <f>IF(lower!F13="", "", lower!F13)</f>
+        <v/>
+      </c>
+      <c r="G13" s="66" t="str">
+        <f>IF(lower!G13="", "", lower!G13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="str">
-        <f>IF(lower!A14=0, "", lower!A14)</f>
+        <f>IF(lower!A14="", "", lower!A14)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B14" s="66">
-        <f>IF(lower!B14=0, "", lower!B14)</f>
+        <f>IF(lower!B14="", "", lower!B14)</f>
         <v>9</v>
       </c>
       <c r="C14" s="66">
-        <f>IF(lower!C14=0, "", lower!C14)</f>
+        <f>IF(lower!C14="", "", lower!C14)</f>
         <v>-28.12733176437591</v>
       </c>
       <c r="D14" s="66">
-        <f>IF(lower!D14=0, "", lower!D14)</f>
+        <f>IF(lower!D14="", "", lower!D14)</f>
         <v>100.60254037844379</v>
       </c>
       <c r="E14" s="66">
-        <f>IF(lower!E14=0, "", lower!E14)</f>
+        <f>IF(lower!E14="", "", lower!E14)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F14" s="63">
-        <f>IF(lower!F14=0, "", lower!F14)</f>
+      <c r="F14" s="66">
+        <f>IF(lower!F14="", "", lower!F14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="63">
-        <f>IF(lower!$A14=0, "", lower!G14)</f>
+      <c r="G14" s="66">
+        <f>IF(lower!G14="", "", lower!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="str">
-        <f>IF(lower!A15=0, "", lower!A15)</f>
+        <f>IF(lower!A15="", "", lower!A15)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B15" s="66">
-        <f>IF(lower!B15=0, "", lower!B15)</f>
+        <f>IF(lower!B15="", "", lower!B15)</f>
         <v>6</v>
       </c>
       <c r="C15" s="66">
-        <f>IF(lower!C15=0, "", lower!C15)</f>
+        <f>IF(lower!C15="", "", lower!C15)</f>
         <v>-18.889727457341905</v>
       </c>
       <c r="D15" s="66">
-        <f>IF(lower!D15=0, "", lower!D15)</f>
+        <f>IF(lower!D15="", "", lower!D15)</f>
         <v>116.60254037844379</v>
       </c>
       <c r="E15" s="66">
-        <f>IF(lower!E15=0, "", lower!E15)</f>
+        <f>IF(lower!E15="", "", lower!E15)</f>
         <v>-30</v>
       </c>
-      <c r="F15" s="63">
-        <f>IF(lower!F15=0, "", lower!F15)</f>
+      <c r="F15" s="66">
+        <f>IF(lower!F15="", "", lower!F15)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="63">
-        <f>IF(lower!$A15=0, "", lower!G15)</f>
+      <c r="G15" s="66">
+        <f>IF(lower!G15="", "", lower!G15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="str">
-        <f>IF(lower!A16=0, "", lower!A16)</f>
+        <f>IF(lower!A16="", "", lower!A16)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B16" s="66">
-        <f>IF(lower!B16=0, "", lower!B16)</f>
+        <f>IF(lower!B16="", "", lower!B16)</f>
         <v>7</v>
       </c>
       <c r="C16" s="66">
-        <f>IF(lower!C16=0, "", lower!C16)</f>
+        <f>IF(lower!C16="", "", lower!C16)</f>
         <v>-28.127331764375924</v>
       </c>
       <c r="D16" s="66">
-        <f>IF(lower!D16=0, "", lower!D16)</f>
+        <f>IF(lower!D16="", "", lower!D16)</f>
         <v>132.60254037844373</v>
       </c>
       <c r="E16" s="66">
-        <f>IF(lower!E16=0, "", lower!E16)</f>
+        <f>IF(lower!E16="", "", lower!E16)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F16" s="63">
-        <f>IF(lower!F16=0, "", lower!F16)</f>
+      <c r="F16" s="66">
+        <f>IF(lower!F16="", "", lower!F16)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="63">
-        <f>IF(lower!$A16=0, "", lower!G16)</f>
+      <c r="G16" s="66">
+        <f>IF(lower!G16="", "", lower!G16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="str">
-        <f>IF(lower!A17=0, "", lower!A17)</f>
+        <f>IF(lower!A17="", "", lower!A17)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B17" s="66">
-        <f>IF(lower!B17=0, "", lower!B17)</f>
+        <f>IF(lower!B17="", "", lower!B17)</f>
         <v>3</v>
       </c>
       <c r="C17" s="66">
-        <f>IF(lower!C17=0, "", lower!C17)</f>
+        <f>IF(lower!C17="", "", lower!C17)</f>
         <v>-0.41451884327389621</v>
       </c>
       <c r="D17" s="66">
-        <f>IF(lower!D17=0, "", lower!D17)</f>
+        <f>IF(lower!D17="", "", lower!D17)</f>
         <v>116.60254037844376</v>
       </c>
       <c r="E17" s="66">
-        <f>IF(lower!E17=0, "", lower!E17)</f>
+        <f>IF(lower!E17="", "", lower!E17)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F17" s="63">
-        <f>IF(lower!F17=0, "", lower!F17)</f>
+      <c r="F17" s="66">
+        <f>IF(lower!F17="", "", lower!F17)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="63">
-        <f>IF(lower!$A17=0, "", lower!G17)</f>
+      <c r="G17" s="66">
+        <f>IF(lower!G17="", "", lower!G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="str">
-        <f>IF(lower!A18=0, "", lower!A18)</f>
+        <f>IF(lower!A18="", "", lower!A18)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B18" s="66">
-        <f>IF(lower!B18=0, "", lower!B18)</f>
+        <f>IF(lower!B18="", "", lower!B18)</f>
         <v>4</v>
       </c>
       <c r="C18" s="66">
-        <f>IF(lower!C18=0, "", lower!C18)</f>
+        <f>IF(lower!C18="", "", lower!C18)</f>
         <v>8.8230854637601368</v>
       </c>
       <c r="D18" s="66">
-        <f>IF(lower!D18=0, "", lower!D18)</f>
+        <f>IF(lower!D18="", "", lower!D18)</f>
         <v>100.60254037844379</v>
       </c>
       <c r="E18" s="66">
-        <f>IF(lower!E18=0, "", lower!E18)</f>
+        <f>IF(lower!E18="", "", lower!E18)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F18" s="63">
-        <f>IF(lower!F18=0, "", lower!F18)</f>
+      <c r="F18" s="66">
+        <f>IF(lower!F18="", "", lower!F18)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="63">
-        <f>IF(lower!$A18=0, "", lower!G18)</f>
+      <c r="G18" s="66">
+        <f>IF(lower!G18="", "", lower!G18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="str">
-        <f>IF(lower!A19=0, "", lower!A19)</f>
+        <f>IF(lower!A19="", "", lower!A19)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B19" s="66">
-        <f>IF(lower!B19=0, "", lower!B19)</f>
+        <f>IF(lower!B19="", "", lower!B19)</f>
         <v>10</v>
       </c>
       <c r="C19" s="66">
-        <f>IF(lower!C19=0, "", lower!C19)</f>
+        <f>IF(lower!C19="", "", lower!C19)</f>
         <v>-18.889727457341891</v>
       </c>
       <c r="D19" s="66">
-        <f>IF(lower!D19=0, "", lower!D19)</f>
+        <f>IF(lower!D19="", "", lower!D19)</f>
         <v>84.60254037844382</v>
       </c>
       <c r="E19" s="66">
-        <f>IF(lower!E19=0, "", lower!E19)</f>
+        <f>IF(lower!E19="", "", lower!E19)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F19" s="63">
-        <f>IF(lower!F19=0, "", lower!F19)</f>
+      <c r="F19" s="66">
+        <f>IF(lower!F19="", "", lower!F19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="63">
-        <f>IF(lower!$A19=0, "", lower!G19)</f>
+      <c r="G19" s="66">
+        <f>IF(lower!G19="", "", lower!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="str">
-        <f>IF(lower!A20=0, "", lower!A20)</f>
+        <f>IF(lower!A20="", "", lower!A20)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B20" s="66">
-        <f>IF(lower!B20=0, "", lower!B20)</f>
+        <f>IF(lower!B20="", "", lower!B20)</f>
         <v>5</v>
       </c>
       <c r="C20" s="66">
-        <f>IF(lower!C20=0, "", lower!C20)</f>
+        <f>IF(lower!C20="", "", lower!C20)</f>
         <v>-0.41451884327386779</v>
       </c>
       <c r="D20" s="66">
-        <f>IF(lower!D20=0, "", lower!D20)</f>
+        <f>IF(lower!D20="", "", lower!D20)</f>
         <v>84.602540378443791</v>
       </c>
       <c r="E20" s="66">
-        <f>IF(lower!E20=0, "", lower!E20)</f>
+        <f>IF(lower!E20="", "", lower!E20)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F20" s="63">
-        <f>IF(lower!F20=0, "", lower!F20)</f>
+      <c r="F20" s="66">
+        <f>IF(lower!F20="", "", lower!F20)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="63">
-        <f>IF(lower!$A20=0, "", lower!G20)</f>
+      <c r="G20" s="66">
+        <f>IF(lower!G20="", "", lower!G20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="str">
-        <f>IF(lower!A21=0, "", lower!A21)</f>
+        <f>IF(lower!A21="", "", lower!A21)</f>
         <v/>
       </c>
       <c r="B21" s="66" t="str">
-        <f>IF(lower!B21=0, "", lower!B21)</f>
+        <f>IF(lower!B21="", "", lower!B21)</f>
         <v/>
       </c>
       <c r="C21" s="66" t="str">
-        <f>IF(lower!C21=0, "", lower!C21)</f>
+        <f>IF(lower!C21="", "", lower!C21)</f>
         <v/>
       </c>
       <c r="D21" s="66" t="str">
-        <f>IF(lower!D21=0, "", lower!D21)</f>
+        <f>IF(lower!D21="", "", lower!D21)</f>
         <v/>
       </c>
       <c r="E21" s="66" t="str">
-        <f>IF(lower!E21=0, "", lower!E21)</f>
-        <v/>
-      </c>
-      <c r="F21" s="63" t="str">
-        <f>IF(lower!F21=0, "", lower!F21)</f>
-        <v/>
-      </c>
-      <c r="G21" s="63" t="str">
-        <f>IF(lower!$A21=0, "", lower!G21)</f>
+        <f>IF(lower!E21="", "", lower!E21)</f>
+        <v/>
+      </c>
+      <c r="F21" s="66" t="str">
+        <f>IF(lower!F21="", "", lower!F21)</f>
+        <v/>
+      </c>
+      <c r="G21" s="66" t="str">
+        <f>IF(lower!G21="", "", lower!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="str">
-        <f>IF(lower!A22=0, "", lower!A22)</f>
+        <f>IF(lower!A22="", "", lower!A22)</f>
         <v/>
       </c>
       <c r="B22" s="66" t="str">
-        <f>IF(lower!B22=0, "", lower!B22)</f>
+        <f>IF(lower!B22="", "", lower!B22)</f>
         <v/>
       </c>
       <c r="C22" s="66" t="str">
-        <f>IF(lower!C22=0, "", lower!C22)</f>
+        <f>IF(lower!C22="", "", lower!C22)</f>
         <v/>
       </c>
       <c r="D22" s="66" t="str">
-        <f>IF(lower!D22=0, "", lower!D22)</f>
+        <f>IF(lower!D22="", "", lower!D22)</f>
         <v/>
       </c>
       <c r="E22" s="66" t="str">
-        <f>IF(lower!E22=0, "", lower!E22)</f>
-        <v/>
-      </c>
-      <c r="F22" s="63" t="str">
-        <f>IF(lower!F22=0, "", lower!F22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="63" t="str">
-        <f>IF(lower!$A22=0, "", lower!G22)</f>
+        <f>IF(lower!E22="", "", lower!E22)</f>
+        <v/>
+      </c>
+      <c r="F22" s="66" t="str">
+        <f>IF(lower!F22="", "", lower!F22)</f>
+        <v/>
+      </c>
+      <c r="G22" s="66" t="str">
+        <f>IF(lower!G22="", "", lower!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="str">
-        <f>IF(lower!A23=0, "", lower!A23)</f>
+        <f>IF(lower!A23="", "", lower!A23)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B23" s="66">
-        <f>IF(lower!B23=0, "", lower!B23)</f>
+        <f>IF(lower!B23="", "", lower!B23)</f>
         <v>11</v>
       </c>
       <c r="C23" s="66">
-        <f>IF(lower!C23=0, "", lower!C23)</f>
+        <f>IF(lower!C23="", "", lower!C23)</f>
         <v>-28.127331764375896</v>
       </c>
       <c r="D23" s="66">
-        <f>IF(lower!D23=0, "", lower!D23)</f>
+        <f>IF(lower!D23="", "", lower!D23)</f>
         <v>68.60254037844382</v>
       </c>
       <c r="E23" s="66">
-        <f>IF(lower!E23=0, "", lower!E23)</f>
+        <f>IF(lower!E23="", "", lower!E23)</f>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F23" s="63">
-        <f>IF(lower!F23=0, "", lower!F23)</f>
+      <c r="F23" s="66">
+        <f>IF(lower!F23="", "", lower!F23)</f>
         <v>4</v>
       </c>
-      <c r="G23" s="63">
-        <f>IF(lower!$A23=0, "", lower!G23)</f>
+      <c r="G23" s="66">
+        <f>IF(lower!G23="", "", lower!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="str">
-        <f>IF(lower!A24=0, "", lower!A24)</f>
+        <f>IF(lower!A24="", "", lower!A24)</f>
         <v/>
       </c>
       <c r="B24" s="66" t="str">
-        <f>IF(lower!B24=0, "", lower!B24)</f>
+        <f>IF(lower!B24="", "", lower!B24)</f>
         <v/>
       </c>
       <c r="C24" s="66" t="str">
-        <f>IF(lower!C24=0, "", lower!C24)</f>
+        <f>IF(lower!C24="", "", lower!C24)</f>
         <v/>
       </c>
       <c r="D24" s="66" t="str">
-        <f>IF(lower!D24=0, "", lower!D24)</f>
+        <f>IF(lower!D24="", "", lower!D24)</f>
         <v/>
       </c>
       <c r="E24" s="66" t="str">
-        <f>IF(lower!E24=0, "", lower!E24)</f>
-        <v/>
-      </c>
-      <c r="F24" s="63" t="str">
-        <f>IF(lower!F24=0, "", lower!F24)</f>
-        <v/>
-      </c>
-      <c r="G24" s="63" t="str">
-        <f>IF(lower!$A24=0, "", lower!G24)</f>
+        <f>IF(lower!E24="", "", lower!E24)</f>
+        <v/>
+      </c>
+      <c r="F24" s="66" t="str">
+        <f>IF(lower!F24="", "", lower!F24)</f>
+        <v/>
+      </c>
+      <c r="G24" s="66" t="str">
+        <f>IF(lower!G24="", "", lower!G24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="str">
-        <f>IF(lower!A25=0, "", lower!A25)</f>
+        <f>IF(lower!A25="", "", lower!A25)</f>
         <v/>
       </c>
       <c r="B25" s="66" t="str">
-        <f>IF(lower!B25=0, "", lower!B25)</f>
+        <f>IF(lower!B25="", "", lower!B25)</f>
         <v/>
       </c>
       <c r="C25" s="66" t="str">
-        <f>IF(lower!C25=0, "", lower!C25)</f>
+        <f>IF(lower!C25="", "", lower!C25)</f>
         <v/>
       </c>
       <c r="D25" s="66" t="str">
-        <f>IF(lower!D25=0, "", lower!D25)</f>
+        <f>IF(lower!D25="", "", lower!D25)</f>
         <v/>
       </c>
       <c r="E25" s="66" t="str">
-        <f>IF(lower!E25=0, "", lower!E25)</f>
-        <v/>
-      </c>
-      <c r="F25" s="63" t="str">
-        <f>IF(lower!F25=0, "", lower!F25)</f>
-        <v/>
-      </c>
-      <c r="G25" s="63" t="str">
-        <f>IF(lower!$A25=0, "", lower!G25)</f>
+        <f>IF(lower!E25="", "", lower!E25)</f>
+        <v/>
+      </c>
+      <c r="F25" s="66" t="str">
+        <f>IF(lower!F25="", "", lower!F25)</f>
+        <v/>
+      </c>
+      <c r="G25" s="66" t="str">
+        <f>IF(lower!G25="", "", lower!G25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="str">
-        <f>IF(internal!A3=0, "", internal!A3)</f>
+        <f>IF(internal!A3="", "", internal!A3)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B26" s="67">
-        <f>IF(internal!B3=0, "", internal!B3)</f>
+        <f>IF(internal!B3="", "", internal!B3)</f>
         <v>32</v>
       </c>
       <c r="C26" s="67">
-        <f>IF(internal!C3=0, "", internal!C3)</f>
-        <v>63.397459621556152</v>
+        <f>IF(internal!C3="", "", internal!C3)</f>
+        <v>106.60254037844385</v>
       </c>
       <c r="D26" s="67">
-        <f>IF(internal!D3=0, "", internal!D3)</f>
+        <f>IF(internal!D3="", "", internal!D3)</f>
         <v>183.39745962155612</v>
       </c>
       <c r="E26" s="67">
-        <f>IF(internal!E3=0, "", internal!E3)</f>
-        <v>90.000280611543147</v>
-      </c>
-      <c r="F26" s="62">
-        <f>IF(internal!F3=0, "", internal!F3)</f>
+        <f>IF(internal!E3="", "", internal!E3)</f>
+        <v>-329.99971938845687</v>
+      </c>
+      <c r="F26" s="67">
+        <f>IF(internal!F3="", "", internal!F3)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="62">
-        <f>IF(internal!A3=0, "", internal!G3)</f>
-        <v>0</v>
+      <c r="G26" s="67">
+        <f>IF(internal!G3="", "", internal!G3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="str">
-        <f>IF(internal!A4=0, "", internal!A4)</f>
+        <f>IF(internal!A4="", "", internal!A4)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B27" s="67">
-        <f>IF(internal!B4=0, "", internal!B4)</f>
+        <f>IF(internal!B4="", "", internal!B4)</f>
         <v>33</v>
       </c>
       <c r="C27" s="67">
-        <f>IF(internal!C4=0, "", internal!C4)</f>
-        <v>54.15985531452214</v>
+        <f>IF(internal!C4="", "", internal!C4)</f>
+        <v>115.84014468547787</v>
       </c>
       <c r="D27" s="67">
-        <f>IF(internal!D4=0, "", internal!D4)</f>
+        <f>IF(internal!D4="", "", internal!D4)</f>
         <v>167.39745962155615</v>
       </c>
       <c r="E27" s="67">
-        <f>IF(internal!E4=0, "", internal!E4)</f>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F27" s="62">
-        <f>IF(internal!F4=0, "", internal!F4)</f>
+        <f>IF(internal!E4="", "", internal!E4)</f>
+        <v>-269.99985969422841</v>
+      </c>
+      <c r="F27" s="67">
+        <f>IF(internal!F4="", "", internal!F4)</f>
         <v>4</v>
       </c>
-      <c r="G27" s="62">
-        <f>IF(internal!A4=0, "", internal!G4)</f>
-        <v>0</v>
+      <c r="G27" s="67">
+        <f>IF(internal!G4="", "", internal!G4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="str">
-        <f>IF(internal!A5=0, "", internal!A5)</f>
+        <f>IF(internal!A5="", "", internal!A5)</f>
         <v/>
       </c>
       <c r="B28" s="67" t="str">
-        <f>IF(internal!B5=0, "", internal!B5)</f>
+        <f>IF(internal!B5="", "", internal!B5)</f>
         <v/>
       </c>
       <c r="C28" s="67" t="str">
-        <f>IF(internal!C5=0, "", internal!C5)</f>
+        <f>IF(internal!C5="", "", internal!C5)</f>
         <v/>
       </c>
       <c r="D28" s="67" t="str">
-        <f>IF(internal!D5=0, "", internal!D5)</f>
-        <v/>
-      </c>
-      <c r="E28" s="67" t="str">
-        <f>IF(internal!E5=0, "", internal!E5)</f>
-        <v/>
-      </c>
-      <c r="F28" s="62" t="str">
-        <f>IF(internal!F5=0, "", internal!F5)</f>
-        <v/>
-      </c>
-      <c r="G28" s="62" t="str">
-        <f>IF(internal!A5=0, "", internal!G5)</f>
+        <f>IF(internal!D5="", "", internal!D5)</f>
+        <v/>
+      </c>
+      <c r="E28" s="67">
+        <f>IF(internal!E5="", "", internal!E5)</f>
+        <v>-329.99971938845687</v>
+      </c>
+      <c r="F28" s="67" t="str">
+        <f>IF(internal!F5="", "", internal!F5)</f>
+        <v/>
+      </c>
+      <c r="G28" s="67" t="str">
+        <f>IF(internal!G5="", "", internal!G5)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="str">
-        <f>IF(internal!A6=0, "", internal!A6)</f>
+        <f>IF(internal!A6="", "", internal!A6)</f>
         <v/>
       </c>
       <c r="B29" s="67" t="str">
-        <f>IF(internal!B6=0, "", internal!B6)</f>
+        <f>IF(internal!B6="", "", internal!B6)</f>
         <v/>
       </c>
       <c r="C29" s="67" t="str">
-        <f>IF(internal!C6=0, "", internal!C6)</f>
+        <f>IF(internal!C6="", "", internal!C6)</f>
         <v/>
       </c>
       <c r="D29" s="67" t="str">
-        <f>IF(internal!D6=0, "", internal!D6)</f>
-        <v/>
-      </c>
-      <c r="E29" s="67" t="str">
-        <f>IF(internal!E6=0, "", internal!E6)</f>
-        <v/>
-      </c>
-      <c r="F29" s="62" t="str">
-        <f>IF(internal!F6=0, "", internal!F6)</f>
-        <v/>
-      </c>
-      <c r="G29" s="62" t="str">
-        <f>IF(internal!A6=0, "", internal!G6)</f>
+        <f>IF(internal!D6="", "", internal!D6)</f>
+        <v/>
+      </c>
+      <c r="E29" s="67">
+        <f>IF(internal!E6="", "", internal!E6)</f>
+        <v>-269.99985969422841</v>
+      </c>
+      <c r="F29" s="67" t="str">
+        <f>IF(internal!F6="", "", internal!F6)</f>
+        <v/>
+      </c>
+      <c r="G29" s="67" t="str">
+        <f>IF(internal!G6="", "", internal!G6)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="str">
-        <f>IF(internal!A7=0, "", internal!A7)</f>
+        <f>IF(internal!A7="", "", internal!A7)</f>
         <v/>
       </c>
       <c r="B30" s="67" t="str">
-        <f>IF(internal!B7=0, "", internal!B7)</f>
+        <f>IF(internal!B7="", "", internal!B7)</f>
         <v/>
       </c>
       <c r="C30" s="67" t="str">
-        <f>IF(internal!C7=0, "", internal!C7)</f>
+        <f>IF(internal!C7="", "", internal!C7)</f>
         <v/>
       </c>
       <c r="D30" s="67" t="str">
-        <f>IF(internal!D7=0, "", internal!D7)</f>
-        <v/>
-      </c>
-      <c r="E30" s="67" t="str">
-        <f>IF(internal!E7=0, "", internal!E7)</f>
-        <v/>
-      </c>
-      <c r="F30" s="62" t="str">
-        <f>IF(internal!F7=0, "", internal!F7)</f>
-        <v/>
-      </c>
-      <c r="G30" s="62" t="str">
-        <f>IF(internal!A7=0, "", internal!G7)</f>
+        <f>IF(internal!D7="", "", internal!D7)</f>
+        <v/>
+      </c>
+      <c r="E30" s="67">
+        <f>IF(internal!E7="", "", internal!E7)</f>
+        <v>-210</v>
+      </c>
+      <c r="F30" s="67" t="str">
+        <f>IF(internal!F7="", "", internal!F7)</f>
+        <v/>
+      </c>
+      <c r="G30" s="67" t="str">
+        <f>IF(internal!G7="", "", internal!G7)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="str">
-        <f>IF(internal!A8=0, "", internal!A8)</f>
+        <f>IF(internal!A8="", "", internal!A8)</f>
         <v/>
       </c>
       <c r="B31" s="67" t="str">
-        <f>IF(internal!B8=0, "", internal!B8)</f>
+        <f>IF(internal!B8="", "", internal!B8)</f>
         <v/>
       </c>
       <c r="C31" s="67" t="str">
-        <f>IF(internal!C8=0, "", internal!C8)</f>
+        <f>IF(internal!C8="", "", internal!C8)</f>
         <v/>
       </c>
       <c r="D31" s="67" t="str">
-        <f>IF(internal!D8=0, "", internal!D8)</f>
-        <v/>
-      </c>
-      <c r="E31" s="67" t="str">
-        <f>IF(internal!E8=0, "", internal!E8)</f>
-        <v/>
-      </c>
-      <c r="F31" s="62" t="str">
-        <f>IF(internal!F8=0, "", internal!F8)</f>
-        <v/>
-      </c>
-      <c r="G31" s="62" t="str">
-        <f>IF(internal!A8=0, "", internal!G8)</f>
+        <f>IF(internal!D8="", "", internal!D8)</f>
+        <v/>
+      </c>
+      <c r="E31" s="67">
+        <f>IF(internal!E8="", "", internal!E8)</f>
+        <v>-269.99985969422841</v>
+      </c>
+      <c r="F31" s="67" t="str">
+        <f>IF(internal!F8="", "", internal!F8)</f>
+        <v/>
+      </c>
+      <c r="G31" s="67" t="str">
+        <f>IF(internal!G8="", "", internal!G8)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="str">
-        <f>IF(internal!A9=0, "", internal!A9)</f>
+        <f>IF(internal!A9="", "", internal!A9)</f>
         <v/>
       </c>
       <c r="B32" s="67" t="str">
-        <f>IF(internal!B9=0, "", internal!B9)</f>
+        <f>IF(internal!B9="", "", internal!B9)</f>
         <v/>
       </c>
       <c r="C32" s="67" t="str">
-        <f>IF(internal!C9=0, "", internal!C9)</f>
+        <f>IF(internal!C9="", "", internal!C9)</f>
         <v/>
       </c>
       <c r="D32" s="67" t="str">
-        <f>IF(internal!D9=0, "", internal!D9)</f>
-        <v/>
-      </c>
-      <c r="E32" s="67" t="str">
-        <f>IF(internal!E9=0, "", internal!E9)</f>
-        <v/>
-      </c>
-      <c r="F32" s="62" t="str">
-        <f>IF(internal!F9=0, "", internal!F9)</f>
-        <v/>
-      </c>
-      <c r="G32" s="62" t="str">
-        <f>IF(internal!A9=0, "", internal!G9)</f>
+        <f>IF(internal!D9="", "", internal!D9)</f>
+        <v/>
+      </c>
+      <c r="E32" s="67">
+        <f>IF(internal!E9="", "", internal!E9)</f>
+        <v>-210</v>
+      </c>
+      <c r="F32" s="67" t="str">
+        <f>IF(internal!F9="", "", internal!F9)</f>
+        <v/>
+      </c>
+      <c r="G32" s="67" t="str">
+        <f>IF(internal!G9="", "", internal!G9)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="str">
-        <f>IF(internal!A10=0, "", internal!A10)</f>
+        <f>IF(internal!A10="", "", internal!A10)</f>
         <v/>
       </c>
       <c r="B33" s="67" t="str">
-        <f>IF(internal!B10=0, "", internal!B10)</f>
+        <f>IF(internal!B10="", "", internal!B10)</f>
         <v/>
       </c>
       <c r="C33" s="67" t="str">
-        <f>IF(internal!C10=0, "", internal!C10)</f>
+        <f>IF(internal!C10="", "", internal!C10)</f>
         <v/>
       </c>
       <c r="D33" s="67" t="str">
-        <f>IF(internal!D10=0, "", internal!D10)</f>
-        <v/>
-      </c>
-      <c r="E33" s="67" t="str">
-        <f>IF(internal!E10=0, "", internal!E10)</f>
-        <v/>
-      </c>
-      <c r="F33" s="62" t="str">
-        <f>IF(internal!F10=0, "", internal!F10)</f>
-        <v/>
-      </c>
-      <c r="G33" s="62" t="str">
-        <f>IF(internal!A10=0, "", internal!G10)</f>
+        <f>IF(internal!D10="", "", internal!D10)</f>
+        <v/>
+      </c>
+      <c r="E33" s="67">
+        <f>IF(internal!E10="", "", internal!E10)</f>
+        <v>-150.00014030577157</v>
+      </c>
+      <c r="F33" s="67" t="str">
+        <f>IF(internal!F10="", "", internal!F10)</f>
+        <v/>
+      </c>
+      <c r="G33" s="67" t="str">
+        <f>IF(internal!G10="", "", internal!G10)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="str">
-        <f>IF(internal!A11=0, "", internal!A11)</f>
+        <f>IF(internal!A11="", "", internal!A11)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B34" s="67">
-        <f>IF(internal!B11=0, "", internal!B11)</f>
+        <f>IF(internal!B11="", "", internal!B11)</f>
         <v>44</v>
       </c>
       <c r="C34" s="67">
-        <f>IF(internal!C11=0, "", internal!C11)</f>
-        <v>63.397459621556138</v>
+        <f>IF(internal!C11="", "", internal!C11)</f>
+        <v>106.60254037844386</v>
       </c>
       <c r="D34" s="67">
-        <f>IF(internal!D11=0, "", internal!D11)</f>
+        <f>IF(internal!D11="", "", internal!D11)</f>
         <v>151.39745962155615</v>
       </c>
       <c r="E34" s="67">
-        <f>IF(internal!E11=0, "", internal!E11)</f>
-        <v>210</v>
-      </c>
-      <c r="F34" s="62">
-        <f>IF(internal!F11=0, "", internal!F11)</f>
+        <f>IF(internal!E11="", "", internal!E11)</f>
+        <v>-210</v>
+      </c>
+      <c r="F34" s="67">
+        <f>IF(internal!F11="", "", internal!F11)</f>
         <v>4</v>
       </c>
-      <c r="G34" s="62">
-        <f>IF(internal!A11=0, "", internal!G11)</f>
-        <v>0</v>
+      <c r="G34" s="67">
+        <f>IF(internal!G11="", "", internal!G11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="str">
-        <f>IF(internal!A12=0, "", internal!A12)</f>
+        <f>IF(internal!A12="", "", internal!A12)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B35" s="67">
-        <f>IF(internal!B12=0, "", internal!B12)</f>
+        <f>IF(internal!B12="", "", internal!B12)</f>
         <v>45</v>
       </c>
       <c r="C35" s="67">
-        <f>IF(internal!C12=0, "", internal!C12)</f>
-        <v>54.159855314522119</v>
+        <f>IF(internal!C12="", "", internal!C12)</f>
+        <v>115.84014468547788</v>
       </c>
       <c r="D35" s="67">
-        <f>IF(internal!D12=0, "", internal!D12)</f>
+        <f>IF(internal!D12="", "", internal!D12)</f>
         <v>135.39745962155618</v>
       </c>
       <c r="E35" s="67">
-        <f>IF(internal!E12=0, "", internal!E12)</f>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F35" s="62">
-        <f>IF(internal!F12=0, "", internal!F12)</f>
+        <f>IF(internal!E12="", "", internal!E12)</f>
+        <v>-269.99985969422841</v>
+      </c>
+      <c r="F35" s="67">
+        <f>IF(internal!F12="", "", internal!F12)</f>
         <v>4</v>
       </c>
-      <c r="G35" s="62">
-        <f>IF(internal!A12=0, "", internal!G12)</f>
-        <v>0</v>
+      <c r="G35" s="67">
+        <f>IF(internal!G12="", "", internal!G12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="str">
-        <f>IF(internal!A13=0, "", internal!A13)</f>
+        <f>IF(internal!A13="", "", internal!A13)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B36" s="67">
-        <f>IF(internal!B13=0, "", internal!B13)</f>
+        <f>IF(internal!B13="", "", internal!B13)</f>
         <v>40</v>
       </c>
       <c r="C36" s="67">
-        <f>IF(internal!C13=0, "", internal!C13)</f>
-        <v>63.397459621556123</v>
+        <f>IF(internal!C13="", "", internal!C13)</f>
+        <v>106.60254037844388</v>
       </c>
       <c r="D36" s="67">
-        <f>IF(internal!D13=0, "", internal!D13)</f>
+        <f>IF(internal!D13="", "", internal!D13)</f>
         <v>119.39745962155621</v>
       </c>
       <c r="E36" s="67">
-        <f>IF(internal!E13=0, "", internal!E13)</f>
-        <v>210</v>
-      </c>
-      <c r="F36" s="62">
-        <f>IF(internal!F13=0, "", internal!F13)</f>
+        <f>IF(internal!E13="", "", internal!E13)</f>
+        <v>-210</v>
+      </c>
+      <c r="F36" s="67">
+        <f>IF(internal!F13="", "", internal!F13)</f>
         <v>4</v>
       </c>
-      <c r="G36" s="62">
-        <f>IF(internal!A13=0, "", internal!G13)</f>
-        <v>0</v>
+      <c r="G36" s="67">
+        <f>IF(internal!G13="", "", internal!G13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="str">
-        <f>IF(internal!A14=0, "", internal!A14)</f>
+        <f>IF(internal!A14="", "", internal!A14)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B37" s="67">
-        <f>IF(internal!B14=0, "", internal!B14)</f>
+        <f>IF(internal!B14="", "", internal!B14)</f>
         <v>41</v>
       </c>
       <c r="C37" s="67">
-        <f>IF(internal!C14=0, "", internal!C14)</f>
-        <v>81.872668235624133</v>
+        <f>IF(internal!C14="", "", internal!C14)</f>
+        <v>88.127331764375867</v>
       </c>
       <c r="D37" s="67">
-        <f>IF(internal!D14=0, "", internal!D14)</f>
+        <f>IF(internal!D14="", "", internal!D14)</f>
         <v>119.39745962155621</v>
       </c>
       <c r="E37" s="67">
-        <f>IF(internal!E14=0, "", internal!E14)</f>
-        <v>269.99985969422841</v>
-      </c>
-      <c r="F37" s="62">
-        <f>IF(internal!F14=0, "", internal!F14)</f>
+        <f>IF(internal!E14="", "", internal!E14)</f>
+        <v>-150.00014030577157</v>
+      </c>
+      <c r="F37" s="67">
+        <f>IF(internal!F14="", "", internal!F14)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="62">
-        <f>IF(internal!A14=0, "", internal!G14)</f>
-        <v>0</v>
+      <c r="G37" s="67">
+        <f>IF(internal!G14="", "", internal!G14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="str">
-        <f>IF(internal!A15=0, "", internal!A15)</f>
+        <f>IF(internal!A15="", "", internal!A15)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B38" s="67">
-        <f>IF(internal!B15=0, "", internal!B15)</f>
+        <f>IF(internal!B15="", "", internal!B15)</f>
         <v>38</v>
       </c>
       <c r="C38" s="67">
-        <f>IF(internal!C15=0, "", internal!C15)</f>
-        <v>91.110272542658137</v>
+        <f>IF(internal!C15="", "", internal!C15)</f>
+        <v>78.889727457341863</v>
       </c>
       <c r="D38" s="67">
-        <f>IF(internal!D15=0, "", internal!D15)</f>
+        <f>IF(internal!D15="", "", internal!D15)</f>
         <v>103.39745962155621</v>
       </c>
       <c r="E38" s="67">
-        <f>IF(internal!E15=0, "", internal!E15)</f>
-        <v>210</v>
-      </c>
-      <c r="F38" s="62">
-        <f>IF(internal!F15=0, "", internal!F15)</f>
+        <f>IF(internal!E15="", "", internal!E15)</f>
+        <v>-210</v>
+      </c>
+      <c r="F38" s="67">
+        <f>IF(internal!F15="", "", internal!F15)</f>
         <v>4</v>
       </c>
-      <c r="G38" s="62">
-        <f>IF(internal!A15=0, "", internal!G15)</f>
-        <v>0</v>
+      <c r="G38" s="67">
+        <f>IF(internal!G15="", "", internal!G15)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="str">
-        <f>IF(internal!A16=0, "", internal!A16)</f>
+        <f>IF(internal!A16="", "", internal!A16)</f>
         <v/>
       </c>
       <c r="B39" s="67" t="str">
-        <f>IF(internal!B16=0, "", internal!B16)</f>
+        <f>IF(internal!B16="", "", internal!B16)</f>
         <v/>
       </c>
       <c r="C39" s="67" t="str">
-        <f>IF(internal!C16=0, "", internal!C16)</f>
+        <f>IF(internal!C16="", "", internal!C16)</f>
         <v/>
       </c>
       <c r="D39" s="67" t="str">
-        <f>IF(internal!D16=0, "", internal!D16)</f>
-        <v/>
-      </c>
-      <c r="E39" s="67" t="str">
-        <f>IF(internal!E16=0, "", internal!E16)</f>
-        <v/>
-      </c>
-      <c r="F39" s="62" t="str">
-        <f>IF(internal!F16=0, "", internal!F16)</f>
-        <v/>
-      </c>
-      <c r="G39" s="62" t="str">
-        <f>IF(internal!A16=0, "", internal!G16)</f>
+        <f>IF(internal!D16="", "", internal!D16)</f>
+        <v/>
+      </c>
+      <c r="E39" s="67">
+        <f>IF(internal!E16="", "", internal!E16)</f>
+        <v>-269.99985969422841</v>
+      </c>
+      <c r="F39" s="67" t="str">
+        <f>IF(internal!F16="", "", internal!F16)</f>
+        <v/>
+      </c>
+      <c r="G39" s="67" t="str">
+        <f>IF(internal!G16="", "", internal!G16)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="str">
-        <f>IF(internal!A17=0, "", internal!A17)</f>
+        <f>IF(internal!A17="", "", internal!A17)</f>
         <v/>
       </c>
       <c r="B40" s="67" t="str">
-        <f>IF(internal!B17=0, "", internal!B17)</f>
+        <f>IF(internal!B17="", "", internal!B17)</f>
         <v/>
       </c>
       <c r="C40" s="67" t="str">
-        <f>IF(internal!C17=0, "", internal!C17)</f>
+        <f>IF(internal!C17="", "", internal!C17)</f>
         <v/>
       </c>
       <c r="D40" s="67" t="str">
-        <f>IF(internal!D17=0, "", internal!D17)</f>
-        <v/>
-      </c>
-      <c r="E40" s="67" t="str">
-        <f>IF(internal!E17=0, "", internal!E17)</f>
-        <v/>
-      </c>
-      <c r="F40" s="62" t="str">
-        <f>IF(internal!F17=0, "", internal!F17)</f>
-        <v/>
-      </c>
-      <c r="G40" s="62" t="str">
-        <f>IF(internal!A17=0, "", internal!G17)</f>
+        <f>IF(internal!D17="", "", internal!D17)</f>
+        <v/>
+      </c>
+      <c r="E40" s="67">
+        <f>IF(internal!E17="", "", internal!E17)</f>
+        <v>-150.00014030577157</v>
+      </c>
+      <c r="F40" s="67" t="str">
+        <f>IF(internal!F17="", "", internal!F17)</f>
+        <v/>
+      </c>
+      <c r="G40" s="67" t="str">
+        <f>IF(internal!G17="", "", internal!G17)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="str">
-        <f>IF(internal!A18=0, "", internal!A18)</f>
+        <f>IF(internal!A18="", "", internal!A18)</f>
         <v/>
       </c>
       <c r="B41" s="67" t="str">
-        <f>IF(internal!B18=0, "", internal!B18)</f>
+        <f>IF(internal!B18="", "", internal!B18)</f>
         <v/>
       </c>
       <c r="C41" s="67" t="str">
-        <f>IF(internal!C18=0, "", internal!C18)</f>
+        <f>IF(internal!C18="", "", internal!C18)</f>
         <v/>
       </c>
       <c r="D41" s="67" t="str">
-        <f>IF(internal!D18=0, "", internal!D18)</f>
-        <v/>
-      </c>
-      <c r="E41" s="67" t="str">
-        <f>IF(internal!E18=0, "", internal!E18)</f>
-        <v/>
-      </c>
-      <c r="F41" s="62" t="str">
-        <f>IF(internal!F18=0, "", internal!F18)</f>
-        <v/>
-      </c>
-      <c r="G41" s="62" t="str">
-        <f>IF(internal!A18=0, "", internal!G18)</f>
+        <f>IF(internal!D18="", "", internal!D18)</f>
+        <v/>
+      </c>
+      <c r="E41" s="67">
+        <f>IF(internal!E18="", "", internal!E18)</f>
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F41" s="67" t="str">
+        <f>IF(internal!F18="", "", internal!F18)</f>
+        <v/>
+      </c>
+      <c r="G41" s="67" t="str">
+        <f>IF(internal!G18="", "", internal!G18)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="str">
-        <f>IF(internal!A19=0, "", internal!A19)</f>
+        <f>IF(internal!A19="", "", internal!A19)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B42" s="67">
-        <f>IF(internal!B19=0, "", internal!B19)</f>
+        <f>IF(internal!B19="", "", internal!B19)</f>
         <v>42</v>
       </c>
       <c r="C42" s="67">
-        <f>IF(internal!C19=0, "", internal!C19)</f>
-        <v>91.110272542658151</v>
+        <f>IF(internal!C19="", "", internal!C19)</f>
+        <v>78.889727457341849</v>
       </c>
       <c r="D42" s="67">
-        <f>IF(internal!D19=0, "", internal!D19)</f>
+        <f>IF(internal!D19="", "", internal!D19)</f>
         <v>135.39745962155621</v>
       </c>
       <c r="E42" s="67">
-        <f>IF(internal!E19=0, "", internal!E19)</f>
-        <v>329.99971938845687</v>
-      </c>
-      <c r="F42" s="62">
-        <f>IF(internal!F19=0, "", internal!F19)</f>
+        <f>IF(internal!E19="", "", internal!E19)</f>
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F42" s="67">
+        <f>IF(internal!F19="", "", internal!F19)</f>
         <v>4</v>
       </c>
-      <c r="G42" s="62">
-        <f>IF(internal!A19=0, "", internal!G19)</f>
-        <v>0</v>
+      <c r="G42" s="67">
+        <f>IF(internal!G19="", "", internal!G19)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="str">
-        <f>IF(internal!A20=0, "", internal!A20)</f>
+        <f>IF(internal!A20="", "", internal!A20)</f>
         <v/>
       </c>
       <c r="B43" s="67" t="str">
-        <f>IF(internal!B20=0, "", internal!B20)</f>
+        <f>IF(internal!B20="", "", internal!B20)</f>
         <v/>
       </c>
       <c r="C43" s="67" t="str">
-        <f>IF(internal!C20=0, "", internal!C20)</f>
+        <f>IF(internal!C20="", "", internal!C20)</f>
         <v/>
       </c>
       <c r="D43" s="67" t="str">
-        <f>IF(internal!D20=0, "", internal!D20)</f>
-        <v/>
-      </c>
-      <c r="E43" s="67" t="str">
-        <f>IF(internal!E20=0, "", internal!E20)</f>
-        <v/>
-      </c>
-      <c r="F43" s="62" t="str">
-        <f>IF(internal!F20=0, "", internal!F20)</f>
-        <v/>
-      </c>
-      <c r="G43" s="62" t="str">
-        <f>IF(internal!A20=0, "", internal!G20)</f>
+        <f>IF(internal!D20="", "", internal!D20)</f>
+        <v/>
+      </c>
+      <c r="E43" s="67">
+        <f>IF(internal!E20="", "", internal!E20)</f>
+        <v>-150.00014030577157</v>
+      </c>
+      <c r="F43" s="67" t="str">
+        <f>IF(internal!F20="", "", internal!F20)</f>
+        <v/>
+      </c>
+      <c r="G43" s="67" t="str">
+        <f>IF(internal!G20="", "", internal!G20)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="str">
-        <f>IF(internal!A21=0, "", internal!A21)</f>
+        <f>IF(internal!A21="", "", internal!A21)</f>
         <v/>
       </c>
       <c r="B44" s="67" t="str">
-        <f>IF(internal!B21=0, "", internal!B21)</f>
+        <f>IF(internal!B21="", "", internal!B21)</f>
         <v/>
       </c>
       <c r="C44" s="67" t="str">
-        <f>IF(internal!C21=0, "", internal!C21)</f>
+        <f>IF(internal!C21="", "", internal!C21)</f>
         <v/>
       </c>
       <c r="D44" s="67" t="str">
-        <f>IF(internal!D21=0, "", internal!D21)</f>
-        <v/>
-      </c>
-      <c r="E44" s="67" t="str">
-        <f>IF(internal!E21=0, "", internal!E21)</f>
-        <v/>
-      </c>
-      <c r="F44" s="62" t="str">
-        <f>IF(internal!F21=0, "", internal!F21)</f>
-        <v/>
-      </c>
-      <c r="G44" s="62" t="str">
-        <f>IF(internal!A21=0, "", internal!G21)</f>
+        <f>IF(internal!D21="", "", internal!D21)</f>
+        <v/>
+      </c>
+      <c r="E44" s="67">
+        <f>IF(internal!E21="", "", internal!E21)</f>
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F44" s="67" t="str">
+        <f>IF(internal!F21="", "", internal!F21)</f>
+        <v/>
+      </c>
+      <c r="G44" s="67" t="str">
+        <f>IF(internal!G21="", "", internal!G21)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="str">
-        <f>IF(internal!A22=0, "", internal!A22)</f>
+        <f>IF(internal!A22="", "", internal!A22)</f>
         <v/>
       </c>
       <c r="B45" s="67" t="str">
-        <f>IF(internal!B22=0, "", internal!B22)</f>
+        <f>IF(internal!B22="", "", internal!B22)</f>
         <v/>
       </c>
       <c r="C45" s="67" t="str">
-        <f>IF(internal!C22=0, "", internal!C22)</f>
+        <f>IF(internal!C22="", "", internal!C22)</f>
         <v/>
       </c>
       <c r="D45" s="67" t="str">
-        <f>IF(internal!D22=0, "", internal!D22)</f>
-        <v/>
-      </c>
-      <c r="E45" s="67" t="str">
-        <f>IF(internal!E22=0, "", internal!E22)</f>
-        <v/>
-      </c>
-      <c r="F45" s="62" t="str">
-        <f>IF(internal!F22=0, "", internal!F22)</f>
-        <v/>
-      </c>
-      <c r="G45" s="62" t="str">
-        <f>IF(internal!A22=0, "", internal!G22)</f>
+        <f>IF(internal!D22="", "", internal!D22)</f>
+        <v/>
+      </c>
+      <c r="E45" s="67">
+        <f>IF(internal!E22="", "", internal!E22)</f>
+        <v>-30.000420917315324</v>
+      </c>
+      <c r="F45" s="67" t="str">
+        <f>IF(internal!F22="", "", internal!F22)</f>
+        <v/>
+      </c>
+      <c r="G45" s="67" t="str">
+        <f>IF(internal!G22="", "", internal!G22)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="str">
-        <f>IF(internal!A23=0, "", internal!A23)</f>
+        <f>IF(internal!A23="", "", internal!A23)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B46" s="67">
-        <f>IF(internal!B23=0, "", internal!B23)</f>
+        <f>IF(internal!B23="", "", internal!B23)</f>
         <v>43</v>
       </c>
       <c r="C46" s="67">
-        <f>IF(internal!C23=0, "", internal!C23)</f>
-        <v>81.872668235624147</v>
+        <f>IF(internal!C23="", "", internal!C23)</f>
+        <v>88.127331764375853</v>
       </c>
       <c r="D46" s="67">
-        <f>IF(internal!D23=0, "", internal!D23)</f>
+        <f>IF(internal!D23="", "", internal!D23)</f>
         <v>151.39745962155618</v>
       </c>
       <c r="E46" s="67">
-        <f>IF(internal!E23=0, "", internal!E23)</f>
-        <v>389.9995790826847</v>
-      </c>
-      <c r="F46" s="62">
-        <f>IF(internal!F23=0, "", internal!F23)</f>
+        <f>IF(internal!E23="", "", internal!E23)</f>
+        <v>-30.000420917315324</v>
+      </c>
+      <c r="F46" s="67">
+        <f>IF(internal!F23="", "", internal!F23)</f>
         <v>4</v>
       </c>
-      <c r="G46" s="62">
-        <f>IF(internal!A23=0, "", internal!G23)</f>
-        <v>0</v>
+      <c r="G46" s="67">
+        <f>IF(internal!G23="", "", internal!G23)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="str">
-        <f>IF(internal!A24=0, "", internal!A24)</f>
+        <f>IF(internal!A24="", "", internal!A24)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B47" s="67">
-        <f>IF(internal!B24=0, "", internal!B24)</f>
+        <f>IF(internal!B24="", "", internal!B24)</f>
         <v>46</v>
       </c>
       <c r="C47" s="67">
-        <f>IF(internal!C24=0, "", internal!C24)</f>
-        <v>91.110272542658166</v>
+        <f>IF(internal!C24="", "", internal!C24)</f>
+        <v>78.889727457341834</v>
       </c>
       <c r="D47" s="67">
-        <f>IF(internal!D24=0, "", internal!D24)</f>
+        <f>IF(internal!D24="", "", internal!D24)</f>
         <v>167.39745962155618</v>
       </c>
       <c r="E47" s="67">
-        <f>IF(internal!E24=0, "", internal!E24)</f>
-        <v>329.99971938845687</v>
-      </c>
-      <c r="F47" s="62">
-        <f>IF(internal!F24=0, "", internal!F24)</f>
+        <f>IF(internal!E24="", "", internal!E24)</f>
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F47" s="67">
+        <f>IF(internal!F24="", "", internal!F24)</f>
         <v>4</v>
       </c>
-      <c r="G47" s="62">
-        <f>IF(internal!A24=0, "", internal!G24)</f>
-        <v>0</v>
+      <c r="G47" s="67">
+        <f>IF(internal!G24="", "", internal!G24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="str">
-        <f>IF(internal!A25=0, "", internal!A25)</f>
+        <f>IF(internal!A25="", "", internal!A25)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B48" s="67">
-        <f>IF(internal!B25=0, "", internal!B25)</f>
+        <f>IF(internal!B25="", "", internal!B25)</f>
         <v>47</v>
       </c>
       <c r="C48" s="67">
-        <f>IF(internal!C25=0, "", internal!C25)</f>
-        <v>81.872668235624161</v>
+        <f>IF(internal!C25="", "", internal!C25)</f>
+        <v>88.127331764375839</v>
       </c>
       <c r="D48" s="67">
-        <f>IF(internal!D25=0, "", internal!D25)</f>
+        <f>IF(internal!D25="", "", internal!D25)</f>
         <v>183.39745962155615</v>
       </c>
       <c r="E48" s="67">
-        <f>IF(internal!E25=0, "", internal!E25)</f>
-        <v>389.9995790826847</v>
-      </c>
-      <c r="F48" s="62">
-        <f>IF(internal!F25=0, "", internal!F25)</f>
+        <f>IF(internal!E25="", "", internal!E25)</f>
+        <v>-30.000420917315324</v>
+      </c>
+      <c r="F48" s="67">
+        <f>IF(internal!F25="", "", internal!F25)</f>
         <v>4</v>
       </c>
-      <c r="G48" s="62">
-        <f>IF(internal!A25=0, "", internal!G25)</f>
-        <v>0</v>
+      <c r="G48" s="67">
+        <f>IF(internal!G25="", "", internal!G25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="str">
-        <f>IF(external!A3=0, "", external!A3)</f>
+        <f>IF(external!A3="", "", external!A3)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B49" s="68">
-        <f>IF(external!B3=0, "", external!B3)</f>
+        <f>IF(external!B3="", "", external!B3)</f>
         <v>16</v>
       </c>
       <c r="C49" s="68">
-        <f>IF(external!C3=0, "", external!C3)</f>
-        <v>-113.39745962155612</v>
+        <f>IF(external!C3="", "", external!C3)</f>
+        <v>-106.60254037844388</v>
       </c>
       <c r="D49" s="68">
-        <f>IF(external!D3=0, "", external!D3)</f>
-        <v>106.60254037844388</v>
+        <f>IF(external!D3="", "", external!D3)</f>
+        <v>103.60254037844388</v>
       </c>
       <c r="E49" s="68">
-        <f>IF(external!E3=0, "", external!E3)</f>
-        <v>-89.999719388456853</v>
-      </c>
-      <c r="F49" s="61">
-        <f>IF(external!F3=0, "", external!F3)</f>
+        <f>IF(external!E3="", "", external!E3)</f>
+        <v>-149.99971938845687</v>
+      </c>
+      <c r="F49" s="68">
+        <f>IF(external!F3="", "", external!F3)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="61">
-        <f>IF(external!A3=0, "", external!G3)</f>
-        <v>0</v>
+      <c r="G49" s="68">
+        <f>IF(external!G3="", "", external!G3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="str">
-        <f>IF(external!A4=0, "", external!A4)</f>
+        <f>IF(external!A4="", "", external!A4)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B50" s="68">
-        <f>IF(external!B4=0, "", external!B4)</f>
+        <f>IF(external!B4="", "", external!B4)</f>
         <v>17</v>
       </c>
       <c r="C50" s="68">
-        <f>IF(external!C4=0, "", external!C4)</f>
-        <v>-104.1598553145221</v>
+        <f>IF(external!C4="", "", external!C4)</f>
+        <v>-115.8401446854779</v>
       </c>
       <c r="D50" s="68">
-        <f>IF(external!D4=0, "", external!D4)</f>
-        <v>122.60254037844385</v>
+        <f>IF(external!D4="", "", external!D4)</f>
+        <v>119.60254037844385</v>
       </c>
       <c r="E50" s="68">
-        <f>IF(external!E4=0, "", external!E4)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F50" s="61">
-        <f>IF(external!F4=0, "", external!F4)</f>
+        <f>IF(external!E4="", "", external!E4)</f>
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F50" s="68">
+        <f>IF(external!F4="", "", external!F4)</f>
         <v>4</v>
       </c>
-      <c r="G50" s="61">
-        <f>IF(external!A4=0, "", external!G4)</f>
-        <v>0</v>
+      <c r="G50" s="68">
+        <f>IF(external!G4="", "", external!G4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="str">
-        <f>IF(external!A5=0, "", external!A5)</f>
+        <f>IF(external!A5="", "", external!A5)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B51" s="68">
-        <f>IF(external!B5=0, "", external!B5)</f>
+        <f>IF(external!B5="", "", external!B5)</f>
         <v>18</v>
       </c>
       <c r="C51" s="68">
-        <f>IF(external!C5=0, "", external!C5)</f>
-        <v>-85.684646700454095</v>
+        <f>IF(external!C5="", "", external!C5)</f>
+        <v>-134.3153532995459</v>
       </c>
       <c r="D51" s="68">
-        <f>IF(external!D5=0, "", external!D5)</f>
-        <v>122.60254037844385</v>
+        <f>IF(external!D5="", "", external!D5)</f>
+        <v>119.60254037844385</v>
       </c>
       <c r="E51" s="68">
-        <f>IF(external!E5=0, "", external!E5)</f>
-        <v>-89.999719388456853</v>
-      </c>
-      <c r="F51" s="61">
-        <f>IF(external!F5=0, "", external!F5)</f>
+        <f>IF(external!E5="", "", external!E5)</f>
+        <v>-149.99971938845687</v>
+      </c>
+      <c r="F51" s="68">
+        <f>IF(external!F5="", "", external!F5)</f>
         <v>4</v>
       </c>
-      <c r="G51" s="61">
-        <f>IF(external!A5=0, "", external!G5)</f>
-        <v>0</v>
+      <c r="G51" s="68">
+        <f>IF(external!G5="", "", external!G5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="str">
-        <f>IF(external!A6=0, "", external!A6)</f>
+        <f>IF(external!A6="", "", external!A6)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B52" s="68">
-        <f>IF(external!B6=0, "", external!B6)</f>
+        <f>IF(external!B6="", "", external!B6)</f>
         <v>19</v>
       </c>
       <c r="C52" s="68">
-        <f>IF(external!C6=0, "", external!C6)</f>
-        <v>-76.447042393420062</v>
+        <f>IF(external!C6="", "", external!C6)</f>
+        <v>-143.55295760657992</v>
       </c>
       <c r="D52" s="68">
-        <f>IF(external!D6=0, "", external!D6)</f>
-        <v>138.60254037844385</v>
+        <f>IF(external!D6="", "", external!D6)</f>
+        <v>135.60254037844385</v>
       </c>
       <c r="E52" s="68">
-        <f>IF(external!E6=0, "", external!E6)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F52" s="61">
-        <f>IF(external!F6=0, "", external!F6)</f>
+        <f>IF(external!E6="", "", external!E6)</f>
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F52" s="68">
+        <f>IF(external!F6="", "", external!F6)</f>
         <v>4</v>
       </c>
-      <c r="G52" s="61">
-        <f>IF(external!A6=0, "", external!G6)</f>
-        <v>0</v>
+      <c r="G52" s="68">
+        <f>IF(external!G6="", "", external!G6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="str">
-        <f>IF(external!A7=0, "", external!A7)</f>
+        <f>IF(external!A7="", "", external!A7)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B53" s="68">
-        <f>IF(external!B7=0, "", external!B7)</f>
+        <f>IF(external!B7="", "", external!B7)</f>
         <v>20</v>
       </c>
       <c r="C53" s="68">
-        <f>IF(external!C7=0, "", external!C7)</f>
-        <v>-85.684646700454067</v>
+        <f>IF(external!C7="", "", external!C7)</f>
+        <v>-134.31535329954593</v>
       </c>
       <c r="D53" s="68">
-        <f>IF(external!D7=0, "", external!D7)</f>
-        <v>154.60254037844382</v>
+        <f>IF(external!D7="", "", external!D7)</f>
+        <v>151.60254037844382</v>
       </c>
       <c r="E53" s="68">
-        <f>IF(external!E7=0, "", external!E7)</f>
-        <v>30</v>
-      </c>
-      <c r="F53" s="61">
-        <f>IF(external!F7=0, "", external!F7)</f>
+        <f>IF(external!E7="", "", external!E7)</f>
+        <v>-30</v>
+      </c>
+      <c r="F53" s="68">
+        <f>IF(external!F7="", "", external!F7)</f>
         <v>4</v>
       </c>
-      <c r="G53" s="61">
-        <f>IF(external!A7=0, "", external!G7)</f>
-        <v>0</v>
+      <c r="G53" s="68">
+        <f>IF(external!G7="", "", external!G7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="str">
-        <f>IF(external!A8=0, "", external!A8)</f>
+        <f>IF(external!A8="", "", external!A8)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B54" s="68">
-        <f>IF(external!B8=0, "", external!B8)</f>
+        <f>IF(external!B8="", "", external!B8)</f>
         <v>21</v>
       </c>
       <c r="C54" s="68">
-        <f>IF(external!C8=0, "", external!C8)</f>
-        <v>-76.44704239342002</v>
+        <f>IF(external!C8="", "", external!C8)</f>
+        <v>-143.55295760657998</v>
       </c>
       <c r="D54" s="68">
-        <f>IF(external!D8=0, "", external!D8)</f>
-        <v>170.60254037844379</v>
+        <f>IF(external!D8="", "", external!D8)</f>
+        <v>167.60254037844379</v>
       </c>
       <c r="E54" s="68">
-        <f>IF(external!E8=0, "", external!E8)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F54" s="61">
-        <f>IF(external!F8=0, "", external!F8)</f>
+        <f>IF(external!E8="", "", external!E8)</f>
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F54" s="68">
+        <f>IF(external!F8="", "", external!F8)</f>
         <v>4</v>
       </c>
-      <c r="G54" s="61">
-        <f>IF(external!A8=0, "", external!G8)</f>
-        <v>0</v>
+      <c r="G54" s="68">
+        <f>IF(external!G8="", "", external!G8)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="str">
-        <f>IF(external!A9=0, "", external!A9)</f>
+        <f>IF(external!A9="", "", external!A9)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B55" s="68">
-        <f>IF(external!B9=0, "", external!B9)</f>
+        <f>IF(external!B9="", "", external!B9)</f>
         <v>22</v>
       </c>
       <c r="C55" s="68">
-        <f>IF(external!C9=0, "", external!C9)</f>
-        <v>-85.684646700454024</v>
+        <f>IF(external!C9="", "", external!C9)</f>
+        <v>-134.31535329954596</v>
       </c>
       <c r="D55" s="68">
-        <f>IF(external!D9=0, "", external!D9)</f>
-        <v>186.60254037844379</v>
+        <f>IF(external!D9="", "", external!D9)</f>
+        <v>183.60254037844379</v>
       </c>
       <c r="E55" s="68">
-        <f>IF(external!E9=0, "", external!E9)</f>
-        <v>30</v>
-      </c>
-      <c r="F55" s="61">
-        <f>IF(external!F9=0, "", external!F9)</f>
+        <f>IF(external!E9="", "", external!E9)</f>
+        <v>-30</v>
+      </c>
+      <c r="F55" s="68">
+        <f>IF(external!F9="", "", external!F9)</f>
         <v>4</v>
       </c>
-      <c r="G55" s="61">
-        <f>IF(external!A9=0, "", external!G9)</f>
-        <v>0</v>
+      <c r="G55" s="68">
+        <f>IF(external!G9="", "", external!G9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="str">
-        <f>IF(external!A10=0, "", external!A10)</f>
+        <f>IF(external!A10="", "", external!A10)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B56" s="68">
-        <f>IF(external!B10=0, "", external!B10)</f>
+        <f>IF(external!B10="", "", external!B10)</f>
         <v>23</v>
       </c>
       <c r="C56" s="68">
-        <f>IF(external!C10=0, "", external!C10)</f>
-        <v>-104.15985531452205</v>
+        <f>IF(external!C10="", "", external!C10)</f>
+        <v>-115.84014468547795</v>
       </c>
       <c r="D56" s="68">
-        <f>IF(external!D10=0, "", external!D10)</f>
-        <v>186.60254037844379</v>
+        <f>IF(external!D10="", "", external!D10)</f>
+        <v>183.60254037844379</v>
       </c>
       <c r="E56" s="68">
-        <f>IF(external!E10=0, "", external!E10)</f>
-        <v>89.999859694228434</v>
-      </c>
-      <c r="F56" s="61">
-        <f>IF(external!F10=0, "", external!F10)</f>
+        <f>IF(external!E10="", "", external!E10)</f>
+        <v>29.999859694228427</v>
+      </c>
+      <c r="F56" s="68">
+        <f>IF(external!F10="", "", external!F10)</f>
         <v>4</v>
       </c>
-      <c r="G56" s="61">
-        <f>IF(external!A10=0, "", external!G10)</f>
-        <v>0</v>
+      <c r="G56" s="68">
+        <f>IF(external!G10="", "", external!G10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="str">
-        <f>IF(external!A11=0, "", external!A11)</f>
+        <f>IF(external!A11="", "", external!A11)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B57" s="68">
-        <f>IF(external!B11=0, "", external!B11)</f>
+        <f>IF(external!B11="", "", external!B11)</f>
         <v>28</v>
       </c>
       <c r="C57" s="68">
-        <f>IF(external!C11=0, "", external!C11)</f>
-        <v>-113.3974596215561</v>
+        <f>IF(external!C11="", "", external!C11)</f>
+        <v>-106.6025403784439</v>
       </c>
       <c r="D57" s="68">
-        <f>IF(external!D11=0, "", external!D11)</f>
-        <v>138.60254037844382</v>
+        <f>IF(external!D11="", "", external!D11)</f>
+        <v>135.60254037844382</v>
       </c>
       <c r="E57" s="68">
-        <f>IF(external!E11=0, "", external!E11)</f>
-        <v>30</v>
-      </c>
-      <c r="F57" s="61">
-        <f>IF(external!F11=0, "", external!F11)</f>
+        <f>IF(external!E11="", "", external!E11)</f>
+        <v>-30</v>
+      </c>
+      <c r="F57" s="68">
+        <f>IF(external!F11="", "", external!F11)</f>
         <v>4</v>
       </c>
-      <c r="G57" s="61">
-        <f>IF(external!A11=0, "", external!G11)</f>
-        <v>0</v>
+      <c r="G57" s="68">
+        <f>IF(external!G11="", "", external!G11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="str">
-        <f>IF(external!A12=0, "", external!A12)</f>
+        <f>IF(external!A12="", "", external!A12)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B58" s="68">
-        <f>IF(external!B12=0, "", external!B12)</f>
+        <f>IF(external!B12="", "", external!B12)</f>
         <v>29</v>
       </c>
       <c r="C58" s="68">
-        <f>IF(external!C12=0, "", external!C12)</f>
-        <v>-104.15985531452208</v>
+        <f>IF(external!C12="", "", external!C12)</f>
+        <v>-115.84014468547792</v>
       </c>
       <c r="D58" s="68">
-        <f>IF(external!D12=0, "", external!D12)</f>
-        <v>154.60254037844379</v>
+        <f>IF(external!D12="", "", external!D12)</f>
+        <v>151.60254037844379</v>
       </c>
       <c r="E58" s="68">
-        <f>IF(external!E12=0, "", external!E12)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F58" s="61">
-        <f>IF(external!F12=0, "", external!F12)</f>
+        <f>IF(external!E12="", "", external!E12)</f>
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F58" s="68">
+        <f>IF(external!F12="", "", external!F12)</f>
         <v>4</v>
       </c>
-      <c r="G58" s="61">
-        <f>IF(external!A12=0, "", external!G12)</f>
-        <v>0</v>
+      <c r="G58" s="68">
+        <f>IF(external!G12="", "", external!G12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="str">
-        <f>IF(external!A13=0, "", external!A13)</f>
+        <f>IF(external!A13="", "", external!A13)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B59" s="68">
-        <f>IF(external!B13=0, "", external!B13)</f>
+        <f>IF(external!B13="", "", external!B13)</f>
         <v>24</v>
       </c>
       <c r="C59" s="68">
-        <f>IF(external!C13=0, "", external!C13)</f>
-        <v>-113.39745962155608</v>
+        <f>IF(external!C13="", "", external!C13)</f>
+        <v>-106.60254037844392</v>
       </c>
       <c r="D59" s="68">
-        <f>IF(external!D13=0, "", external!D13)</f>
-        <v>170.60254037844379</v>
+        <f>IF(external!D13="", "", external!D13)</f>
+        <v>167.60254037844379</v>
       </c>
       <c r="E59" s="68">
-        <f>IF(external!E13=0, "", external!E13)</f>
-        <v>30</v>
-      </c>
-      <c r="F59" s="61">
-        <f>IF(external!F13=0, "", external!F13)</f>
+        <f>IF(external!E13="", "", external!E13)</f>
+        <v>-30</v>
+      </c>
+      <c r="F59" s="68">
+        <f>IF(external!F13="", "", external!F13)</f>
         <v>4</v>
       </c>
-      <c r="G59" s="61">
-        <f>IF(external!A13=0, "", external!G13)</f>
-        <v>0</v>
+      <c r="G59" s="68">
+        <f>IF(external!G13="", "", external!G13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="str">
-        <f>IF(external!A14=0, "", external!A14)</f>
+        <f>IF(external!A14="", "", external!A14)</f>
         <v/>
       </c>
       <c r="B60" s="68" t="str">
-        <f>IF(external!B14=0, "", external!B14)</f>
+        <f>IF(external!B14="", "", external!B14)</f>
         <v/>
       </c>
       <c r="C60" s="68" t="str">
-        <f>IF(external!C14=0, "", external!C14)</f>
+        <f>IF(external!C14="", "", external!C14)</f>
         <v/>
       </c>
       <c r="D60" s="68" t="str">
-        <f>IF(external!D14=0, "", external!D14)</f>
+        <f>IF(external!D14="", "", external!D14)</f>
         <v/>
       </c>
       <c r="E60" s="68" t="str">
-        <f>IF(external!E14=0, "", external!E14)</f>
-        <v/>
-      </c>
-      <c r="F60" s="61" t="str">
-        <f>IF(external!F14=0, "", external!F14)</f>
-        <v/>
-      </c>
-      <c r="G60" s="61" t="str">
-        <f>IF(external!A14=0, "", external!G14)</f>
+        <f>IF(external!E14="", "", external!E14)</f>
+        <v/>
+      </c>
+      <c r="F60" s="68" t="str">
+        <f>IF(external!F14="", "", external!F14)</f>
+        <v/>
+      </c>
+      <c r="G60" s="68" t="str">
+        <f>IF(external!G14="", "", external!G14)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="str">
-        <f>IF(external!A15=0, "", external!A15)</f>
+        <f>IF(external!A15="", "", external!A15)</f>
         <v/>
       </c>
       <c r="B61" s="68" t="str">
-        <f>IF(external!B15=0, "", external!B15)</f>
+        <f>IF(external!B15="", "", external!B15)</f>
         <v/>
       </c>
       <c r="C61" s="68" t="str">
-        <f>IF(external!C15=0, "", external!C15)</f>
+        <f>IF(external!C15="", "", external!C15)</f>
         <v/>
       </c>
       <c r="D61" s="68" t="str">
-        <f>IF(external!D15=0, "", external!D15)</f>
+        <f>IF(external!D15="", "", external!D15)</f>
         <v/>
       </c>
       <c r="E61" s="68" t="str">
-        <f>IF(external!E15=0, "", external!E15)</f>
-        <v/>
-      </c>
-      <c r="F61" s="61" t="str">
-        <f>IF(external!F15=0, "", external!F15)</f>
-        <v/>
-      </c>
-      <c r="G61" s="61" t="str">
-        <f>IF(external!A15=0, "", external!G15)</f>
+        <f>IF(external!E15="", "", external!E15)</f>
+        <v/>
+      </c>
+      <c r="F61" s="68" t="str">
+        <f>IF(external!F15="", "", external!F15)</f>
+        <v/>
+      </c>
+      <c r="G61" s="68" t="str">
+        <f>IF(external!G15="", "", external!G15)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="str">
-        <f>IF(external!A16=0, "", external!A16)</f>
+        <f>IF(external!A16="", "", external!A16)</f>
         <v/>
       </c>
       <c r="B62" s="68" t="str">
-        <f>IF(external!B16=0, "", external!B16)</f>
+        <f>IF(external!B16="", "", external!B16)</f>
         <v/>
       </c>
       <c r="C62" s="68" t="str">
-        <f>IF(external!C16=0, "", external!C16)</f>
+        <f>IF(external!C16="", "", external!C16)</f>
         <v/>
       </c>
       <c r="D62" s="68" t="str">
-        <f>IF(external!D16=0, "", external!D16)</f>
+        <f>IF(external!D16="", "", external!D16)</f>
         <v/>
       </c>
       <c r="E62" s="68" t="str">
-        <f>IF(external!E16=0, "", external!E16)</f>
-        <v/>
-      </c>
-      <c r="F62" s="61" t="str">
-        <f>IF(external!F16=0, "", external!F16)</f>
-        <v/>
-      </c>
-      <c r="G62" s="61" t="str">
-        <f>IF(external!A16=0, "", external!G16)</f>
+        <f>IF(external!E16="", "", external!E16)</f>
+        <v/>
+      </c>
+      <c r="F62" s="68" t="str">
+        <f>IF(external!F16="", "", external!F16)</f>
+        <v/>
+      </c>
+      <c r="G62" s="68" t="str">
+        <f>IF(external!G16="", "", external!G16)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="str">
-        <f>IF(external!A17=0, "", external!A17)</f>
+        <f>IF(external!A17="", "", external!A17)</f>
         <v/>
       </c>
       <c r="B63" s="68" t="str">
-        <f>IF(external!B17=0, "", external!B17)</f>
+        <f>IF(external!B17="", "", external!B17)</f>
         <v/>
       </c>
       <c r="C63" s="68" t="str">
-        <f>IF(external!C17=0, "", external!C17)</f>
+        <f>IF(external!C17="", "", external!C17)</f>
         <v/>
       </c>
       <c r="D63" s="68" t="str">
-        <f>IF(external!D17=0, "", external!D17)</f>
+        <f>IF(external!D17="", "", external!D17)</f>
         <v/>
       </c>
       <c r="E63" s="68" t="str">
-        <f>IF(external!E17=0, "", external!E17)</f>
-        <v/>
-      </c>
-      <c r="F63" s="61" t="str">
-        <f>IF(external!F17=0, "", external!F17)</f>
-        <v/>
-      </c>
-      <c r="G63" s="61" t="str">
-        <f>IF(external!A17=0, "", external!G17)</f>
+        <f>IF(external!E17="", "", external!E17)</f>
+        <v/>
+      </c>
+      <c r="F63" s="68" t="str">
+        <f>IF(external!F17="", "", external!F17)</f>
+        <v/>
+      </c>
+      <c r="G63" s="68" t="str">
+        <f>IF(external!G17="", "", external!G17)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="str">
-        <f>IF(external!A18=0, "", external!A18)</f>
+        <f>IF(external!A18="", "", external!A18)</f>
         <v/>
       </c>
       <c r="B64" s="68" t="str">
-        <f>IF(external!B18=0, "", external!B18)</f>
+        <f>IF(external!B18="", "", external!B18)</f>
         <v/>
       </c>
       <c r="C64" s="68" t="str">
-        <f>IF(external!C18=0, "", external!C18)</f>
+        <f>IF(external!C18="", "", external!C18)</f>
         <v/>
       </c>
       <c r="D64" s="68" t="str">
-        <f>IF(external!D18=0, "", external!D18)</f>
+        <f>IF(external!D18="", "", external!D18)</f>
         <v/>
       </c>
       <c r="E64" s="68" t="str">
-        <f>IF(external!E18=0, "", external!E18)</f>
-        <v/>
-      </c>
-      <c r="F64" s="61" t="str">
-        <f>IF(external!F18=0, "", external!F18)</f>
-        <v/>
-      </c>
-      <c r="G64" s="61" t="str">
-        <f>IF(external!A18=0, "", external!G18)</f>
+        <f>IF(external!E18="", "", external!E18)</f>
+        <v/>
+      </c>
+      <c r="F64" s="68" t="str">
+        <f>IF(external!F18="", "", external!F18)</f>
+        <v/>
+      </c>
+      <c r="G64" s="68" t="str">
+        <f>IF(external!G18="", "", external!G18)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="str">
-        <f>IF(external!A19=0, "", external!A19)</f>
+        <f>IF(external!A19="", "", external!A19)</f>
         <v/>
       </c>
       <c r="B65" s="68" t="str">
-        <f>IF(external!B19=0, "", external!B19)</f>
+        <f>IF(external!B19="", "", external!B19)</f>
         <v/>
       </c>
       <c r="C65" s="68" t="str">
-        <f>IF(external!C19=0, "", external!C19)</f>
+        <f>IF(external!C19="", "", external!C19)</f>
         <v/>
       </c>
       <c r="D65" s="68" t="str">
-        <f>IF(external!D19=0, "", external!D19)</f>
+        <f>IF(external!D19="", "", external!D19)</f>
         <v/>
       </c>
       <c r="E65" s="68" t="str">
-        <f>IF(external!E19=0, "", external!E19)</f>
-        <v/>
-      </c>
-      <c r="F65" s="61" t="str">
-        <f>IF(external!F19=0, "", external!F19)</f>
-        <v/>
-      </c>
-      <c r="G65" s="61" t="str">
-        <f>IF(external!A19=0, "", external!G19)</f>
+        <f>IF(external!E19="", "", external!E19)</f>
+        <v/>
+      </c>
+      <c r="F65" s="68" t="str">
+        <f>IF(external!F19="", "", external!F19)</f>
+        <v/>
+      </c>
+      <c r="G65" s="68" t="str">
+        <f>IF(external!G19="", "", external!G19)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="str">
-        <f>IF(external!A20=0, "", external!A20)</f>
+        <f>IF(external!A20="", "", external!A20)</f>
         <v/>
       </c>
       <c r="B66" s="68" t="str">
-        <f>IF(external!B20=0, "", external!B20)</f>
+        <f>IF(external!B20="", "", external!B20)</f>
         <v/>
       </c>
       <c r="C66" s="68" t="str">
-        <f>IF(external!C20=0, "", external!C20)</f>
+        <f>IF(external!C20="", "", external!C20)</f>
         <v/>
       </c>
       <c r="D66" s="68" t="str">
-        <f>IF(external!D20=0, "", external!D20)</f>
+        <f>IF(external!D20="", "", external!D20)</f>
         <v/>
       </c>
       <c r="E66" s="68" t="str">
-        <f>IF(external!E20=0, "", external!E20)</f>
-        <v/>
-      </c>
-      <c r="F66" s="61" t="str">
-        <f>IF(external!F20=0, "", external!F20)</f>
-        <v/>
-      </c>
-      <c r="G66" s="61" t="str">
-        <f>IF(external!A20=0, "", external!G20)</f>
+        <f>IF(external!E20="", "", external!E20)</f>
+        <v/>
+      </c>
+      <c r="F66" s="68" t="str">
+        <f>IF(external!F20="", "", external!F20)</f>
+        <v/>
+      </c>
+      <c r="G66" s="68" t="str">
+        <f>IF(external!G20="", "", external!G20)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="str">
-        <f>IF(external!A21=0, "", external!A21)</f>
+        <f>IF(external!A21="", "", external!A21)</f>
         <v/>
       </c>
       <c r="B67" s="68" t="str">
-        <f>IF(external!B21=0, "", external!B21)</f>
+        <f>IF(external!B21="", "", external!B21)</f>
         <v/>
       </c>
       <c r="C67" s="68" t="str">
-        <f>IF(external!C21=0, "", external!C21)</f>
+        <f>IF(external!C21="", "", external!C21)</f>
         <v/>
       </c>
       <c r="D67" s="68" t="str">
-        <f>IF(external!D21=0, "", external!D21)</f>
+        <f>IF(external!D21="", "", external!D21)</f>
         <v/>
       </c>
       <c r="E67" s="68" t="str">
-        <f>IF(external!E21=0, "", external!E21)</f>
-        <v/>
-      </c>
-      <c r="F67" s="61" t="str">
-        <f>IF(external!F21=0, "", external!F21)</f>
-        <v/>
-      </c>
-      <c r="G67" s="61" t="str">
-        <f>IF(external!A21=0, "", external!G21)</f>
+        <f>IF(external!E21="", "", external!E21)</f>
+        <v/>
+      </c>
+      <c r="F67" s="68" t="str">
+        <f>IF(external!F21="", "", external!F21)</f>
+        <v/>
+      </c>
+      <c r="G67" s="68" t="str">
+        <f>IF(external!G21="", "", external!G21)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="str">
-        <f>IF(external!A22=0, "", external!A22)</f>
+        <f>IF(external!A22="", "", external!A22)</f>
         <v/>
       </c>
       <c r="B68" s="68" t="str">
-        <f>IF(external!B22=0, "", external!B22)</f>
+        <f>IF(external!B22="", "", external!B22)</f>
         <v/>
       </c>
       <c r="C68" s="68" t="str">
-        <f>IF(external!C22=0, "", external!C22)</f>
+        <f>IF(external!C22="", "", external!C22)</f>
         <v/>
       </c>
       <c r="D68" s="68" t="str">
-        <f>IF(external!D22=0, "", external!D22)</f>
+        <f>IF(external!D22="", "", external!D22)</f>
         <v/>
       </c>
       <c r="E68" s="68" t="str">
-        <f>IF(external!E22=0, "", external!E22)</f>
-        <v/>
-      </c>
-      <c r="F68" s="61" t="str">
-        <f>IF(external!F22=0, "", external!F22)</f>
-        <v/>
-      </c>
-      <c r="G68" s="61" t="str">
-        <f>IF(external!A22=0, "", external!G22)</f>
+        <f>IF(external!E22="", "", external!E22)</f>
+        <v/>
+      </c>
+      <c r="F68" s="68" t="str">
+        <f>IF(external!F22="", "", external!F22)</f>
+        <v/>
+      </c>
+      <c r="G68" s="68" t="str">
+        <f>IF(external!G22="", "", external!G22)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="str">
-        <f>IF(external!A23=0, "", external!A23)</f>
+        <f>IF(external!A23="", "", external!A23)</f>
         <v/>
       </c>
       <c r="B69" s="68" t="str">
-        <f>IF(external!B23=0, "", external!B23)</f>
+        <f>IF(external!B23="", "", external!B23)</f>
         <v/>
       </c>
       <c r="C69" s="68" t="str">
-        <f>IF(external!C23=0, "", external!C23)</f>
+        <f>IF(external!C23="", "", external!C23)</f>
         <v/>
       </c>
       <c r="D69" s="68" t="str">
-        <f>IF(external!D23=0, "", external!D23)</f>
+        <f>IF(external!D23="", "", external!D23)</f>
         <v/>
       </c>
       <c r="E69" s="68" t="str">
-        <f>IF(external!E23=0, "", external!E23)</f>
-        <v/>
-      </c>
-      <c r="F69" s="61" t="str">
-        <f>IF(external!F23=0, "", external!F23)</f>
-        <v/>
-      </c>
-      <c r="G69" s="61" t="str">
-        <f>IF(external!A23=0, "", external!G23)</f>
+        <f>IF(external!E23="", "", external!E23)</f>
+        <v/>
+      </c>
+      <c r="F69" s="68" t="str">
+        <f>IF(external!F23="", "", external!F23)</f>
+        <v/>
+      </c>
+      <c r="G69" s="68" t="str">
+        <f>IF(external!G23="", "", external!G23)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="str">
-        <f>IF(external!A24=0, "", external!A24)</f>
+        <f>IF(external!A24="", "", external!A24)</f>
         <v/>
       </c>
       <c r="B70" s="68" t="str">
-        <f>IF(external!B24=0, "", external!B24)</f>
+        <f>IF(external!B24="", "", external!B24)</f>
         <v/>
       </c>
       <c r="C70" s="68" t="str">
-        <f>IF(external!C24=0, "", external!C24)</f>
+        <f>IF(external!C24="", "", external!C24)</f>
         <v/>
       </c>
       <c r="D70" s="68" t="str">
-        <f>IF(external!D24=0, "", external!D24)</f>
+        <f>IF(external!D24="", "", external!D24)</f>
         <v/>
       </c>
       <c r="E70" s="68" t="str">
-        <f>IF(external!E24=0, "", external!E24)</f>
-        <v/>
-      </c>
-      <c r="F70" s="61" t="str">
-        <f>IF(external!F24=0, "", external!F24)</f>
-        <v/>
-      </c>
-      <c r="G70" s="61" t="str">
-        <f>IF(external!A24=0, "", external!G24)</f>
+        <f>IF(external!E24="", "", external!E24)</f>
+        <v/>
+      </c>
+      <c r="F70" s="68" t="str">
+        <f>IF(external!F24="", "", external!F24)</f>
+        <v/>
+      </c>
+      <c r="G70" s="68" t="str">
+        <f>IF(external!G24="", "", external!G24)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="str">
-        <f>IF(external!A25=0, "", external!A25)</f>
+        <f>IF(external!A25="", "", external!A25)</f>
         <v/>
       </c>
       <c r="B71" s="68" t="str">
-        <f>IF(external!B25=0, "", external!B25)</f>
+        <f>IF(external!B25="", "", external!B25)</f>
         <v/>
       </c>
       <c r="C71" s="68" t="str">
-        <f>IF(external!C25=0, "", external!C25)</f>
+        <f>IF(external!C25="", "", external!C25)</f>
         <v/>
       </c>
       <c r="D71" s="68" t="str">
-        <f>IF(external!D25=0, "", external!D25)</f>
+        <f>IF(external!D25="", "", external!D25)</f>
         <v/>
       </c>
       <c r="E71" s="68" t="str">
-        <f>IF(external!E25=0, "", external!E25)</f>
-        <v/>
-      </c>
-      <c r="F71" s="61" t="str">
-        <f>IF(external!F25=0, "", external!F25)</f>
-        <v/>
-      </c>
-      <c r="G71" s="61" t="str">
-        <f>IF(external!A25=0, "", external!G25)</f>
+        <f>IF(external!E25="", "", external!E25)</f>
+        <v/>
+      </c>
+      <c r="F71" s="68" t="str">
+        <f>IF(external!F25="", "", external!F25)</f>
+        <v/>
+      </c>
+      <c r="G71" s="68" t="str">
+        <f>IF(external!G25="", "", external!G25)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="str">
-        <f>IF(upper!A3=0, "", upper!A3)</f>
+        <f>IF(upper!A3="", "", upper!A3)</f>
         <v/>
       </c>
       <c r="B72" s="69" t="str">
-        <f>IF(upper!B3=0, "", upper!B3)</f>
+        <f>IF(upper!B3="", "", upper!B3)</f>
         <v/>
       </c>
       <c r="C72" s="69" t="str">
-        <f>IF(upper!C3=0, "", upper!C3)</f>
+        <f>IF(upper!C3="", "", upper!C3)</f>
         <v/>
       </c>
       <c r="D72" s="69" t="str">
-        <f>IF(upper!D3=0, "", upper!D3)</f>
+        <f>IF(upper!D3="", "", upper!D3)</f>
         <v/>
       </c>
       <c r="E72" s="69" t="str">
-        <f>IF(upper!E3=0, "", upper!E3)</f>
-        <v/>
-      </c>
-      <c r="F72" s="64" t="str">
-        <f>IF(upper!F3=0, "", upper!F3)</f>
-        <v/>
-      </c>
-      <c r="G72" s="64" t="str">
-        <f>IF(upper!A3=0, "", upper!G3)</f>
+        <f>IF(upper!E3="", "", upper!E3)</f>
+        <v/>
+      </c>
+      <c r="F72" s="69" t="str">
+        <f>IF(upper!F3="", "", upper!F3)</f>
+        <v/>
+      </c>
+      <c r="G72" s="69" t="str">
+        <f>IF(upper!G3="", "", upper!G3)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="str">
-        <f>IF(upper!A4=0, "", upper!A4)</f>
+        <f>IF(upper!A4="", "", upper!A4)</f>
         <v/>
       </c>
       <c r="B73" s="69" t="str">
-        <f>IF(upper!B4=0, "", upper!B4)</f>
+        <f>IF(upper!B4="", "", upper!B4)</f>
         <v/>
       </c>
       <c r="C73" s="69" t="str">
-        <f>IF(upper!C4=0, "", upper!C4)</f>
+        <f>IF(upper!C4="", "", upper!C4)</f>
         <v/>
       </c>
       <c r="D73" s="69" t="str">
-        <f>IF(upper!D4=0, "", upper!D4)</f>
+        <f>IF(upper!D4="", "", upper!D4)</f>
         <v/>
       </c>
       <c r="E73" s="69" t="str">
-        <f>IF(upper!E4=0, "", upper!E4)</f>
-        <v/>
-      </c>
-      <c r="F73" s="64" t="str">
-        <f>IF(upper!F4=0, "", upper!F4)</f>
-        <v/>
-      </c>
-      <c r="G73" s="64" t="str">
-        <f>IF(upper!A4=0, "", upper!G4)</f>
+        <f>IF(upper!E4="", "", upper!E4)</f>
+        <v/>
+      </c>
+      <c r="F73" s="69" t="str">
+        <f>IF(upper!F4="", "", upper!F4)</f>
+        <v/>
+      </c>
+      <c r="G73" s="69" t="str">
+        <f>IF(upper!G4="", "", upper!G4)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="str">
-        <f>IF(upper!A5=0, "", upper!A5)</f>
+        <f>IF(upper!A5="", "", upper!A5)</f>
         <v/>
       </c>
       <c r="B74" s="69" t="str">
-        <f>IF(upper!B5=0, "", upper!B5)</f>
+        <f>IF(upper!B5="", "", upper!B5)</f>
         <v/>
       </c>
       <c r="C74" s="69" t="str">
-        <f>IF(upper!C5=0, "", upper!C5)</f>
+        <f>IF(upper!C5="", "", upper!C5)</f>
         <v/>
       </c>
       <c r="D74" s="69" t="str">
-        <f>IF(upper!D5=0, "", upper!D5)</f>
+        <f>IF(upper!D5="", "", upper!D5)</f>
         <v/>
       </c>
       <c r="E74" s="69" t="str">
-        <f>IF(upper!E5=0, "", upper!E5)</f>
-        <v/>
-      </c>
-      <c r="F74" s="64" t="str">
-        <f>IF(upper!F5=0, "", upper!F5)</f>
-        <v/>
-      </c>
-      <c r="G74" s="64" t="str">
-        <f>IF(upper!A5=0, "", upper!G5)</f>
+        <f>IF(upper!E5="", "", upper!E5)</f>
+        <v/>
+      </c>
+      <c r="F74" s="69" t="str">
+        <f>IF(upper!F5="", "", upper!F5)</f>
+        <v/>
+      </c>
+      <c r="G74" s="69" t="str">
+        <f>IF(upper!G5="", "", upper!G5)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="str">
-        <f>IF(upper!A6=0, "", upper!A6)</f>
+        <f>IF(upper!A6="", "", upper!A6)</f>
         <v/>
       </c>
       <c r="B75" s="69" t="str">
-        <f>IF(upper!B6=0, "", upper!B6)</f>
+        <f>IF(upper!B6="", "", upper!B6)</f>
         <v/>
       </c>
       <c r="C75" s="69" t="str">
-        <f>IF(upper!C6=0, "", upper!C6)</f>
+        <f>IF(upper!C6="", "", upper!C6)</f>
         <v/>
       </c>
       <c r="D75" s="69" t="str">
-        <f>IF(upper!D6=0, "", upper!D6)</f>
+        <f>IF(upper!D6="", "", upper!D6)</f>
         <v/>
       </c>
       <c r="E75" s="69" t="str">
-        <f>IF(upper!E6=0, "", upper!E6)</f>
-        <v/>
-      </c>
-      <c r="F75" s="64" t="str">
-        <f>IF(upper!F6=0, "", upper!F6)</f>
-        <v/>
-      </c>
-      <c r="G75" s="64" t="str">
-        <f>IF(upper!A6=0, "", upper!G6)</f>
+        <f>IF(upper!E6="", "", upper!E6)</f>
+        <v/>
+      </c>
+      <c r="F75" s="69" t="str">
+        <f>IF(upper!F6="", "", upper!F6)</f>
+        <v/>
+      </c>
+      <c r="G75" s="69" t="str">
+        <f>IF(upper!G6="", "", upper!G6)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="str">
-        <f>IF(upper!A7=0, "", upper!A7)</f>
+        <f>IF(upper!A7="", "", upper!A7)</f>
         <v/>
       </c>
       <c r="B76" s="69" t="str">
-        <f>IF(upper!B7=0, "", upper!B7)</f>
+        <f>IF(upper!B7="", "", upper!B7)</f>
         <v/>
       </c>
       <c r="C76" s="69" t="str">
-        <f>IF(upper!C7=0, "", upper!C7)</f>
+        <f>IF(upper!C7="", "", upper!C7)</f>
         <v/>
       </c>
       <c r="D76" s="69" t="str">
-        <f>IF(upper!D7=0, "", upper!D7)</f>
+        <f>IF(upper!D7="", "", upper!D7)</f>
         <v/>
       </c>
       <c r="E76" s="69" t="str">
-        <f>IF(upper!E7=0, "", upper!E7)</f>
-        <v/>
-      </c>
-      <c r="F76" s="64" t="str">
-        <f>IF(upper!F7=0, "", upper!F7)</f>
-        <v/>
-      </c>
-      <c r="G76" s="64" t="str">
-        <f>IF(upper!A7=0, "", upper!G7)</f>
+        <f>IF(upper!E7="", "", upper!E7)</f>
+        <v/>
+      </c>
+      <c r="F76" s="69" t="str">
+        <f>IF(upper!F7="", "", upper!F7)</f>
+        <v/>
+      </c>
+      <c r="G76" s="69" t="str">
+        <f>IF(upper!G7="", "", upper!G7)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="str">
-        <f>IF(upper!A8=0, "", upper!A8)</f>
+        <f>IF(upper!A8="", "", upper!A8)</f>
         <v/>
       </c>
       <c r="B77" s="69" t="str">
-        <f>IF(upper!B8=0, "", upper!B8)</f>
+        <f>IF(upper!B8="", "", upper!B8)</f>
         <v/>
       </c>
       <c r="C77" s="69" t="str">
-        <f>IF(upper!C8=0, "", upper!C8)</f>
+        <f>IF(upper!C8="", "", upper!C8)</f>
         <v/>
       </c>
       <c r="D77" s="69" t="str">
-        <f>IF(upper!D8=0, "", upper!D8)</f>
+        <f>IF(upper!D8="", "", upper!D8)</f>
         <v/>
       </c>
       <c r="E77" s="69" t="str">
-        <f>IF(upper!E8=0, "", upper!E8)</f>
-        <v/>
-      </c>
-      <c r="F77" s="64" t="str">
-        <f>IF(upper!F8=0, "", upper!F8)</f>
-        <v/>
-      </c>
-      <c r="G77" s="64" t="str">
-        <f>IF(upper!A8=0, "", upper!G8)</f>
+        <f>IF(upper!E8="", "", upper!E8)</f>
+        <v/>
+      </c>
+      <c r="F77" s="69" t="str">
+        <f>IF(upper!F8="", "", upper!F8)</f>
+        <v/>
+      </c>
+      <c r="G77" s="69" t="str">
+        <f>IF(upper!G8="", "", upper!G8)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="str">
-        <f>IF(upper!A9=0, "", upper!A9)</f>
+        <f>IF(upper!A9="", "", upper!A9)</f>
         <v/>
       </c>
       <c r="B78" s="69" t="str">
-        <f>IF(upper!B9=0, "", upper!B9)</f>
+        <f>IF(upper!B9="", "", upper!B9)</f>
         <v/>
       </c>
       <c r="C78" s="69" t="str">
-        <f>IF(upper!C9=0, "", upper!C9)</f>
+        <f>IF(upper!C9="", "", upper!C9)</f>
         <v/>
       </c>
       <c r="D78" s="69" t="str">
-        <f>IF(upper!D9=0, "", upper!D9)</f>
+        <f>IF(upper!D9="", "", upper!D9)</f>
         <v/>
       </c>
       <c r="E78" s="69" t="str">
-        <f>IF(upper!E9=0, "", upper!E9)</f>
-        <v/>
-      </c>
-      <c r="F78" s="64" t="str">
-        <f>IF(upper!F9=0, "", upper!F9)</f>
-        <v/>
-      </c>
-      <c r="G78" s="64" t="str">
-        <f>IF(upper!A9=0, "", upper!G9)</f>
+        <f>IF(upper!E9="", "", upper!E9)</f>
+        <v/>
+      </c>
+      <c r="F78" s="69" t="str">
+        <f>IF(upper!F9="", "", upper!F9)</f>
+        <v/>
+      </c>
+      <c r="G78" s="69" t="str">
+        <f>IF(upper!G9="", "", upper!G9)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="str">
-        <f>IF(upper!A10=0, "", upper!A10)</f>
+        <f>IF(upper!A10="", "", upper!A10)</f>
         <v/>
       </c>
       <c r="B79" s="69" t="str">
-        <f>IF(upper!B10=0, "", upper!B10)</f>
+        <f>IF(upper!B10="", "", upper!B10)</f>
         <v/>
       </c>
       <c r="C79" s="69" t="str">
-        <f>IF(upper!C10=0, "", upper!C10)</f>
+        <f>IF(upper!C10="", "", upper!C10)</f>
         <v/>
       </c>
       <c r="D79" s="69" t="str">
-        <f>IF(upper!D10=0, "", upper!D10)</f>
+        <f>IF(upper!D10="", "", upper!D10)</f>
         <v/>
       </c>
       <c r="E79" s="69" t="str">
-        <f>IF(upper!E10=0, "", upper!E10)</f>
-        <v/>
-      </c>
-      <c r="F79" s="64" t="str">
-        <f>IF(upper!F10=0, "", upper!F10)</f>
-        <v/>
-      </c>
-      <c r="G79" s="64" t="str">
-        <f>IF(upper!A10=0, "", upper!G10)</f>
+        <f>IF(upper!E10="", "", upper!E10)</f>
+        <v/>
+      </c>
+      <c r="F79" s="69" t="str">
+        <f>IF(upper!F10="", "", upper!F10)</f>
+        <v/>
+      </c>
+      <c r="G79" s="69" t="str">
+        <f>IF(upper!G10="", "", upper!G10)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="str">
-        <f>IF(upper!A11=0, "", upper!A11)</f>
+        <f>IF(upper!A11="", "", upper!A11)</f>
         <v/>
       </c>
       <c r="B80" s="69" t="str">
-        <f>IF(upper!B11=0, "", upper!B11)</f>
+        <f>IF(upper!B11="", "", upper!B11)</f>
         <v/>
       </c>
       <c r="C80" s="69" t="str">
-        <f>IF(upper!C11=0, "", upper!C11)</f>
+        <f>IF(upper!C11="", "", upper!C11)</f>
         <v/>
       </c>
       <c r="D80" s="69" t="str">
-        <f>IF(upper!D11=0, "", upper!D11)</f>
+        <f>IF(upper!D11="", "", upper!D11)</f>
         <v/>
       </c>
       <c r="E80" s="69" t="str">
-        <f>IF(upper!E11=0, "", upper!E11)</f>
-        <v/>
-      </c>
-      <c r="F80" s="64" t="str">
-        <f>IF(upper!F11=0, "", upper!F11)</f>
-        <v/>
-      </c>
-      <c r="G80" s="64" t="str">
-        <f>IF(upper!A11=0, "", upper!G11)</f>
+        <f>IF(upper!E11="", "", upper!E11)</f>
+        <v/>
+      </c>
+      <c r="F80" s="69" t="str">
+        <f>IF(upper!F11="", "", upper!F11)</f>
+        <v/>
+      </c>
+      <c r="G80" s="69" t="str">
+        <f>IF(upper!G11="", "", upper!G11)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="str">
-        <f>IF(upper!A12=0, "", upper!A12)</f>
+        <f>IF(upper!A12="", "", upper!A12)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B81" s="69">
-        <f>IF(upper!B12=0, "", upper!B12)</f>
+        <f>IF(upper!B12="", "", upper!B12)</f>
         <v>61</v>
       </c>
       <c r="C81" s="69">
-        <f>IF(upper!C12=0, "", upper!C12)</f>
+        <f>IF(upper!C12="", "", upper!C12)</f>
         <v>22</v>
       </c>
       <c r="D81" s="69">
-        <f>IF(upper!D12=0, "", upper!D12)</f>
+        <f>IF(upper!D12="", "", upper!D12)</f>
         <v>186.95041722813599</v>
       </c>
       <c r="E81" s="69">
-        <f>IF(upper!E12=0, "", upper!E12)</f>
+        <f>IF(upper!E12="", "", upper!E12)</f>
         <v>-59.999859694228427</v>
       </c>
-      <c r="F81" s="64">
-        <f>IF(upper!F12=0, "", upper!F12)</f>
+      <c r="F81" s="69">
+        <f>IF(upper!F12="", "", upper!F12)</f>
         <v>4</v>
       </c>
-      <c r="G81" s="64">
-        <f>IF(upper!A12=0, "", upper!G12)</f>
+      <c r="G81" s="69">
+        <f>IF(upper!G12="", "", upper!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="str">
-        <f>IF(upper!A13=0, "", upper!A13)</f>
+        <f>IF(upper!A13="", "", upper!A13)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B82" s="69">
-        <f>IF(upper!B13=0, "", upper!B13)</f>
+        <f>IF(upper!B13="", "", upper!B13)</f>
         <v>56</v>
       </c>
       <c r="C82" s="69">
-        <f>IF(upper!C13=0, "", upper!C13)</f>
+        <f>IF(upper!C13="", "", upper!C13)</f>
         <v>22</v>
       </c>
       <c r="D82" s="69">
-        <f>IF(upper!D13=0, "", upper!D13)</f>
+        <f>IF(upper!D13="", "", upper!D13)</f>
         <v>205.425625842204</v>
       </c>
-      <c r="E82" s="69" t="str">
-        <f>IF(upper!E13=0, "", upper!E13)</f>
-        <v/>
-      </c>
-      <c r="F82" s="64">
-        <f>IF(upper!F13=0, "", upper!F13)</f>
+      <c r="E82" s="69">
+        <f>IF(upper!E13="", "", upper!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="69">
+        <f>IF(upper!F13="", "", upper!F13)</f>
         <v>4</v>
       </c>
-      <c r="G82" s="64">
-        <f>IF(upper!A13=0, "", upper!G13)</f>
+      <c r="G82" s="69">
+        <f>IF(upper!G13="", "", upper!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="str">
-        <f>IF(upper!A14=0, "", upper!A14)</f>
+        <f>IF(upper!A14="", "", upper!A14)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B83" s="69">
-        <f>IF(upper!B14=0, "", upper!B14)</f>
+        <f>IF(upper!B14="", "", upper!B14)</f>
         <v>57</v>
       </c>
       <c r="C83" s="69">
-        <f>IF(upper!C14=0, "", upper!C14)</f>
+        <f>IF(upper!C14="", "", upper!C14)</f>
         <v>6</v>
       </c>
       <c r="D83" s="69">
-        <f>IF(upper!D14=0, "", upper!D14)</f>
+        <f>IF(upper!D14="", "", upper!D14)</f>
         <v>214.66323014923799</v>
       </c>
       <c r="E83" s="69">
-        <f>IF(upper!E14=0, "", upper!E14)</f>
+        <f>IF(upper!E14="", "", upper!E14)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F83" s="64">
-        <f>IF(upper!F14=0, "", upper!F14)</f>
+      <c r="F83" s="69">
+        <f>IF(upper!F14="", "", upper!F14)</f>
         <v>4</v>
       </c>
-      <c r="G83" s="64">
-        <f>IF(upper!A14=0, "", upper!G14)</f>
+      <c r="G83" s="69">
+        <f>IF(upper!G14="", "", upper!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="str">
-        <f>IF(upper!A15=0, "", upper!A15)</f>
+        <f>IF(upper!A15="", "", upper!A15)</f>
         <v/>
       </c>
       <c r="B84" s="69" t="str">
-        <f>IF(upper!B15=0, "", upper!B15)</f>
+        <f>IF(upper!B15="", "", upper!B15)</f>
         <v/>
       </c>
       <c r="C84" s="69" t="str">
-        <f>IF(upper!C15=0, "", upper!C15)</f>
+        <f>IF(upper!C15="", "", upper!C15)</f>
         <v/>
       </c>
       <c r="D84" s="69" t="str">
-        <f>IF(upper!D15=0, "", upper!D15)</f>
+        <f>IF(upper!D15="", "", upper!D15)</f>
         <v/>
       </c>
       <c r="E84" s="69" t="str">
-        <f>IF(upper!E15=0, "", upper!E15)</f>
-        <v/>
-      </c>
-      <c r="F84" s="64" t="str">
-        <f>IF(upper!F15=0, "", upper!F15)</f>
-        <v/>
-      </c>
-      <c r="G84" s="64" t="str">
-        <f>IF(upper!A15=0, "", upper!G15)</f>
+        <f>IF(upper!E15="", "", upper!E15)</f>
+        <v/>
+      </c>
+      <c r="F84" s="69" t="str">
+        <f>IF(upper!F15="", "", upper!F15)</f>
+        <v/>
+      </c>
+      <c r="G84" s="69" t="str">
+        <f>IF(upper!G15="", "", upper!G15)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="str">
-        <f>IF(upper!A16=0, "", upper!A16)</f>
+        <f>IF(upper!A16="", "", upper!A16)</f>
         <v/>
       </c>
       <c r="B85" s="69" t="str">
-        <f>IF(upper!B16=0, "", upper!B16)</f>
+        <f>IF(upper!B16="", "", upper!B16)</f>
         <v/>
       </c>
       <c r="C85" s="69" t="str">
-        <f>IF(upper!C16=0, "", upper!C16)</f>
+        <f>IF(upper!C16="", "", upper!C16)</f>
         <v/>
       </c>
       <c r="D85" s="69" t="str">
-        <f>IF(upper!D16=0, "", upper!D16)</f>
+        <f>IF(upper!D16="", "", upper!D16)</f>
         <v/>
       </c>
       <c r="E85" s="69" t="str">
-        <f>IF(upper!E16=0, "", upper!E16)</f>
-        <v/>
-      </c>
-      <c r="F85" s="64" t="str">
-        <f>IF(upper!F16=0, "", upper!F16)</f>
-        <v/>
-      </c>
-      <c r="G85" s="64" t="str">
-        <f>IF(upper!A16=0, "", upper!G16)</f>
+        <f>IF(upper!E16="", "", upper!E16)</f>
+        <v/>
+      </c>
+      <c r="F85" s="69" t="str">
+        <f>IF(upper!F16="", "", upper!F16)</f>
+        <v/>
+      </c>
+      <c r="G85" s="69" t="str">
+        <f>IF(upper!G16="", "", upper!G16)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="str">
-        <f>IF(upper!A17=0, "", upper!A17)</f>
+        <f>IF(upper!A17="", "", upper!A17)</f>
         <v/>
       </c>
       <c r="B86" s="69" t="str">
-        <f>IF(upper!B17=0, "", upper!B17)</f>
+        <f>IF(upper!B17="", "", upper!B17)</f>
         <v/>
       </c>
       <c r="C86" s="69" t="str">
-        <f>IF(upper!C17=0, "", upper!C17)</f>
+        <f>IF(upper!C17="", "", upper!C17)</f>
         <v/>
       </c>
       <c r="D86" s="69" t="str">
-        <f>IF(upper!D17=0, "", upper!D17)</f>
+        <f>IF(upper!D17="", "", upper!D17)</f>
         <v/>
       </c>
       <c r="E86" s="69" t="str">
-        <f>IF(upper!E17=0, "", upper!E17)</f>
-        <v/>
-      </c>
-      <c r="F86" s="64" t="str">
-        <f>IF(upper!F17=0, "", upper!F17)</f>
-        <v/>
-      </c>
-      <c r="G86" s="64" t="str">
-        <f>IF(upper!A17=0, "", upper!G17)</f>
+        <f>IF(upper!E17="", "", upper!E17)</f>
+        <v/>
+      </c>
+      <c r="F86" s="69" t="str">
+        <f>IF(upper!F17="", "", upper!F17)</f>
+        <v/>
+      </c>
+      <c r="G86" s="69" t="str">
+        <f>IF(upper!G17="", "", upper!G17)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="str">
-        <f>IF(upper!A18=0, "", upper!A18)</f>
+        <f>IF(upper!A18="", "", upper!A18)</f>
         <v/>
       </c>
       <c r="B87" s="69" t="str">
-        <f>IF(upper!B18=0, "", upper!B18)</f>
+        <f>IF(upper!B18="", "", upper!B18)</f>
         <v/>
       </c>
       <c r="C87" s="69" t="str">
-        <f>IF(upper!C18=0, "", upper!C18)</f>
+        <f>IF(upper!C18="", "", upper!C18)</f>
         <v/>
       </c>
       <c r="D87" s="69" t="str">
-        <f>IF(upper!D18=0, "", upper!D18)</f>
+        <f>IF(upper!D18="", "", upper!D18)</f>
         <v/>
       </c>
       <c r="E87" s="69" t="str">
-        <f>IF(upper!E18=0, "", upper!E18)</f>
-        <v/>
-      </c>
-      <c r="F87" s="64" t="str">
-        <f>IF(upper!F18=0, "", upper!F18)</f>
-        <v/>
-      </c>
-      <c r="G87" s="64" t="str">
-        <f>IF(upper!A18=0, "", upper!G18)</f>
+        <f>IF(upper!E18="", "", upper!E18)</f>
+        <v/>
+      </c>
+      <c r="F87" s="69" t="str">
+        <f>IF(upper!F18="", "", upper!F18)</f>
+        <v/>
+      </c>
+      <c r="G87" s="69" t="str">
+        <f>IF(upper!G18="", "", upper!G18)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="str">
-        <f>IF(upper!A19=0, "", upper!A19)</f>
+        <f>IF(upper!A19="", "", upper!A19)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B88" s="69">
-        <f>IF(upper!B19=0, "", upper!B19)</f>
+        <f>IF(upper!B19="", "", upper!B19)</f>
         <v>58</v>
       </c>
       <c r="C88" s="69">
-        <f>IF(upper!C19=0, "", upper!C19)</f>
+        <f>IF(upper!C19="", "", upper!C19)</f>
         <v>-10</v>
       </c>
       <c r="D88" s="69">
-        <f>IF(upper!D19=0, "", upper!D19)</f>
+        <f>IF(upper!D19="", "", upper!D19)</f>
         <v>205.425625842204</v>
       </c>
       <c r="E88" s="69">
-        <f>IF(upper!E19=0, "", upper!E19)</f>
+        <f>IF(upper!E19="", "", upper!E19)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F88" s="64">
-        <f>IF(upper!F19=0, "", upper!F19)</f>
+      <c r="F88" s="69">
+        <f>IF(upper!F19="", "", upper!F19)</f>
         <v>4</v>
       </c>
-      <c r="G88" s="64">
-        <f>IF(upper!A19=0, "", upper!G19)</f>
+      <c r="G88" s="69">
+        <f>IF(upper!G19="", "", upper!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="str">
-        <f>IF(upper!A20=0, "", upper!A20)</f>
+        <f>IF(upper!A20="", "", upper!A20)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B89" s="69">
-        <f>IF(upper!B20=0, "", upper!B20)</f>
+        <f>IF(upper!B20="", "", upper!B20)</f>
         <v>53</v>
       </c>
       <c r="C89" s="69">
-        <f>IF(upper!C20=0, "", upper!C20)</f>
+        <f>IF(upper!C20="", "", upper!C20)</f>
         <v>-26</v>
       </c>
       <c r="D89" s="69">
-        <f>IF(upper!D20=0, "", upper!D20)</f>
+        <f>IF(upper!D20="", "", upper!D20)</f>
         <v>214.66323014923799</v>
       </c>
       <c r="E89" s="69">
-        <f>IF(upper!E20=0, "", upper!E20)</f>
+        <f>IF(upper!E20="", "", upper!E20)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F89" s="64">
-        <f>IF(upper!F20=0, "", upper!F20)</f>
+      <c r="F89" s="69">
+        <f>IF(upper!F20="", "", upper!F20)</f>
         <v>4</v>
       </c>
-      <c r="G89" s="64">
-        <f>IF(upper!A20=0, "", upper!G20)</f>
+      <c r="G89" s="69">
+        <f>IF(upper!G20="", "", upper!G20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="str">
-        <f>IF(upper!A21=0, "", upper!A21)</f>
+        <f>IF(upper!A21="", "", upper!A21)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B90" s="69">
-        <f>IF(upper!B21=0, "", upper!B21)</f>
+        <f>IF(upper!B21="", "", upper!B21)</f>
         <v>63</v>
       </c>
       <c r="C90" s="69">
-        <f>IF(upper!C21=0, "", upper!C21)</f>
+        <f>IF(upper!C21="", "", upper!C21)</f>
         <v>-42</v>
       </c>
       <c r="D90" s="69">
-        <f>IF(upper!D21=0, "", upper!D21)</f>
+        <f>IF(upper!D21="", "", upper!D21)</f>
         <v>205.425625842204</v>
       </c>
       <c r="E90" s="69">
-        <f>IF(upper!E21=0, "", upper!E21)</f>
+        <f>IF(upper!E21="", "", upper!E21)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F90" s="64">
-        <f>IF(upper!F21=0, "", upper!F21)</f>
+      <c r="F90" s="69">
+        <f>IF(upper!F21="", "", upper!F21)</f>
         <v>4</v>
       </c>
-      <c r="G90" s="64">
-        <f>IF(upper!A21=0, "", upper!G21)</f>
+      <c r="G90" s="69">
+        <f>IF(upper!G21="", "", upper!G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="str">
-        <f>IF(upper!A22=0, "", upper!A22)</f>
+        <f>IF(upper!A22="", "", upper!A22)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B91" s="69">
-        <f>IF(upper!B22=0, "", upper!B22)</f>
+        <f>IF(upper!B22="", "", upper!B22)</f>
         <v>48</v>
       </c>
       <c r="C91" s="69">
-        <f>IF(upper!C22=0, "", upper!C22)</f>
+        <f>IF(upper!C22="", "", upper!C22)</f>
         <v>-42</v>
       </c>
       <c r="D91" s="69">
-        <f>IF(upper!D22=0, "", upper!D22)</f>
+        <f>IF(upper!D22="", "", upper!D22)</f>
         <v>186.95041722813599</v>
       </c>
       <c r="E91" s="69">
-        <f>IF(upper!E22=0, "", upper!E22)</f>
+        <f>IF(upper!E22="", "", upper!E22)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F91" s="64">
-        <f>IF(upper!F22=0, "", upper!F22)</f>
+      <c r="F91" s="69">
+        <f>IF(upper!F22="", "", upper!F22)</f>
         <v>4</v>
       </c>
-      <c r="G91" s="64">
-        <f>IF(upper!A22=0, "", upper!G22)</f>
+      <c r="G91" s="69">
+        <f>IF(upper!G22="", "", upper!G22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="str">
-        <f>IF(upper!A23=0, "", upper!A23)</f>
+        <f>IF(upper!A23="", "", upper!A23)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B92" s="69">
-        <f>IF(upper!B23=0, "", upper!B23)</f>
+        <f>IF(upper!B23="", "", upper!B23)</f>
         <v>59</v>
       </c>
       <c r="C92" s="69">
-        <f>IF(upper!C23=0, "", upper!C23)</f>
+        <f>IF(upper!C23="", "", upper!C23)</f>
         <v>-10</v>
       </c>
       <c r="D92" s="69">
-        <f>IF(upper!D23=0, "", upper!D23)</f>
+        <f>IF(upper!D23="", "", upper!D23)</f>
         <v>186.95041722813599</v>
       </c>
       <c r="E92" s="69">
-        <f>IF(upper!E23=0, "", upper!E23)</f>
+        <f>IF(upper!E23="", "", upper!E23)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F92" s="64">
-        <f>IF(upper!F23=0, "", upper!F23)</f>
+      <c r="F92" s="69">
+        <f>IF(upper!F23="", "", upper!F23)</f>
         <v>4</v>
       </c>
-      <c r="G92" s="64">
-        <f>IF(upper!A23=0, "", upper!G23)</f>
+      <c r="G92" s="69">
+        <f>IF(upper!G23="", "", upper!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="str">
-        <f>IF(upper!A24=0, "", upper!A24)</f>
+        <f>IF(upper!A24="", "", upper!A24)</f>
         <v/>
       </c>
       <c r="B93" s="69" t="str">
-        <f>IF(upper!B24=0, "", upper!B24)</f>
+        <f>IF(upper!B24="", "", upper!B24)</f>
         <v/>
       </c>
       <c r="C93" s="69" t="str">
-        <f>IF(upper!C24=0, "", upper!C24)</f>
+        <f>IF(upper!C24="", "", upper!C24)</f>
         <v/>
       </c>
       <c r="D93" s="69" t="str">
-        <f>IF(upper!D24=0, "", upper!D24)</f>
+        <f>IF(upper!D24="", "", upper!D24)</f>
         <v/>
       </c>
       <c r="E93" s="69" t="str">
-        <f>IF(upper!E24=0, "", upper!E24)</f>
-        <v/>
-      </c>
-      <c r="F93" s="64" t="str">
-        <f>IF(upper!F24=0, "", upper!F24)</f>
-        <v/>
-      </c>
-      <c r="G93" s="64" t="str">
-        <f>IF(upper!A24=0, "", upper!G24)</f>
+        <f>IF(upper!E24="", "", upper!E24)</f>
+        <v/>
+      </c>
+      <c r="F93" s="69" t="str">
+        <f>IF(upper!F24="", "", upper!F24)</f>
+        <v/>
+      </c>
+      <c r="G93" s="69" t="str">
+        <f>IF(upper!G24="", "", upper!G24)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="str">
-        <f>IF(upper!A25=0, "", upper!A25)</f>
+        <f>IF(upper!A25="", "", upper!A25)</f>
         <v/>
       </c>
       <c r="B94" s="69" t="str">
-        <f>IF(upper!B25=0, "", upper!B25)</f>
+        <f>IF(upper!B25="", "", upper!B25)</f>
         <v/>
       </c>
       <c r="C94" s="69" t="str">
-        <f>IF(upper!C25=0, "", upper!C25)</f>
+        <f>IF(upper!C25="", "", upper!C25)</f>
         <v/>
       </c>
       <c r="D94" s="69" t="str">
-        <f>IF(upper!D25=0, "", upper!D25)</f>
+        <f>IF(upper!D25="", "", upper!D25)</f>
         <v/>
       </c>
       <c r="E94" s="69" t="str">
-        <f>IF(upper!E25=0, "", upper!E25)</f>
-        <v/>
-      </c>
-      <c r="F94" s="64" t="str">
-        <f>IF(upper!F25=0, "", upper!F25)</f>
-        <v/>
-      </c>
-      <c r="G94" s="64" t="str">
-        <f>IF(upper!A25=0, "", upper!G25)</f>
+        <f>IF(upper!E25="", "", upper!E25)</f>
+        <v/>
+      </c>
+      <c r="F94" s="69" t="str">
+        <f>IF(upper!F25="", "", upper!F25)</f>
+        <v/>
+      </c>
+      <c r="G94" s="69" t="str">
+        <f>IF(upper!G25="", "", upper!G25)</f>
         <v/>
       </c>
     </row>

--- a/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator.xlsx
@@ -13343,7 +13343,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-106.60254037844388</v>
+        <v>-96.602540378443877</v>
       </c>
       <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-115.8401446854779</v>
+        <v>-105.8401446854779</v>
       </c>
       <c r="D4" s="23">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" si="1"/>
-        <v>-134.3153532995459</v>
+        <v>-124.3153532995459</v>
       </c>
       <c r="D5" s="23">
         <f t="shared" si="2"/>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" si="1"/>
-        <v>-143.55295760657992</v>
+        <v>-133.55295760657992</v>
       </c>
       <c r="D6" s="23">
         <f t="shared" si="2"/>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" si="1"/>
-        <v>-134.31535329954593</v>
+        <v>-124.31535329954593</v>
       </c>
       <c r="D7" s="23">
         <f t="shared" si="2"/>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="O7" s="45">
         <v>148</v>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" si="1"/>
-        <v>-143.55295760657998</v>
+        <v>-133.55295760657998</v>
       </c>
       <c r="D8" s="23">
         <f t="shared" si="2"/>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="1"/>
-        <v>-134.31535329954596</v>
+        <v>-124.31535329954598</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" si="2"/>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" si="1"/>
-        <v>-115.84014468547795</v>
+        <v>-105.84014468547795</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="2"/>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="1"/>
-        <v>-106.6025403784439</v>
+        <v>-96.602540378443905</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="2"/>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="1"/>
-        <v>-115.84014468547792</v>
+        <v>-105.84014468547792</v>
       </c>
       <c r="D12" s="23">
         <f t="shared" si="2"/>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="1"/>
-        <v>-106.60254037844392</v>
+        <v>-96.602540378443919</v>
       </c>
       <c r="D13" s="23">
         <f t="shared" si="2"/>
@@ -14367,7 +14367,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="C3" s="35">
         <f>((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>106.60254037844385</v>
+        <v>96.602540378443848</v>
       </c>
       <c r="D3" s="35">
         <f>((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C25" si="1">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>115.84014468547787</v>
+        <v>105.84014468547787</v>
       </c>
       <c r="D4" s="23">
         <f t="shared" ref="D4:D25" si="2">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O7" s="45">
         <v>148</v>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" si="1"/>
-        <v>106.60254037844386</v>
+        <v>96.602540378443862</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="2"/>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" si="1"/>
-        <v>115.84014468547788</v>
+        <v>105.84014468547788</v>
       </c>
       <c r="D12" s="23">
         <f t="shared" si="2"/>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" si="1"/>
-        <v>106.60254037844388</v>
+        <v>96.602540378443877</v>
       </c>
       <c r="D13" s="23">
         <f t="shared" si="2"/>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" si="1"/>
-        <v>88.127331764375867</v>
+        <v>78.127331764375867</v>
       </c>
       <c r="D14" s="23">
         <f t="shared" si="2"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" si="1"/>
-        <v>78.889727457341863</v>
+        <v>68.889727457341863</v>
       </c>
       <c r="D15" s="23">
         <f t="shared" si="2"/>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" si="1"/>
-        <v>78.889727457341849</v>
+        <v>68.889727457341849</v>
       </c>
       <c r="D19" s="23">
         <f t="shared" si="2"/>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
-        <v>88.127331764375853</v>
+        <v>78.127331764375853</v>
       </c>
       <c r="D23" s="23">
         <f t="shared" si="2"/>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="C24" s="23">
         <f t="shared" si="1"/>
-        <v>78.889727457341834</v>
+        <v>68.889727457341834</v>
       </c>
       <c r="D24" s="23">
         <f t="shared" si="2"/>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="C25" s="27">
         <f t="shared" si="1"/>
-        <v>88.127331764375839</v>
+        <v>78.127331764375839</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="2"/>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="C26" s="67">
         <f>IF(internal!C3="", "", internal!C3)</f>
-        <v>106.60254037844385</v>
+        <v>96.602540378443848</v>
       </c>
       <c r="D26" s="67">
         <f>IF(internal!D3="", "", internal!D3)</f>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="C27" s="67">
         <f>IF(internal!C4="", "", internal!C4)</f>
-        <v>115.84014468547787</v>
+        <v>105.84014468547787</v>
       </c>
       <c r="D27" s="67">
         <f>IF(internal!D4="", "", internal!D4)</f>
@@ -17369,7 +17369,7 @@
       </c>
       <c r="C34" s="67">
         <f>IF(internal!C11="", "", internal!C11)</f>
-        <v>106.60254037844386</v>
+        <v>96.602540378443862</v>
       </c>
       <c r="D34" s="67">
         <f>IF(internal!D11="", "", internal!D11)</f>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="C35" s="67">
         <f>IF(internal!C12="", "", internal!C12)</f>
-        <v>115.84014468547788</v>
+        <v>105.84014468547788</v>
       </c>
       <c r="D35" s="67">
         <f>IF(internal!D12="", "", internal!D12)</f>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="C36" s="67">
         <f>IF(internal!C13="", "", internal!C13)</f>
-        <v>106.60254037844388</v>
+        <v>96.602540378443877</v>
       </c>
       <c r="D36" s="67">
         <f>IF(internal!D13="", "", internal!D13)</f>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="C37" s="67">
         <f>IF(internal!C14="", "", internal!C14)</f>
-        <v>88.127331764375867</v>
+        <v>78.127331764375867</v>
       </c>
       <c r="D37" s="67">
         <f>IF(internal!D14="", "", internal!D14)</f>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="C38" s="67">
         <f>IF(internal!C15="", "", internal!C15)</f>
-        <v>78.889727457341863</v>
+        <v>68.889727457341863</v>
       </c>
       <c r="D38" s="67">
         <f>IF(internal!D15="", "", internal!D15)</f>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="C42" s="67">
         <f>IF(internal!C19="", "", internal!C19)</f>
-        <v>78.889727457341849</v>
+        <v>68.889727457341849</v>
       </c>
       <c r="D42" s="67">
         <f>IF(internal!D19="", "", internal!D19)</f>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="C46" s="67">
         <f>IF(internal!C23="", "", internal!C23)</f>
-        <v>88.127331764375853</v>
+        <v>78.127331764375853</v>
       </c>
       <c r="D46" s="67">
         <f>IF(internal!D23="", "", internal!D23)</f>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="C47" s="67">
         <f>IF(internal!C24="", "", internal!C24)</f>
-        <v>78.889727457341834</v>
+        <v>68.889727457341834</v>
       </c>
       <c r="D47" s="67">
         <f>IF(internal!D24="", "", internal!D24)</f>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="C48" s="67">
         <f>IF(internal!C25="", "", internal!C25)</f>
-        <v>88.127331764375839</v>
+        <v>78.127331764375839</v>
       </c>
       <c r="D48" s="67">
         <f>IF(internal!D25="", "", internal!D25)</f>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="C49" s="68">
         <f>IF(external!C3="", "", external!C3)</f>
-        <v>-106.60254037844388</v>
+        <v>-96.602540378443877</v>
       </c>
       <c r="D49" s="68">
         <f>IF(external!D3="", "", external!D3)</f>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="C50" s="68">
         <f>IF(external!C4="", "", external!C4)</f>
-        <v>-115.8401446854779</v>
+        <v>-105.8401446854779</v>
       </c>
       <c r="D50" s="68">
         <f>IF(external!D4="", "", external!D4)</f>
@@ -17879,7 +17879,7 @@
       </c>
       <c r="C51" s="68">
         <f>IF(external!C5="", "", external!C5)</f>
-        <v>-134.3153532995459</v>
+        <v>-124.3153532995459</v>
       </c>
       <c r="D51" s="68">
         <f>IF(external!D5="", "", external!D5)</f>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="C52" s="68">
         <f>IF(external!C6="", "", external!C6)</f>
-        <v>-143.55295760657992</v>
+        <v>-133.55295760657992</v>
       </c>
       <c r="D52" s="68">
         <f>IF(external!D6="", "", external!D6)</f>
@@ -17939,7 +17939,7 @@
       </c>
       <c r="C53" s="68">
         <f>IF(external!C7="", "", external!C7)</f>
-        <v>-134.31535329954593</v>
+        <v>-124.31535329954593</v>
       </c>
       <c r="D53" s="68">
         <f>IF(external!D7="", "", external!D7)</f>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="C54" s="68">
         <f>IF(external!C8="", "", external!C8)</f>
-        <v>-143.55295760657998</v>
+        <v>-133.55295760657998</v>
       </c>
       <c r="D54" s="68">
         <f>IF(external!D8="", "", external!D8)</f>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="C55" s="68">
         <f>IF(external!C9="", "", external!C9)</f>
-        <v>-134.31535329954596</v>
+        <v>-124.31535329954598</v>
       </c>
       <c r="D55" s="68">
         <f>IF(external!D9="", "", external!D9)</f>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="C56" s="68">
         <f>IF(external!C10="", "", external!C10)</f>
-        <v>-115.84014468547795</v>
+        <v>-105.84014468547795</v>
       </c>
       <c r="D56" s="68">
         <f>IF(external!D10="", "", external!D10)</f>
@@ -18059,7 +18059,7 @@
       </c>
       <c r="C57" s="68">
         <f>IF(external!C11="", "", external!C11)</f>
-        <v>-106.6025403784439</v>
+        <v>-96.602540378443905</v>
       </c>
       <c r="D57" s="68">
         <f>IF(external!D11="", "", external!D11)</f>
@@ -18089,7 +18089,7 @@
       </c>
       <c r="C58" s="68">
         <f>IF(external!C12="", "", external!C12)</f>
-        <v>-115.84014468547792</v>
+        <v>-105.84014468547792</v>
       </c>
       <c r="D58" s="68">
         <f>IF(external!D12="", "", external!D12)</f>
@@ -18119,7 +18119,7 @@
       </c>
       <c r="C59" s="68">
         <f>IF(external!C13="", "", external!C13)</f>
-        <v>-106.60254037844392</v>
+        <v>-96.602540378443919</v>
       </c>
       <c r="D59" s="68">
         <f>IF(external!D13="", "", external!D13)</f>
